--- a/data/raw_data_restore_uppercase.xlsx
+++ b/data/raw_data_restore_uppercase.xlsx
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>[('41', '54', 'PROPERTY'), ('55', '66', 'PROPERTY'), ('153', '157', 'MAT'), ('295', '299', 'MAT'), ('357', '363', 'WEIGHT'), ('11', '25', 'PROPERTY'), ('84', '103', 'PROPERTY'), ('232', '240', 'SHAPE'), ('189', '223', 'DIMENSION'), ('302', '310', 'PROPERTY'), ('313', '324', 'PROPERTY')]</t>
+          <t>[('41', '54', 'PROPERTY'), ('55', '66', 'PROPERTY'), ('153', '157', 'COLOR'), ('295', '299', 'MAT'), ('357', '363', 'WEIGHT'), ('11', '25', 'PROPERTY'), ('84', '103', 'PROPERTY'), ('232', '240', 'SHAPE'), ('189', '223', 'DIMENSION'), ('302', '310', 'PROPERTY'), ('313', '324', 'PROPERTY')]</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>[('41', '54', 'PROPERTY'), ('55', '66', 'PROPERTY'), ('153', '157', 'MAT'), ('295', '299', 'MAT'), ('357', '363', 'WEIGHT'), ('11', '25', 'PROPERTY'), ('84', '103', 'PROPERTY'), ('108', '120', 'PROPERTY'), ('232', '240', 'SHAPE'), ('189', '223', 'DIMENSION'), ('302', '310', 'PROPERTY'), ('313', '324', 'PROPERTY')]</t>
+          <t>[('41', '54', 'PROPERTY'), ('55', '66', 'PROPERTY'), ('153', '157', 'COLOR'), ('295', '299', 'MAT'), ('357', '363', 'WEIGHT'), ('11', '25', 'PROPERTY'), ('84', '103', 'PROPERTY'), ('108', '120', 'PROPERTY'), ('232', '240', 'SHAPE'), ('189', '223', 'DIMENSION'), ('302', '310', 'PROPERTY'), ('313', '324', 'PROPERTY')]</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -27165,12 +27165,12 @@
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>[('18', '27', 'PROPERTY'), ('32', '38', 'PROPERTY'), ('44', '59', 'PROPERTY'), ('116', '125', 'MAIN_PRODUCT'), ('132', '142', 'PROPERTY'), ('143', '149', 'MAT')]</t>
+          <t>[('18', '27', 'PROPERTY'), ('32', '38', 'PROPERTY'), ('44', '59', 'PROPERTY'), ('132', '142', 'PROPERTY'), ('143', '149', 'MAT')]</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t>['four legs', 'welded', 'x - shaped rods', 'table leg', 'non - slip', 'rubber']</t>
+          <t>['four legs', 'welded', 'x - shaped rods', 'non - slip', 'rubber']</t>
         </is>
       </c>
     </row>

--- a/data/raw_data_restore_uppercase.xlsx
+++ b/data/raw_data_restore_uppercase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2787"/>
+  <dimension ref="A1:C3311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20688,7 +20688,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>[('31', '39', 'MAT'), ('44', '60', 'PROPERTY'), ('10', '20', 'PROPERTY')]</t>
+          <t>[('31', '39', 'MAT'), ('44', '60', 'MAT'), ('10', '20', 'PROPERTY')]</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
@@ -47599,7 +47599,7 @@
       </c>
       <c r="B2775" t="inlineStr">
         <is>
-          <t>[('12', '18', 'MAT'), ('21', '29', 'PROPERTY'), ('32', '36', 'PROPERTY'), ('43', '49', 'MAT'), ('147', '155', 'DIMENSION'), ('293', '306', 'MAT'), ('316', '321', 'PROPERTY'), ('334', '345', 'PROPERTY'), ('363', '371', 'PROPERTY')]</t>
+          <t>[('12', '18', 'MAT'), ('21', '29', 'PROPERTY'), ('32', '36', 'PROPERTY'), ('43', '49', 'MAT'), ('147', '155', 'DIMENSION'), ('293', '306', 'NMAT'), ('316', '321', 'PROPERTY'), ('334', '345', 'PROPERTY'), ('363', '371', 'PROPERTY')]</t>
         </is>
       </c>
       <c r="C2775" t="inlineStr">
@@ -47809,6 +47809,8914 @@
       <c r="C2787" t="inlineStr">
         <is>
           <t>['4 Feet X 100 Feet']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="inlineStr">
+        <is>
+          <t>GREAT SOLUTION TO HANG LIGHTWEIGHT OBJECTS . Ideal to hang lightweight objects from ceiling tees like plants , lanterns , decorations , and wind chimes .</t>
+        </is>
+      </c>
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2788" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" t="inlineStr">
+        <is>
+          <t>EASY TO USE AND EFFICIENT . Great design , plastic grid - clip easily snaps over tee to suspend metal S - hook</t>
+        </is>
+      </c>
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>[('0', '11', 'PROPERTY'), ('43', '50', 'MAT'), ('51', '62', 'PROPERTY'), ('96', '101', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2789" t="inlineStr">
+        <is>
+          <t>['EASY TO USE', 'plastic', 'grid - clip', 'metal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="inlineStr">
+        <is>
+          <t>SPECIAL DESIGN . Combination of plastic grid - clip and metal S - hook provides strong hold and durability</t>
+        </is>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>[('32', '39', 'MAT'), ('40', '51', 'PROPERTY'), ('56', '61', 'MAT'), ('96', '106', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2790" t="inlineStr">
+        <is>
+          <t>['plastic', 'grid - clip', 'metal', 'durability']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="inlineStr">
+        <is>
+          <t>CONVENIENT SIZE . 2 . 25 in . long S - hook holds objects up to 5 lbs .</t>
+        </is>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>[('18', '34', 'DIMENSION'), ('64', '69', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2791" t="inlineStr">
+        <is>
+          <t>['2 . 25 in . long', '5 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" t="inlineStr">
+        <is>
+          <t>4 HOOKS PER PACK . Multipurpose , use as many hooks as needed to hang decorations .</t>
+        </is>
+      </c>
+      <c r="B2792" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2792" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" t="inlineStr">
+        <is>
+          <t>❣ ️ Multi - purose : This wall mount hanging plant bracket is great for hanging plant , hummingbird feeders , bird feeders , lanterns , planters , baskets , flower pots , string lights , wind chimes , ornaments and more . This versatile wall mounted heavy duty hangers wall hooks is great decorations for ourdoors , indoors , your home and garden .</t>
+        </is>
+      </c>
+      <c r="B2793" t="inlineStr">
+        <is>
+          <t>[('26', '36', 'PROPERTY'), ('237', '249', 'PROPERTY'), ('250', '260', 'PROPERTY'), ('305', '313', 'PROPERTY'), ('316', '323', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2793" t="inlineStr">
+        <is>
+          <t>['wall mount', 'wall mounted', 'heavy duty', 'ourdoors', 'indoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" t="inlineStr">
+        <is>
+          <t>❣ ️ Premium Quality : This retro design hanging plant hanger metal christmas ornament hooks bracket for hanging is made of heavy duty steel with black coating on it , which makes the hanger solid , sturdy , strong and Rustproof . and the triangular fixed structure provides additional support and strength which keeps the hanging items from falling easily even in strong wind . The hooks can be used on wall , indoors , outdoors , ceiling .</t>
+        </is>
+      </c>
+      <c r="B2794" t="inlineStr">
+        <is>
+          <t>[('27', '39', 'PROPERTY'), ('61', '66', 'MAT'), ('123', '133', 'PROPERTY'), ('134', '139', 'MAT'), ('145', '150', 'COLOR'), ('151', '158', 'PROPERTY'), ('198', '204', 'PROPERTY'), ('207', '213', 'PROPERTY'), ('218', '227', 'PROPERTY'), ('238', '248', 'SHAPE'), ('249', '264', 'PROPERTY'), ('410', '417', 'PROPERTY'), ('420', '428', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2794" t="inlineStr">
+        <is>
+          <t>['retro design', 'metal', 'heavy duty', 'steel', 'black', 'coating', 'sturdy', 'strong', 'Rustproof', 'triangular', 'fixed structure', 'indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" t="inlineStr">
+        <is>
+          <t>❣ ️ Easy to Install : This package includes 2pcs 12 inch black metal wall hooks for hanging , 6pcs screws and 6pcs wall anchors , Just screw them into wooden fence posts , deck columns , outdoor or indoor walls easily .</t>
+        </is>
+      </c>
+      <c r="B2795" t="inlineStr">
+        <is>
+          <t>[('44', '48', 'PROPERTY'), ('49', '56', 'DIMENSION'), ('57', '62', 'COLOR'), ('63', '68', 'MAT'), ('94', '105', 'PROPERTY'), ('110', '127', 'PROPERTY'), ('151', '157', 'NMAT'), ('187', '194', 'PROPERTY'), ('198', '204', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2795" t="inlineStr">
+        <is>
+          <t>['2pcs', '12 inch', 'black', 'metal', '6pcs screws', '6pcs wall anchors', 'wooden', 'outdoor', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" t="inlineStr">
+        <is>
+          <t>❣ ️ Widely Used : You can mount the outdoor plant hanger hooks on wall , deck , fence , door , railing at indoor or outdoor even in living room , garden , garage or balcony , which can make your house more beautiful and elegant .</t>
+        </is>
+      </c>
+      <c r="B2796" t="inlineStr">
+        <is>
+          <t>[('36', '43', 'PROPERTY'), ('106', '112', 'PROPERTY'), ('116', '123', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2796" t="inlineStr">
+        <is>
+          <t>['outdoor', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" t="inlineStr">
+        <is>
+          <t>❣ ️ Size &amp; Weight : Planter bracket length ： approximate 12 inch , Height : 9 . 5 inch , The forged iron plant wall hanger weighted around 0 . 78LB which can hold items up to 50 Pounds .</t>
+        </is>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>[('57', '64', 'DIMENSION'), ('67', '86', 'DIMENSION'), ('93', '104', 'MAT'), ('139', '147', 'WEIGHT'), ('175', '184', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2797" t="inlineStr">
+        <is>
+          <t>['12 inch', 'Height : 9 . 5 inch', 'forged iron', '0 . 78LB', '50 Pounds']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" t="inlineStr">
+        <is>
+          <t>STYLISH : Hand forged wrought iron offers a charming , traditional look . A dark finish stunningly complements anything that hangs from it , adding elegance and beauty to your home or garden . Matching black screws maintain a consistent , sleek look .</t>
+        </is>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>[('10', '34', 'MAT'), ('76', '87', 'PROPERTY'), ('202', '207', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C2798" t="inlineStr">
+        <is>
+          <t>['Hand forged wrought iron', 'dark finish', 'black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" t="inlineStr">
+        <is>
+          <t>PREMIUM QUALITY : Rust resistant , heavy duty steel construction . Bring your heaviest pots and baskets !</t>
+        </is>
+      </c>
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>[('18', '32', 'PROPERTY'), ('35', '45', 'PROPERTY'), ('46', '51', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2799" t="inlineStr">
+        <is>
+          <t>['Rust resistant', 'heavy duty', 'steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" t="inlineStr">
+        <is>
+          <t>VERSATILE : Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . Curved tip helps securely hold items while adding to the exquisite look .</t>
+        </is>
+      </c>
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>[('23', '27', 'NMAT'), ('63', '69', 'PROPERTY'), ('135', '145', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2800" t="inlineStr">
+        <is>
+          <t>['wood', 'indoor', 'Curved tip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" t="inlineStr">
+        <is>
+          <t>Design : 15 . 75 inches long and 9 . 65 inches wide with perfect curved design , hand - forged hook with top stretch treatment , stylish and generous appearance . Any angle installation can meet your needs .</t>
+        </is>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>[('9', '28', 'DIMENSION'), ('33', '51', 'DIMENSION'), ('65', '78', 'PROPERTY'), ('81', '94', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2801" t="inlineStr">
+        <is>
+          <t>['15 . 75 inches long', '9 . 65 inches wide', 'curved design', 'hand - forged']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" t="inlineStr">
+        <is>
+          <t>Easy to install : The elongated back plate makes it easy to install the top screw and provides extra support and strength . Simply use the two coated black screws that are included with your hook to attach it to a deck , fence , post , wall , or tree .</t>
+        </is>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>[('22', '42', 'PROPERTY'), ('150', '155', 'COLOR'), ('143', '149', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2802" t="inlineStr">
+        <is>
+          <t>['elongated back plate', 'black', 'coated']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" t="inlineStr">
+        <is>
+          <t>Quality : The main body uses solid round iron rods with good load - bearing performance . The base is made of high - quality iron to extend its life . Black paint is rust - resistant and durable , giving your yard a different feel .</t>
+        </is>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>[('41', '45', 'MAT'), ('61', '75', 'PROPERTY'), ('125', '129', 'MAT'), ('151', '156', 'COLOR'), ('166', '182', 'PROPERTY'), ('187', '194', 'PROPERTY'), ('35', '40', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C2803" t="inlineStr">
+        <is>
+          <t>['iron', 'load - bearing', 'iron', 'Black', 'rust - resistant', 'durable', 'round']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="inlineStr">
+        <is>
+          <t>Versatility : Screw this hanger into a wooden fence , deck post or even an interior wall . Looks great in a variety of environments . The curved nib helps securely secure items while adding a beautiful look .</t>
+        </is>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>[('39', '45', 'NMAT'), ('138', '148', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2804" t="inlineStr">
+        <is>
+          <t>['wooden', 'curved nib']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" t="inlineStr">
+        <is>
+          <t>EASY TO INSTALL - Sets come with all the necessary hardware to install quickly , and securely , Can installed on Brick , Drywall , Wood , and Concrete Walls etc .</t>
+        </is>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>[('113', '118', 'NMAT'), ('121', '128', 'NMAT'), ('131', '135', 'NMAT'), ('142', '150', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C2805" t="inlineStr">
+        <is>
+          <t>['Brick', 'Drywall', 'Wood', 'Concrete']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" t="inlineStr">
+        <is>
+          <t>SPECIAL DESIGN - Clean modern design , Hand - forged , You can mount on ceiling , wall , deck , fence , door for indoor or outdoor , Beautify your home or garden .</t>
+        </is>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>[('39', '52', 'PROPERTY'), ('113', '119', 'PROPERTY'), ('123', '130', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr">
+        <is>
+          <t>['Hand - forged', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" t="inlineStr">
+        <is>
+          <t>HIGH QUALITY MATERIAL - Made of heavy duty steel construction , High quality paint treatment , Durable and sturdy . Hangs up to 50 lbs .</t>
+        </is>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>[('32', '42', 'PROPERTY'), ('43', '48', 'MAT'), ('95', '102', 'PROPERTY'), ('107', '113', 'PROPERTY'), ('128', '134', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2807" t="inlineStr">
+        <is>
+          <t>['heavy duty', 'steel', 'Durable', 'sturdy', '50 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="inlineStr">
+        <is>
+          <t>HEAVY DUTY - Drywall bears more than 30 Pounds and Brick or Wood bears more than 50 Pounds .</t>
+        </is>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>[('0', '10', 'PROPERTY'), ('13', '20', 'NMAT'), ('37', '46', 'WEIGHT'), ('51', '56', 'NMAT'), ('60', '64', 'NMAT'), ('81', '90', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2808" t="inlineStr">
+        <is>
+          <t>['HEAVY DUTY', 'Drywall', '30 Pounds', 'Brick', 'Wood', '50 Pounds']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" t="inlineStr">
+        <is>
+          <t>ADDITIONAL DELIVERY - We configure professional drywall anchors for gypsum ceilings , concrete walls , and wood walls , Allowing you to easily install them in any hanging position .</t>
+        </is>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>[('86', '94', 'NMAT'), ('107', '111', 'NMAT'), ('48', '55', 'NMAT'), ('68', '74', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C2809" t="inlineStr">
+        <is>
+          <t>['concrete', 'wood', 'drywall', 'gypsum']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" t="inlineStr">
+        <is>
+          <t>🔥 【 What You Will Get 】 10 x Short Hook ( 24cm ) , 10 x Medium Hook ( 36cm ) , 10 x Long Hook ( 39cm ) . 30pcs in total , enough quantity to meet your needs .</t>
+        </is>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2810" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="inlineStr">
+        <is>
+          <t>🔥 【 High Quality Material 】 The hanging replacement chain is made of plastic , not easy to rust and deform , and weather - resistant , very suitable for indoor and outdoor .</t>
+        </is>
+      </c>
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>[('69', '76', 'MAT'), ('113', '132', 'PROPERTY'), ('153', '159', 'PROPERTY'), ('164', '171', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2811" t="inlineStr">
+        <is>
+          <t>['plastic', 'weather - resistant', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="inlineStr">
+        <is>
+          <t>🔥 【 Convenient Design 】 It is very easy to install hanging basket chain . You need to buckle one end of the hook to the position where you want to , and the other side of the clip can completely fasten the object .</t>
+        </is>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2812" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" t="inlineStr">
+        <is>
+          <t>🔥 【 Stable Design 】 Three point design provides more support for your flower basket . Uniform distribution of pressure makes the flower basket or flowerpot more stable and not easy to fall off .</t>
+        </is>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2813" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" t="inlineStr">
+        <is>
+          <t>🔥 【 Scope of Application 】 The small hanging baskets chain is very suitable for hanging bird feeders , wind chimes , flower pots , plant baskets , lanterns or other outdoor and indoor decorations .</t>
+        </is>
+      </c>
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>[('31', '36', 'SIZE')]</t>
+        </is>
+      </c>
+      <c r="C2814" t="inlineStr">
+        <is>
+          <t>['small']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" t="inlineStr">
+        <is>
+          <t>Sufficient quantity : you will receive 3 pieces plant hangers , each with 4 pieces 1 . 5 x 0 . 3 inch iron screws and 4 pieces 1 . 2 x 0 . 25 inch yellow plastic screw fixed parts , nice combination to meet with your demands</t>
+        </is>
+      </c>
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>[('39', '61', 'PROPERTY'), ('74', '82', 'PROPERTY'), ('83', '101', 'DIMENSION'), ('102', '106', 'MAT'), ('118', '126', 'PROPERTY'), ('127', '146', 'DIMENSION'), ('147', '153', 'COLOR'), ('154', '161', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2815" t="inlineStr">
+        <is>
+          <t>['3 pieces plant hangers', '4 pieces', '1 . 5 x 0 . 3 inch', 'iron', '4 pieces', '1 . 2 x 0 . 25 inch', 'yellow', 'plastic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="inlineStr">
+        <is>
+          <t>Reliable materials : these plant hooks for wall are made of quality wood material , which are lightweight and reliable , reusable and sturdy , and can keep pots from touching the walls</t>
+        </is>
+      </c>
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>[('68', '72', 'MAT'), ('94', '105', 'PROPERTY'), ('110', '118', 'PROPERTY'), ('121', '129', 'PROPERTY'), ('134', '140', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2816" t="inlineStr">
+        <is>
+          <t>['wood', 'lightweight', 'reliable', 'reusable', 'sturdy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="inlineStr">
+        <is>
+          <t>Versatile to use : there are grooves at the top of the plant hanging hook , which can be applied to hold hanging objects and keep them from touching the wall ; The wooden color is simple and does not conflict with the hanging objects , very easy to install and equipped with materials suitable for most applications , you can always replace the screws you want if required</t>
+        </is>
+      </c>
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>[('164', '170', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C2817" t="inlineStr">
+        <is>
+          <t>['wooden']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" t="inlineStr">
+        <is>
+          <t>【 Sturdy &amp; Durable Plant Pulley 】 The plant pulleys for hanging plants are made of durable metal hooks and strong nylon rope . Can hold plants or flower baskets 2 . 2Ib ( Minimum ) - 22Ib ( Maximum ) . It has a strong load - bearing capacity , strong and durable , and is not easy to break . You can use it safely .</t>
+        </is>
+      </c>
+      <c r="B2818" t="inlineStr">
+        <is>
+          <t>[('2', '8', 'PROPERTY'), ('11', '18', 'PROPERTY'), ('83', '90', 'PROPERTY'), ('91', '96', 'MAT'), ('114', '119', 'MAT'), ('218', '241', 'PROPERTY'), ('255', '262', 'PROPERTY'), ('161', '168', 'DIMENSION'), ('183', '187', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2818" t="inlineStr">
+        <is>
+          <t>['Sturdy', 'Durable', 'durable', 'metal', 'nylon', 'load - bearing capacity', 'durable', '2 . 2Ib', '22Ib']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" t="inlineStr">
+        <is>
+          <t>【 Easy to Adjust 】 This retractable plant pulley allows to adjust the length easily . It can be stretched up to 35inch / 90cm . You can set the height according you need . No need to use ladders to reach the hanging basket to water the plants . Watering and feeding are more convenient and safe .</t>
+        </is>
+      </c>
+      <c r="B2819" t="inlineStr">
+        <is>
+          <t>[('24', '35', 'PROPERTY'), ('10', '16', 'PROPERTY'), ('112', '125', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2819" t="inlineStr">
+        <is>
+          <t>['retractable', 'Adjust', '35inch / 90cm']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="inlineStr">
+        <is>
+          <t>【 How to Install 】 The plant pulley is easy to install . The package including 3pcs white ceiling plant hooks . You are easy to twist the screw hooks into wood , plywood and drywall . It can bite into swiftly without stripping . The rope must be pulled slowly and vertically to get stuck in place .</t>
+        </is>
+      </c>
+      <c r="B2820" t="inlineStr">
+        <is>
+          <t>[('79', '83', 'PROPERTY'), ('84', '89', 'COLOR'), ('155', '159', 'NMAT'), ('162', '169', 'NMAT'), ('174', '181', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C2820" t="inlineStr">
+        <is>
+          <t>['3pcs', 'white', 'wood', 'plywood', 'drywall']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" t="inlineStr">
+        <is>
+          <t>【 Widely Used 】 The retractable pulley plant hanger is suitable for holding bird feeders , plant baskets , birdhouses , lanterns , wind chimes and other ornaments . Can be used in the garden , eaves , home , porch and balcony .</t>
+        </is>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>[('20', '31', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2821" t="inlineStr">
+        <is>
+          <t>['retractable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="inlineStr">
+        <is>
+          <t>【 Sturdy And Durable 】 Wall Plant Hanger Ring is made of thick wire diameter solid iron material , hard texture , not easy to deform . Electrostatic painting treatment , matte black surface treatment . Not easy to rust and show better grade .</t>
+        </is>
+      </c>
+      <c r="B2822" t="inlineStr">
+        <is>
+          <t>[('2', '8', 'PROPERTY'), ('13', '20', 'PROPERTY'), ('77', '87', 'MAT'), ('99', '111', 'PROPERTY'), ('135', '157', 'PROPERTY'), ('170', '181', 'COLOR'), ('114', '132', 'PROPERTY'), ('202', '218', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2822" t="inlineStr">
+        <is>
+          <t>['Sturdy', 'Durable', 'solid iron', 'hard texture', 'Electrostatic painting', 'matte black', 'not easy to deform', 'Not easy to rust']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="inlineStr">
+        <is>
+          <t>【 Perfect Decor 】 Hollowing wall hanging and simple structure design saves space , with these brackets you can hang plants , or beautiful flower pots for to add color and decoration .</t>
+        </is>
+      </c>
+      <c r="B2823" t="inlineStr">
+        <is>
+          <t>[('28', '40', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2823" t="inlineStr">
+        <is>
+          <t>['wall hanging']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="inlineStr">
+        <is>
+          <t>【 Suitable Size 】 4pack , 4 inch inner diameter for you choose , have just the right size to hold the round shaped container that caliber above 4 " . ( Please measure the size of your item before purchasing the flower pot holder )</t>
+        </is>
+      </c>
+      <c r="B2824" t="inlineStr">
+        <is>
+          <t>[('26', '32', 'DIMENSION'), ('102', '107', 'SHAPE'), ('144', '147', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2824" t="inlineStr">
+        <is>
+          <t>['4 inch', 'round', '4 "']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="inlineStr">
+        <is>
+          <t>💜 【 Decorative beautification 】 A variety of sizes to choose from , you can choose the corresponding size of the wall plant holder according to your actual needs , not only to save space on the floor , but also to better decorate your house , yard and garden , so that the monotonous environment becomes more design and three - dimensional sense , enjoy decorating your living space !</t>
+        </is>
+      </c>
+      <c r="B2825" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2825" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" t="inlineStr">
+        <is>
+          <t>【 Easy Installation 】 Just need you to punch two holes then easily mounts to any flat surface with two screws , perfect for your courtyard , porch , balcony , garden , etc .</t>
+        </is>
+      </c>
+      <c r="B2826" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2826" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" t="inlineStr">
+        <is>
+          <t>① High quality and practical : this macrame shelf build in solid pine wood and Handmade woven macrame cotton ropes , adding strength and durability to the structure . , which matches any rustic , boho , modern , or minimalist home decor</t>
+        </is>
+      </c>
+      <c r="B2827" t="inlineStr">
+        <is>
+          <t>[('36', '43', 'PROPERTY'), ('59', '74', 'MAT'), ('88', '108', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2827" t="inlineStr">
+        <is>
+          <t>['macrame', 'solid pine wood', 'woven macrame cotton']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" t="inlineStr">
+        <is>
+          <t>② Display and Storage Shelves : This double wall shelf creates extra space to beautifully display your favorite framed photos , collectibles , small plants , reed diffusers , spices , towels or small items . Decorative and practical . Place the bohemian decor shelf in your nursery , bedroom , living room , dorm , entrance , counter and more</t>
+        </is>
+      </c>
+      <c r="B2828" t="inlineStr">
+        <is>
+          <t>[('37', '48', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2828" t="inlineStr">
+        <is>
+          <t>['double wall']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" t="inlineStr">
+        <is>
+          <t>③ Lifestyle : Our boho wall hanging shelves are made with torched wooden planks and cotton rope . Solid and durable . The materials we use are very environmentally friendly and make your life more comfortable , ideal for housewarmings , birthday , anniversary , wedding , Valentine ' s Day , Mother ' s Day , Thanksgiving , Christmas</t>
+        </is>
+      </c>
+      <c r="B2829" t="inlineStr">
+        <is>
+          <t>[('66', '72', 'MAT'), ('84', '90', 'MAT'), ('98', '103', 'PROPERTY'), ('108', '115', 'PROPERTY'), ('23', '35', 'PROPERTY'), ('58', '65', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2829" t="inlineStr">
+        <is>
+          <t>['wooden', 'cotton', 'Solid', 'durable', 'wall hanging', 'torched']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" t="inlineStr">
+        <is>
+          <t>④ Easy to hang : This wall decor shelf come fully assembled , just have to install the hooks . Package come with 2 easy hanging hooks . the shelf can easily be leveled</t>
+        </is>
+      </c>
+      <c r="B2830" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2830" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" t="inlineStr">
+        <is>
+          <t>⑤ 100 % money back guarantee : You ' ll love the YUNHAO Wall Hanging Shelves but if you ' re not satisfied , returns or exchanges are always free within 30 days . . Size : 15 3 / 4 ' ' L x 5 4 / 5 ' ' W x 3 / 5 ' ' Thickness . Please note that the 2 tier wood shelf must be hung on the wall to maintain balance</t>
+        </is>
+      </c>
+      <c r="B2831" t="inlineStr">
+        <is>
+          <t>[('172', '224', 'DIMENSION'), ('248', '254', 'PROPERTY'), ('255', '259', 'MAT'), ('56', '68', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2831" t="inlineStr">
+        <is>
+          <t>["15 3 / 4 ' ' L x 5 4 / 5 ' ' W x 3 / 5 ' ' Thickness", '2 tier', 'wood', 'Wall Hanging']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" t="inlineStr">
+        <is>
+          <t>Beautiful Design : Leaf shaped hanging plant bracket using stylish retro and artsy design . Each leaf texture is made by manually , like real , without burr . Original swirling leaf shape of the fence hooks , elegant curves and simple appearance create attractive displays and let your garden and a home full of vitality .</t>
+        </is>
+      </c>
+      <c r="B2832" t="inlineStr">
+        <is>
+          <t>[('19', '23', 'SHAPE'), ('59', '72', 'PROPERTY'), ('77', '89', 'PROPERTY'), ('97', '109', 'PROPERTY'), ('168', '181', 'SHAPE'), ('144', '156', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2832" t="inlineStr">
+        <is>
+          <t>['Leaf', 'stylish retro', 'artsy design', 'leaf texture', 'swirling leaf', 'without burr']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" t="inlineStr">
+        <is>
+          <t>Dimension : Hanging bracket : 12 " L x 0 . 59 " W x 7 . 4 " H . You can mount it on the wall , deck , fence , door for indoor or outdoor events in the living room , garden , garage or balcony .</t>
+        </is>
+      </c>
+      <c r="B2833" t="inlineStr">
+        <is>
+          <t>[('30', '61', 'DIMENSION'), ('119', '125', 'PROPERTY'), ('129', '136', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2833" t="inlineStr">
+        <is>
+          <t>['12 " L x 0 . 59 " W x 7 . 4 " H', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" t="inlineStr">
+        <is>
+          <t>Premium Quality : Hanging plants bracket hook is made of premium quality iron . Heavy duty steel construction offers a good load bearing capacity , sturdy and durable . Metal brackets surface with double layer painting , rust resistant . Fit for outdoor and indoor use .</t>
+        </is>
+      </c>
+      <c r="B2834" t="inlineStr">
+        <is>
+          <t>[('73', '77', 'MAT'), ('80', '90', 'PROPERTY'), ('91', '96', 'MAT'), ('124', '136', 'PROPERTY'), ('148', '154', 'PROPERTY'), ('159', '166', 'PROPERTY'), ('169', '174', 'MAT'), ('197', '218', 'PROPERTY'), ('221', '235', 'PROPERTY'), ('246', '253', 'PROPERTY'), ('258', '264', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2834" t="inlineStr">
+        <is>
+          <t>['iron', 'Heavy duty', 'steel', 'load bearing', 'sturdy', 'durable', 'Metal', 'double layer painting', 'rust resistant', 'outdoor', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" t="inlineStr">
+        <is>
+          <t>Easy to Install : Our wrought iron hook is easy to install on walls , posts or decks . Comes with all the necessary hardware . The package included 4 sets of hanging wall hanging plants and screws .</t>
+        </is>
+      </c>
+      <c r="B2835" t="inlineStr">
+        <is>
+          <t>[('22', '34', 'MAT'), ('148', '165', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2835" t="inlineStr">
+        <is>
+          <t>['wrought iron', '4 sets of hanging']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" t="inlineStr">
+        <is>
+          <t>MATERIAL : This retractable plant pulley hook is made of plastic , metal hooks and strong nylon ropes . Sturdy and durable . The retractable length is approximately 20 - 90 cm / 7 . 87 - 35 . 43 inch</t>
+        </is>
+      </c>
+      <c r="B2836" t="inlineStr">
+        <is>
+          <t>[('16', '27', 'PROPERTY'), ('57', '64', 'MAT'), ('67', '72', 'MAT'), ('90', '95', 'MAT'), ('104', '110', 'PROPERTY'), ('115', '122', 'PROPERTY'), ('129', '140', 'PROPERTY'), ('165', '199', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2836" t="inlineStr">
+        <is>
+          <t>['retractable', 'plastic', 'metal', 'nylon', 'Sturdy', 'durable', 'retractable', '20 - 90 cm / 7 . 87 - 35 . 43 inch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" t="inlineStr">
+        <is>
+          <t>VERSATILE USES : Hooks anywhere in your home , kitchen , balcony or family room . Perfectly for holding planters , bird cage , feeders , decorative hanging baskets and more . Retractable nylon strap extends 35 inch for different needs</t>
+        </is>
+      </c>
+      <c r="B2837" t="inlineStr">
+        <is>
+          <t>[('175', '186', 'PROPERTY'), ('187', '192', 'MAT'), ('207', '214', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2837" t="inlineStr">
+        <is>
+          <t>['Retractable', 'nylon', '35 inch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" t="inlineStr">
+        <is>
+          <t>RAISE AND DOWN : Retractable nylon rope Allowing you to raise and lower hanging plants and baskets freely , effectively keep it from pets and easy reach while in needs . Allows you to keep plants watered and fed without awkward overhead reaching or teetering on unsafe chairs or stools</t>
+        </is>
+      </c>
+      <c r="B2838" t="inlineStr">
+        <is>
+          <t>[('17', '28', 'PROPERTY'), ('29', '34', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2838" t="inlineStr">
+        <is>
+          <t>['Retractable', 'nylon']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" t="inlineStr">
+        <is>
+          <t>HOW TO USE : The plant hooks pulley working principle is in the opposite way to the seat belt . There is a flexible internal spring in the device , and the rope must be pulled slowly to get stuck in the inside position . When using , first pull the rope to the position you want , and then slowly pull the rope , the rope can be stuck in the position inside . Try it more times , and you ' ll find out how it works . Please control the strength when pulling the rope . It doesn ' t take much strength</t>
+        </is>
+      </c>
+      <c r="B2839" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2839" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="inlineStr">
+        <is>
+          <t>WHAT YOU GET : 3 x plant hanging pulley . ( Note : Load capacity from 1 . 2kg to 10kg . Please do not hang goods less than 1kg or heavy goods )</t>
+        </is>
+      </c>
+      <c r="B2840" t="inlineStr">
+        <is>
+          <t>[('70', '77', 'WEIGHT'), ('81', '85', 'WEIGHT'), ('123', '126', 'WEIGHT'), ('15', '39', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2840" t="inlineStr">
+        <is>
+          <t>['1 . 2kg', '10kg', '1kg', '3 x plant hanging pulley']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="inlineStr">
+        <is>
+          <t>Multi - function : Wall mounted hook for hanging planters , lanterns , flower pots , bird feeders , wall sconce , wind chimes , string light , holiday decorations , suitable for outdoor , indoor and interior decoration , adding minimalist design to your home or garden .</t>
+        </is>
+      </c>
+      <c r="B2841" t="inlineStr">
+        <is>
+          <t>[('19', '31', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2841" t="inlineStr">
+        <is>
+          <t>['Wall mounted']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" t="inlineStr">
+        <is>
+          <t>High Quality Material - Made of heavy - duty carbon steel construction , high quality paint treatment , durable and sturdy . Hangs up to 50 lbs .</t>
+        </is>
+      </c>
+      <c r="B2842" t="inlineStr">
+        <is>
+          <t>[('32', '44', 'PROPERTY'), ('45', '57', 'MAT'), ('104', '111', 'PROPERTY'), ('116', '122', 'PROPERTY'), ('137', '143', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2842" t="inlineStr">
+        <is>
+          <t>['heavy - duty', 'carbon steel', 'durable', 'sturdy', '50 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" t="inlineStr">
+        <is>
+          <t>Package Include : pack of 2 plant hanging bracket with 8 mounting screws . Screw length : Approx . 30mm / 1 . 18inch , Expansion tube length : Approx . 30mm / 1 . 18inch .</t>
+        </is>
+      </c>
+      <c r="B2843" t="inlineStr">
+        <is>
+          <t>[('55', '72', 'PROPERTY'), ('99', '116', 'DIMENSION'), ('152', '169', 'DIMENSION'), ('26', '49', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2843" t="inlineStr">
+        <is>
+          <t>['8 mounting screws', '30mm / 1 . 18inch', '30mm / 1 . 18inch', '2 plant hanging bracket']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" t="inlineStr">
+        <is>
+          <t>Locking Buckle Design : lock and release easily</t>
+        </is>
+      </c>
+      <c r="B2844" t="inlineStr">
+        <is>
+          <t>[('0', '21', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2844" t="inlineStr">
+        <is>
+          <t>['Locking Buckle Design']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" t="inlineStr">
+        <is>
+          <t>High Quality : Weatherproof and rustproof , it can be hold up to 40 lbs , suitable for interior and exterior use</t>
+        </is>
+      </c>
+      <c r="B2845" t="inlineStr">
+        <is>
+          <t>[('15', '27', 'PROPERTY'), ('32', '41', 'PROPERTY'), ('65', '71', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2845" t="inlineStr">
+        <is>
+          <t>['Weatherproof', 'rustproof', '40 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" t="inlineStr">
+        <is>
+          <t>Diameter &amp; Length : 1 / 5 inch X 3 inch</t>
+        </is>
+      </c>
+      <c r="B2846" t="inlineStr">
+        <is>
+          <t>[('20', '39', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2846" t="inlineStr">
+        <is>
+          <t>['1 / 5 inch X 3 inch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" t="inlineStr">
+        <is>
+          <t>Designed for installation into wood</t>
+        </is>
+      </c>
+      <c r="B2847" t="inlineStr">
+        <is>
+          <t>[('31', '35', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C2847" t="inlineStr">
+        <is>
+          <t>['wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" t="inlineStr">
+        <is>
+          <t>These wall plant holder are perfect to display herbs , flowers or plants on vertical gardening space . These sturdy wall mounted brackets can hold a variety of round shaped container .</t>
+        </is>
+      </c>
+      <c r="B2848" t="inlineStr">
+        <is>
+          <t>[('109', '115', 'PROPERTY'), ('116', '128', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2848" t="inlineStr">
+        <is>
+          <t>['sturdy', 'wall mounted']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" t="inlineStr">
+        <is>
+          <t>Matte Black finish on the surface . Featured with swing arm holder that it can swing for 90 degrees and turns to up or down . When it is not use , folded it to the wall side and occupied less space . Great storage solution for patio , balcony , porch , yard and window views .</t>
+        </is>
+      </c>
+      <c r="B2849" t="inlineStr">
+        <is>
+          <t>[('0', '11', 'COLOR'), ('89', '99', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2849" t="inlineStr">
+        <is>
+          <t>['Matte Black', '90 degrees']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" t="inlineStr">
+        <is>
+          <t>Package Included 3 packs of herb wall plant holder and the screw kit . The 6 inch flower pot holder has an interior diameter of 5 - 7 / 16 " .</t>
+        </is>
+      </c>
+      <c r="B2850" t="inlineStr">
+        <is>
+          <t>[('75', '81', 'DIMENSION'), ('128', '140', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2850" t="inlineStr">
+        <is>
+          <t>['6 inch', '5 - 7 / 16 "']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" t="inlineStr">
+        <is>
+          <t>The hanger are finished with a powder coated material that is more resilient than liquid paint . The wrought iron is heavy duty , without chip or corrode easily .</t>
+        </is>
+      </c>
+      <c r="B2851" t="inlineStr">
+        <is>
+          <t>[('31', '37', 'MAT'), ('38', '44', 'PROPERTY'), ('101', '113', 'MAT'), ('117', '127', 'PROPERTY'), ('130', '142', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2851" t="inlineStr">
+        <is>
+          <t>['powder', 'coated', 'wrought iron', 'heavy duty', 'without chip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" t="inlineStr">
+        <is>
+          <t>Adding plants to your home ’ s indoor or outdoor , It will be easy to decor with pot brackets . Simply find a wall , fence post , or flat surface that is stable enough to hold the metal planter and install with the screw kits . Create an array of containers with this functional style that can fit in with vintage , antique , living or farmhouse , contemporary or modern decor .</t>
+        </is>
+      </c>
+      <c r="B2852" t="inlineStr">
+        <is>
+          <t>[('41', '48', 'PROPERTY'), ('154', '160', 'PROPERTY'), ('180', '185', 'MAT'), ('31', '37', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2852" t="inlineStr">
+        <is>
+          <t>['outdoor', 'stable', 'metal', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" t="inlineStr">
+        <is>
+          <t>【 High - Quality Material 】 : These hook can holds up to 40 pounds . Size 1 . 2 x 2 . 2inch . Made of sturdy metal iron with a black anti - rust paint on the surface , which is not easy to break and rust .</t>
+        </is>
+      </c>
+      <c r="B2853" t="inlineStr">
+        <is>
+          <t>[('57', '66', 'WEIGHT'), ('74', '91', 'DIMENSION'), ('102', '108', 'PROPERTY'), ('109', '114', 'MAT'), ('115', '119', 'MAT'), ('127', '132', 'COLOR'), ('133', '150', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2853" t="inlineStr">
+        <is>
+          <t>['40 pounds', '1 . 2 x 2 . 2inch', 'sturdy', 'metal', 'iron', 'black', 'anti - rust paint']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" t="inlineStr">
+        <is>
+          <t>【 Safety Buckle Design 】 : This hook is windproof and waterproof . The hook has a safety buckle design , which can prevent items from shaking or falling due to wind , rain or other uncontrollable factors . It is a very safe and user - friendly design .</t>
+        </is>
+      </c>
+      <c r="B2854" t="inlineStr">
+        <is>
+          <t>[('40', '49', 'PROPERTY'), ('54', '64', 'PROPERTY'), ('9', '22', 'PROPERTY'), ('89', '102', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2854" t="inlineStr">
+        <is>
+          <t>['windproof', 'waterproof', 'Buckle Design', 'buckle design']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" t="inlineStr">
+        <is>
+          <t>【 Easy to Install 】 : Christmas lights hanging hooks 20 - Pack are quick and easy to install , You can hit the wood directly with a hammer , or you can screw in the wood with a wrench . To install a hook on the wall , you need to make a hole in the wall , put a plastic tube , and then put the hook into the plastic tube . 1 / 8in drill bit is recommended .</t>
+        </is>
+      </c>
+      <c r="B2855" t="inlineStr">
+        <is>
+          <t>[('53', '62', 'PROPERTY'), ('111', '115', 'NMAT'), ('165', '169', 'NMAT'), ('262', '269', 'NMAT'), ('308', '315', 'NMAT'), ('323', '340', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2855" t="inlineStr">
+        <is>
+          <t>['20 - Pack', 'wood', 'wood', 'plastic', 'plastic', '1 / 8in drill bit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" t="inlineStr">
+        <is>
+          <t>【 Wide Application 】 : Outdoor hanging hooks are windproof , strong , and permanent . You can use them literally anywhere ! Perfect for outdoor string lights , patio lights , Christmas lights , plants , fairy lights , bird feeders and houses , flower pots , wind chimes , icicle lights , deck lights , mugs , and decorations .</t>
+        </is>
+      </c>
+      <c r="B2856" t="inlineStr">
+        <is>
+          <t>[('23', '30', 'PROPERTY'), ('49', '58', 'PROPERTY'), ('136', '143', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2856" t="inlineStr">
+        <is>
+          <t>['Outdoor', 'windproof', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" t="inlineStr">
+        <is>
+          <t>【 Package Include 】 : 20 * Q hanger hooks , 20 * plastic screw tubes , 1 * wing nut drill bit socket tool - you can use it when you encounter a solid wall surface .</t>
+        </is>
+      </c>
+      <c r="B2857" t="inlineStr">
+        <is>
+          <t>[('22', '41', 'PROPERTY'), ('44', '68', 'PROPERTY'), ('71', '105', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2857" t="inlineStr">
+        <is>
+          <t>['20 * Q hanger hooks', '20 * plastic screw tubes', '1 * wing nut drill bit socket tool']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="inlineStr">
+        <is>
+          <t>For indoor and outdoor use : This small angled up curled bracket hook is ideal for hanging your favorite indoor and outdoor decorations . It measures 6 " From the wall , making it suitable for a small lantern , bell , bird feeder , or garden ornament . Attach to any flat wall , garden , porch or deck post .</t>
+        </is>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t>[('4', '10', 'PROPERTY'), ('15', '22', 'PROPERTY'), ('105', '111', 'PROPERTY'), ('116', '123', 'PROPERTY'), ('150', '153', 'DIMENSION'), ('34', '39', 'SIZE'), ('40', '49', 'PROPERTY'), ('50', '56', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2858" t="inlineStr">
+        <is>
+          <t>['indoor', 'outdoor', 'indoor', 'outdoor', '6 "', 'small', 'angled up', 'curled']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="inlineStr">
+        <is>
+          <t>Easily installed : adding style and functionality to your Outdoor or indoor space with an iron plant hanger hook Doesn ’ t need to be complicated . Simply find a flat surface on which the wrought iron hook can be mounted and hang whatever you desire . These incredibly functional hooks are sure to remain sturdy when properly installed . Stainless Steel mounting screws are provided .</t>
+        </is>
+      </c>
+      <c r="B2859" t="inlineStr">
+        <is>
+          <t>[('69', '75', 'PROPERTY'), ('90', '94', 'MAT'), ('188', '200', 'MAT'), ('305', '311', 'PROPERTY'), ('338', '353', 'NMAT'), ('58', '65', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2859" t="inlineStr">
+        <is>
+          <t>['indoor', 'iron', 'wrought iron', 'sturdy', 'Stainless Steel', 'Outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" t="inlineStr">
+        <is>
+          <t>Handmade wrought iron : Our 6 " Up curled bracket is forged from square stock for superior strength and rigidity , despite its small size . The square Hammered look has a craftsman style that fits with a vintage , rustic , or artisan decorative style . Actual dimensions are 6 " L x 4 " H , but because every Metal wall hook that we create is handmade , the dimensions may vary slightly .</t>
+        </is>
+      </c>
+      <c r="B2860" t="inlineStr">
+        <is>
+          <t>[('0', '8', 'PROPERTY'), ('9', '21', 'MAT'), ('28', '41', 'PROPERTY'), ('65', '71', 'SHAPE'), ('144', '150', 'SHAPE'), ('275', '288', 'DIMENSION'), ('309', '314', 'MAT'), ('343', '351', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2860" t="inlineStr">
+        <is>
+          <t>['Handmade', 'wrought iron', '6 " Up curled', 'square', 'square', '6 " L x 4 " H', 'Metal', 'handmade']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" t="inlineStr">
+        <is>
+          <t>Corrosion resistant : Achla Designs wrought iron brackets are finished for weather resistance with a material that is more resilient than liquid paint . The iron is sealed with a powder coating that is applied electrostatically , leaving a matte Black hard finish that won ’ t chip or corrode as easily as paint . Enjoy the functional beauty for years .</t>
+        </is>
+      </c>
+      <c r="B2861" t="inlineStr">
+        <is>
+          <t>[('0', '19', 'PROPERTY'), ('36', '48', 'MAT'), ('75', '93', 'PROPERTY'), ('138', '144', 'NMAT'), ('157', '161', 'MAT'), ('179', '185', 'MAT'), ('186', '193', 'PROPERTY'), ('210', '227', 'PROPERTY'), ('246', '251', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C2861" t="inlineStr">
+        <is>
+          <t>['Corrosion resistant', 'wrought iron', 'weather resistance', 'liquid', 'iron', 'powder', 'coating', 'electrostatically', 'Black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="inlineStr">
+        <is>
+          <t>Many styles available : We have a wide variety of hook and bracket Sizes and styles to hang all types of garden , plant and home accessories and d é cor . For birdbaths , feeders , baskets , planters , wind chimes and lanterns , we have a hook or bracket for every application . See our full selection of Achla Designs extenders , shelf brackets and plant hooks and hangers . Makers of fine quality goods for the home and garden since 1994 , we also offer a full line of Achla Designs wrought iron landscape struct</t>
+        </is>
+      </c>
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>[('485', '497', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2862" t="inlineStr">
+        <is>
+          <t>['wrought iron']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="inlineStr">
+        <is>
+          <t>Quantity : 4 Pieces of Swivel Ring Hook , rotates 360 degrees to prevent rope twisting . Meet the needs of daily use .</t>
+        </is>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t>[('11', '39', 'PROPERTY'), ('50', '61', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2863" t="inlineStr">
+        <is>
+          <t>['4 Pieces of Swivel Ring Hook', '360 degrees']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="inlineStr">
+        <is>
+          <t>Premium Design : The hanger hook consists of three parts : S - shaped hook , link part , D - shaped hook . Tight connection , strong and durable , rust - proof .</t>
+        </is>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>[('59', '74', 'PROPERTY'), ('89', '104', 'PROPERTY'), ('147', '159', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2864" t="inlineStr">
+        <is>
+          <t>['S - shaped hook', 'D - shaped hook', 'rust - proof']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="inlineStr">
+        <is>
+          <t>Specifications : S type head hook width 2 inches / 5cm , total length 3 . 5 inches / 9cm , D type part 1 inches * 7 / 8 inches / 2 . 6 * 2 . 2cm ( width * height ) . 50 lbs .</t>
+        </is>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>[('17', '23', 'PROPERTY'), ('34', '54', 'DIMENSION'), ('63', '88', 'DIMENSION'), ('91', '97', 'PROPERTY'), ('103', '163', 'DIMENSION'), ('166', '172', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2865" t="inlineStr">
+        <is>
+          <t>['S type', 'width 2 inches / 5cm', 'length 3 . 5 inches / 9cm', 'D type', '1 inches * 7 / 8 inches / 2 . 6 * 2 . 2cm ( width * height )', '50 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="inlineStr">
+        <is>
+          <t>Perfect for hanging flower pots , flower baskets , bird feeders , birdhouses , pendants , suet baskets , lanterns , wind chimes , decorations , party brass lights , flags and more to decorate your outdoor or indoor space .</t>
+        </is>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>[('197', '204', 'PROPERTY'), ('208', '214', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>['outdoor', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="inlineStr">
+        <is>
+          <t>Hanging plant bracket</t>
+        </is>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2867" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="inlineStr">
+        <is>
+          <t>The hardened steel construction creates a sturdy piece , and the black finish helps draw the eye to it</t>
+        </is>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>[('42', '48', 'PROPERTY'), ('65', '70', 'COLOR'), ('4', '18', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2868" t="inlineStr">
+        <is>
+          <t>['sturdy', 'black', 'hardened steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="inlineStr">
+        <is>
+          <t>A smaller , second curl sits behind that , adding interest to the piece</t>
+        </is>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2869" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="inlineStr">
+        <is>
+          <t>Available in black color</t>
+        </is>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>[('13', '18', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C2870" t="inlineStr">
+        <is>
+          <t>['black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="inlineStr">
+        <is>
+          <t>Measures 9 - inch length by 0 . 625 - inch width by 4 - inch height</t>
+        </is>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>[('9', '24', 'DIMENSION'), ('28', '48', 'DIMENSION'), ('52', '67', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2871" t="inlineStr">
+        <is>
+          <t>['9 - inch length', '0 . 625 - inch width', '4 - inch height']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="inlineStr">
+        <is>
+          <t>STYLISH : Hand forged wrought iron offers a charming , traditional look . A dark finish stunningly complements anything that hangs from it , adding elegance and beauty to your home or garden . Matching black screws maintain a consistent , sleek look .</t>
+        </is>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>[('10', '34', 'MAT'), ('76', '87', 'PROPERTY'), ('202', '207', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C2872" t="inlineStr">
+        <is>
+          <t>['Hand forged wrought iron', 'dark finish', 'black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="inlineStr">
+        <is>
+          <t>PREMIUM QUALITY : Rust resistant , heavy duty steel construction . Bring your heaviest pots and baskets ! Extends 12 inches from the wall .</t>
+        </is>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>[('18', '32', 'PROPERTY'), ('35', '45', 'PROPERTY'), ('46', '51', 'MAT'), ('114', '123', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr">
+        <is>
+          <t>['Rust resistant', 'heavy duty', 'steel', '12 inches']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="inlineStr">
+        <is>
+          <t>VERSATILE : Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . Curved tip helps securely hold items while adding to the exquisite look .</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>[('23', '27', 'NMAT'), ('63', '69', 'PROPERTY'), ('135', '145', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr">
+        <is>
+          <t>['wood', 'indoor', 'Curved tip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="inlineStr">
+        <is>
+          <t>Bird Feeders Hanging Chain : The package includes 12 pcs hanging chains , it is 9 . 5 inch total length for each chain , lightweight and durable , capable of holding up to 12 lbs per chain , a practical tool to hang something you need and doesn ' t take up much place</t>
+        </is>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>[('50', '71', 'PROPERTY'), ('80', '103', 'DIMENSION'), ('121', '132', 'PROPERTY'), ('137', '144', 'PROPERTY'), ('172', '178', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2875" t="inlineStr">
+        <is>
+          <t>['12 pcs hanging chains', '9 . 5 inch total length', 'lightweight', 'durable', '12 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="inlineStr">
+        <is>
+          <t>Adjustable Length : Each hanging chain is equipped with hook and clip , you can shorten or extend or loop the chain to match your feeders and planters in different heights as needed . Easy to install</t>
+        </is>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>[('0', '10', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2876" t="inlineStr">
+        <is>
+          <t>['Adjustable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="inlineStr">
+        <is>
+          <t>Durable Material : These bird feeder chains are made of durable iron , which is sturdy and not easy to rust , suitable for indoor and outdoor use</t>
+        </is>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>[('0', '7', 'PROPERTY'), ('56', '63', 'PROPERTY'), ('64', '68', 'MAT'), ('123', '129', 'PROPERTY'), ('134', '141', 'PROPERTY'), ('80', '86', 'PROPERTY'), ('91', '107', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2877" t="inlineStr">
+        <is>
+          <t>['Durable', 'durable', 'iron', 'indoor', 'outdoor', 'sturdy', 'not easy to rust']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="inlineStr">
+        <is>
+          <t>🌿 Multiple Functions and Purposes : FGSEAOR plant hangers outdoor are designed specifically for adding a touch of nature to any space at your home . This hanging plant hooks are very versatile as well , being able to hang hanging plants , outdoor solar lanterns , holiday decorations , wind chimes , ornaments , baskets , flower pots and other accessories . Wave - Shaped hooks for hanging are suitable for any home decor . It is such a lovely addition to your home !</t>
+        </is>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>[('58', '65', 'PROPERTY'), ('358', '371', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C2878" t="inlineStr">
+        <is>
+          <t>['outdoor', 'Wave - Shaped']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="inlineStr">
+        <is>
+          <t>🌿 Stylish and Modern : Wave - Shaped wooden wall hooks are a stylish way to keep your home organized . These plant hangers are made from natural wood and retain the natural texture of the wood to reveal its unique beauty . These outdoor and indoor hooks for hanging plants occupy a small space area , so that the narrow space has a greater degree of accommodation , at the same time , but also can make full use of the wall space , avoid space waste .</t>
+        </is>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>[('23', '36', 'SHAPE'), ('37', '43', 'MAT'), ('137', '149', 'MAT'), ('188', '192', 'MAT'), ('229', '236', 'PROPERTY'), ('241', '247', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2879" t="inlineStr">
+        <is>
+          <t>['Wave - Shaped', 'wooden', 'natural wood', 'wood', 'outdoor', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="inlineStr">
+        <is>
+          <t>🌿 Quite Easy to Install : These plant hangers outdoor are quite easy to mount on and can be used in any room of your home . Our hanging plant hooks are equipped with screws that can be used wherever the surface is smooth and has no peeling properties , you will found it easy to install and it held the plant very well .</t>
+        </is>
+      </c>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t>[('46', '53', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2880" t="inlineStr">
+        <is>
+          <t>['outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="inlineStr">
+        <is>
+          <t>🌿 【 Package Includes 】 2 x hanging plant hooks with 4 x mounting screws . Approx . dimension : 6 . 8x5 . 1x1 . 0 Inches . Could be used for growing supports for the garden , balcony , greenhouse , or indoor plants . Organize vine branches , store wires and cables , etc . If you ' re not satisfied with our products , please contact us , we will provide you with a solution as soon as possible .</t>
+        </is>
+      </c>
+      <c r="B2881" t="inlineStr">
+        <is>
+          <t>[('23', '46', 'PROPERTY'), ('52', '71', 'PROPERTY'), ('95', '119', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2881" t="inlineStr">
+        <is>
+          <t>['2 x hanging plant hooks', '4 x mounting screws', '6 . 8x5 . 1x1 . 0 Inches']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" t="inlineStr">
+        <is>
+          <t>The package contains 1 hanger , 3 screws and 3 rubber plugs .</t>
+        </is>
+      </c>
+      <c r="B2882" t="inlineStr">
+        <is>
+          <t>[('21', '29', 'PROPERTY'), ('32', '40', 'PROPERTY'), ('47', '53', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2882" t="inlineStr">
+        <is>
+          <t>['1 hanger', '3 screws', 'rubber']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="inlineStr">
+        <is>
+          <t>The maximum load - bearing capacity is 5kg</t>
+        </is>
+      </c>
+      <c r="B2883" t="inlineStr">
+        <is>
+          <t>[('39', '42', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2883" t="inlineStr">
+        <is>
+          <t>['5kg']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="inlineStr">
+        <is>
+          <t>With a heavy - duty high tensile Carbon steel construction , this planter bracket is sturdy and durabl</t>
+        </is>
+      </c>
+      <c r="B2884" t="inlineStr">
+        <is>
+          <t>[('7', '19', 'PROPERTY'), ('33', '45', 'MAT'), ('85', '91', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2884" t="inlineStr">
+        <is>
+          <t>['heavy - duty', 'Carbon steel', 'sturdy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="inlineStr">
+        <is>
+          <t>HIGH QUALITY DURABLE AND STURDY : The Retractable Plant Hooks Hanger adopt durable strong nylon rope and sturdy hook . It can bear products less than 15kg and will not be damaged easily . Solid Construction Material - iron in good craftsmanship , a dark finish stunningly complements anything that hangs from it it will not rust , or melt under heat .</t>
+        </is>
+      </c>
+      <c r="B2885" t="inlineStr">
+        <is>
+          <t>[('13', '20', 'PROPERTY'), ('25', '31', 'PROPERTY'), ('38', '49', 'PROPERTY'), ('75', '82', 'PROPERTY'), ('90', '95', 'MAT'), ('105', '111', 'PROPERTY'), ('150', '154', 'WEIGHT'), ('218', '222', 'MAT'), ('249', '260', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2885" t="inlineStr">
+        <is>
+          <t>['DURABLE', 'STURDY', 'Retractable', 'durable', 'nylon', 'sturdy', '15kg', 'iron', 'dark finish']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="inlineStr">
+        <is>
+          <t>Retractable and Adjustable : The hanging flower basket hook can up to 15kg weight load capacity . You just place your pot that with a plant hanger to the hook , and you can adjust the lenth of the hanger . To use with grow light , you are able to raise and lower the lights very quickly .</t>
+        </is>
+      </c>
+      <c r="B2886" t="inlineStr">
+        <is>
+          <t>[('0', '11', 'PROPERTY'), ('16', '26', 'PROPERTY'), ('70', '74', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2886" t="inlineStr">
+        <is>
+          <t>['Retractable', 'Adjustable', '15kg']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="inlineStr">
+        <is>
+          <t>The pull down hanger is designed for holding decorative hanging baskets in the garden , It will impress your guests , friends and relatives .</t>
+        </is>
+      </c>
+      <c r="B2887" t="inlineStr">
+        <is>
+          <t>[('4', '13', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2887" t="inlineStr">
+        <is>
+          <t>['pull down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" t="inlineStr">
+        <is>
+          <t>【 Multi - purpose 】 Wall planter hook 8 inch , 2 times as thick as the others , more weight and texture . Holding up to 12 inch diameter pots . Great for Hanging Planter , Halloween lantern , Bird Feeders , Wind Chimes , String Lights , Lamps or holiday decorations !</t>
+        </is>
+      </c>
+      <c r="B2888" t="inlineStr">
+        <is>
+          <t>[('38', '44', 'DIMENSION'), ('120', '127', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2888" t="inlineStr">
+        <is>
+          <t>['8 inch', '12 inch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="inlineStr">
+        <is>
+          <t>【 Anti - rust &amp; Strong 】 ► 8 inches from the bottom of the planter hook to the wall . Black matte power coating , touch comfortable . Hanging plant brackets heavy duty , is capable of holding up to 16 inch diameter pots . Supports up to 15 lbs ( 7 kg ) . For Indoor or Outdoor Use .</t>
+        </is>
+      </c>
+      <c r="B2889" t="inlineStr">
+        <is>
+          <t>[('2', '13', 'PROPERTY'), ('27', '35', 'DIMENSION'), ('86', '97', 'COLOR'), ('98', '103', 'MAT'), ('104', '111', 'PROPERTY'), ('198', '205', 'DIMENSION'), ('237', '252', 'WEIGHT'), ('259', '265', 'PROPERTY'), ('269', '276', 'PROPERTY'), ('157', '167', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2889" t="inlineStr">
+        <is>
+          <t>['Anti - rust', '8 inches', 'Black matte', 'power', 'coating', '16 inch', '15 lbs ( 7 kg )', 'Indoor', 'Outdoor', 'heavy duty']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="inlineStr">
+        <is>
+          <t>【 Stunning planter hooks 】 ► Flower pot hangers are hand - made wrought iron provide a brief look , add elegance , beauty to your yard , home garden or living room .</t>
+        </is>
+      </c>
+      <c r="B2890" t="inlineStr">
+        <is>
+          <t>[('52', '63', 'PROPERTY'), ('64', '76', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2890" t="inlineStr">
+        <is>
+          <t>['hand - made', 'wrought iron']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="inlineStr">
+        <is>
+          <t>【 Easy to Install 】 Screw this outdoor planter hanger into wood wall , brick wall , dry wall , concrete wall even wood fence posts , deck posts , indoor and outdoor . We provide wall plugs and long screws . ( Please check the images on the product page for full dimensions . )</t>
+        </is>
+      </c>
+      <c r="B2891" t="inlineStr">
+        <is>
+          <t>[('31', '38', 'PROPERTY'), ('59', '63', 'NMAT'), ('71', '76', 'NMAT'), ('95', '103', 'NMAT'), ('114', '118', 'NMAT'), ('146', '152', 'PROPERTY'), ('157', '164', 'PROPERTY'), ('193', '204', 'PROPERTY'), ('84', '92', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C2891" t="inlineStr">
+        <is>
+          <t>['outdoor', 'wood', 'brick', 'concrete', 'wood', 'indoor', 'outdoor', 'long screws', 'dry wall']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" t="inlineStr">
+        <is>
+          <t>🌿 Retro &amp; Artsy Plant Hanging Bracket : Stylish retro &amp; artsy design , primitive swirls , elegant curve and clean finish , as is mid - century simplicity design , create attractive displays in your home . You can now let your precious blooms and foliage have time to generate beauty in your home with the use of this iron art plant bracket ;</t>
+        </is>
+      </c>
+      <c r="B2892" t="inlineStr">
+        <is>
+          <t>[('317', '321', 'MAT'), ('48', '68', 'PROPERTY'), ('71', '87', 'PROPERTY'), ('143', '160', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2892" t="inlineStr">
+        <is>
+          <t>['iron', 'retro &amp; artsy design', 'primitive swirls', 'simplicity design']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="inlineStr">
+        <is>
+          <t>🌸 Quality Plant Hangers Outdoor : Gardening is the most relaxing hobby , installing a hanging basket bracket in your home will instantly make your personal space more enjoyable . This plant wall hanger has been made of high tensile iron , stable and durable , the elegant black lines are hypnotically classy , the maximum load is 11 lbs , eco - friendly black vinyl coating makes the rust - resistant solution great .</t>
+        </is>
+      </c>
+      <c r="B2893" t="inlineStr">
+        <is>
+          <t>[('24', '31', 'PROPERTY'), ('224', '236', 'MAT'), ('239', '245', 'PROPERTY'), ('250', '257', 'PROPERTY'), ('272', '277', 'COLOR'), ('330', '336', 'WEIGHT'), ('354', '359', 'COLOR'), ('360', '365', 'MAT'), ('366', '373', 'PROPERTY'), ('384', '400', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2893" t="inlineStr">
+        <is>
+          <t>['Outdoor', 'tensile iron', 'stable', 'durable', 'black', '11 lbs', 'black', 'vinyl', 'coating', 'rust - resistant']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" t="inlineStr">
+        <is>
+          <t>🌸 Details about Hanging Plant Bracket : With a sturdy triangular construction , good surface finishing , this complete kit includes screw mount hardware for easy installation on walls , posts , or decks . Enough plant putting space , this decorative hanging bracket Measures 11 ” H x 6 . 4 ” D x 1 . 2 ” W , Package : Set of 2 . Styling sprouts to life when you add your most loved plant to this offbeat hooks ;</t>
+        </is>
+      </c>
+      <c r="B2894" t="inlineStr">
+        <is>
+          <t>[('47', '53', 'PROPERTY'), ('54', '64', 'SHAPE'), ('275', '305', 'DIMENSION'), ('318', '326', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2894" t="inlineStr">
+        <is>
+          <t>['sturdy', 'triangular', '11 ” H x 6 . 4 ” D x 1 . 2 ” W', 'Set of 2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" t="inlineStr">
+        <is>
+          <t>🌿 The JUNBEI Guarantee : Here at JUNBEI , we believe in doing things the right way . We value our customers and want you to enjoy a pleasant shopping experience ! If for any reason you are not 100 % happy with your black plant hanger hook , simply return it within 30 days for a full , no questions asked refund . TOTALLY RISK FREE . So why not give it a try ?</t>
+        </is>
+      </c>
+      <c r="B2895" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2895" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" t="inlineStr">
+        <is>
+          <t>MULTI - PURPOSE : Showcase your favorite outdoor accessories including bird feeders , hanging plants , wind chimes , bird houses , lanterns , suet baskets , holiday decorations or any other garden accent . The curved hook keeps the accessory on the hook and prevents the wind from knocking the accessory to the ground .</t>
+        </is>
+      </c>
+      <c r="B2896" t="inlineStr">
+        <is>
+          <t>[('41', '48', 'PROPERTY'), ('210', '221', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2896" t="inlineStr">
+        <is>
+          <t>['outdoor', 'curved hook']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" t="inlineStr">
+        <is>
+          <t>SIZE : This sturdy , heavy duty deck hook is 42 inches in length , fully extending past the mounted location . The clamp will accommodate deck railings up to 2 . 5 inches wide . Suggested max hanging weight is 40 lbs .</t>
+        </is>
+      </c>
+      <c r="B2897" t="inlineStr">
+        <is>
+          <t>[('12', '18', 'PROPERTY'), ('21', '31', 'PROPERTY'), ('45', '64', 'DIMENSION'), ('158', '175', 'DIMENSION'), ('210', '216', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2897" t="inlineStr">
+        <is>
+          <t>['sturdy', 'heavy duty', '42 inches in length', '2 . 5 inches wide', '40 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" t="inlineStr">
+        <is>
+          <t>EASY INSTALLTION : No tools are necessary . The deck hook easily clamps to your surface with the tightening hand knob to create a secure hold on your porch , balcony or patio deck . Hand knob is easy to adjust when changing mounting locations .</t>
+        </is>
+      </c>
+      <c r="B2898" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2898" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="inlineStr">
+        <is>
+          <t>QUALITY : Solid steel rod is . 4 inch thick in diameter . Much stronger than " retractable , adjustable length " deck hooks . Powder coated deck hook stays free of wear while on your patio .</t>
+        </is>
+      </c>
+      <c r="B2899" t="inlineStr">
+        <is>
+          <t>[('10', '21', 'MAT'), ('31', '55', 'DIMENSION'), ('126', '132', 'MAT'), ('133', '139', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2899" t="inlineStr">
+        <is>
+          <t>['Solid steel', '4 inch thick in diameter', 'Powder', 'coated']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" t="inlineStr">
+        <is>
+          <t>3 - PACK : This set includes 3 of the JCs Wildlife 42 " Deck Hooks .</t>
+        </is>
+      </c>
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2900" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" t="inlineStr">
+        <is>
+          <t>🌸 Premium Quality &amp; Rust - resistant : Our wall hook is made of heavy - duty solid steel , which is strong to hold up to 20 lbs . The surface of plant hook is covered with anti - rust paint . Whether used indoors or outdoors , the hooks can last long and give the best value for complementing home and garden .</t>
+        </is>
+      </c>
+      <c r="B2901" t="inlineStr">
+        <is>
+          <t>[('20', '36', 'PROPERTY'), ('64', '76', 'PROPERTY'), ('77', '88', 'MAT'), ('121', '127', 'WEIGHT'), ('172', '189', 'PROPERTY'), ('205', '212', 'PROPERTY'), ('216', '224', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2901" t="inlineStr">
+        <is>
+          <t>['Rust - resistant', 'heavy - duty', 'solid steel', '20 lbs', 'anti - rust paint', 'indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="inlineStr">
+        <is>
+          <t>🌿 Home D é cor : Hand forged wrought iron offers a charming , traditional look . A black finish stunningly complements anything that hangs from it , adding elegance and beauty to your home or garden . Create a consistent , sleek look for your garden . Curved tip helps securely hold items while adding to the exquisite look .</t>
+        </is>
+      </c>
+      <c r="B2902" t="inlineStr">
+        <is>
+          <t>[('17', '28', 'PROPERTY'), ('29', '41', 'MAT'), ('83', '88', 'COLOR'), ('252', '262', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2902" t="inlineStr">
+        <is>
+          <t>['Hand forged', 'wrought iron', 'black', 'Curved tip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" t="inlineStr">
+        <is>
+          <t>The vintage wrought iron wall hanging flower stand is very great for hanging various flowers , plants , wind chimes , lanterns , bird manger and other decorations to create a landscaping space and charming atmosphere . Besides , it is suitable for your home , garden , corridor , store , etc . And it can hang everything on the wall .</t>
+        </is>
+      </c>
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>[('12', '24', 'MAT'), ('4', '11', 'PROPERTY'), ('25', '37', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2903" t="inlineStr">
+        <is>
+          <t>['wrought iron', 'vintage', 'wall hanging']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" t="inlineStr">
+        <is>
+          <t>The flower stand made of durable and heavy duty metal iron material , and the surface processed by retro - style distressed treatment . Exquisite and cute bird shape design to add extra chic and elegance .</t>
+        </is>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>[('25', '32', 'PROPERTY'), ('37', '47', 'PROPERTY'), ('48', '53', 'MAT'), ('99', '133', 'PROPERTY'), ('155', '165', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C2904" t="inlineStr">
+        <is>
+          <t>['durable', 'heavy duty', 'metal', 'retro - style distressed treatment', 'bird shape']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" t="inlineStr">
+        <is>
+          <t>The plant hook is very simple to install , and the flower basket hook is widely used . Just screw the screws into the location to be installed , such as wooden fences , trees , and even indoor and outdoor walls .</t>
+        </is>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>[('153', '159', 'NMAT'), ('186', '192', 'PROPERTY'), ('197', '204', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2905" t="inlineStr">
+        <is>
+          <t>['wooden', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" t="inlineStr">
+        <is>
+          <t>The nail holes at both ends of the bracket are easy to install . Equipped with screws and rubber plugs for mounting and fixing , very stable and firm .</t>
+        </is>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>[('134', '140', 'PROPERTY'), ('145', '149', 'PROPERTY'), ('90', '96', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2906" t="inlineStr">
+        <is>
+          <t>['stable', 'firm', 'rubber']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" t="inlineStr">
+        <is>
+          <t>Come with 2pcs in one package . The bracket is compact in size . Product Dimension : 30 * 26 * 2cm / 11 . 8 * 10 . 23 * 0 . 78 inch ; Package Dimension : 32 * 37 * 2cm / 12 . 6 * 14 . 5 * 0 . 78 inch ; Weight : 22 . 28oz .</t>
+        </is>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>[('10', '14', 'PROPERTY'), ('85', '131', 'DIMENSION'), ('154', '199', 'DIMENSION'), ('211', '220', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2907" t="inlineStr">
+        <is>
+          <t>['2pcs', '30 * 26 * 2cm / 11 . 8 * 10 . 23 * 0 . 78 inch', '32 * 37 * 2cm / 12 . 6 * 14 . 5 * 0 . 78 inch', '22 . 28oz']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" t="inlineStr">
+        <is>
+          <t>Dimension : Approx . 10 x 8 . 2 inch</t>
+        </is>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>[('21', '36', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2908" t="inlineStr">
+        <is>
+          <t>['10 x 8 . 2 inch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="inlineStr">
+        <is>
+          <t>Primitive curls and swirls design with country look , match good with your home decor</t>
+        </is>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>[('0', '15', 'PROPERTY'), ('20', '33', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr">
+        <is>
+          <t>['Primitive curls', 'swirls design']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="inlineStr">
+        <is>
+          <t>High Quality : Durable steel construction</t>
+        </is>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>[('15', '22', 'PROPERTY'), ('23', '28', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2910" t="inlineStr">
+        <is>
+          <t>['Durable', 'steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" t="inlineStr">
+        <is>
+          <t>Package includes pack of 2 plant hanging bracket with 4 mounting screws</t>
+        </is>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>[('25', '48', 'PROPERTY'), ('54', '71', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2911" t="inlineStr">
+        <is>
+          <t>['2 plant hanging bracket', '4 mounting screws']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" t="inlineStr">
+        <is>
+          <t>STURDY AND STRONG QUALITY - Professionally designed , the high - quality black iron hanging plant brackets feature iron metal process to improve its strength and durability while also being weather resistant . Our plant hangers outdoor set has 10 hanging plant brackets , which can meet the requirements of your living room , bathroom , bedroom , entrance , terrace , porch , garden , backyard , wooden deck fence and other indoor and outdoor places . You can also give it to friends as a housewarming / holiday gift .</t>
+        </is>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>[('0', '6', 'PROPERTY'), ('73', '78', 'COLOR'), ('79', '83', 'MAT'), ('115', '125', 'MAT'), ('190', '207', 'PROPERTY'), ('228', '235', 'PROPERTY'), ('244', '269', 'PROPERTY'), ('396', '402', 'NMAT'), ('424', '430', 'PROPERTY'), ('435', '442', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2912" t="inlineStr">
+        <is>
+          <t>['STURDY', 'black', 'iron', 'iron metal', 'weather resistant', 'outdoor', '10 hanging plant brackets', 'wooden', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="inlineStr">
+        <is>
+          <t>MINIMALIST AND SIMPLE DESIGN - Our hanging plant brackets are minimalist and simple designed , measures 6 " wide . It ’ s a perfect size to hold up any small / standard bird feeder , hanging Lanterns , flower pots , flower basket up to 6 inches wide . Made with a high - quality wrought - iron metal with the traditional black matte finish , this sturdy hooks for hanging plants looks great and is weather resistant .</t>
+        </is>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>[('0', '10', 'PROPERTY'), ('15', '28', 'PROPERTY'), ('62', '72', 'PROPERTY'), ('77', '92', 'PROPERTY'), ('104', '112', 'DIMENSION'), ('236', '249', 'DIMENSION'), ('279', '299', 'MAT'), ('347', '353', 'PROPERTY'), ('398', '415', 'PROPERTY'), ('321', '332', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr">
+        <is>
+          <t>['MINIMALIST', 'SIMPLE DESIGN', 'minimalist', 'simple designed', '6 " wide', '6 inches wide', 'wrought - iron metal', 'sturdy', 'weather resistant', 'black matte']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="inlineStr">
+        <is>
+          <t>EASY TO INSTALL - This 10pack plant hanger hooks set includes 10 hanging basket Hooks , 20 screws and 20 wall anchors , and maximum load up to 20 lb . Each screw is a standard M5 screw , 1 . 2 inches long . All you have to do is screw the screws into the wooden fence posts , deck posts and even the interior walls . It looks great in a variety of different environments .</t>
+        </is>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>[('62', '85', 'PROPERTY'), ('88', '97', 'PROPERTY'), ('102', '117', 'PROPERTY'), ('143', '148', 'WEIGHT'), ('176', '184', 'PROPERTY'), ('187', '204', 'DIMENSION'), ('255', '261', 'NMAT'), ('23', '29', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2914" t="inlineStr">
+        <is>
+          <t>['10 hanging basket Hooks', '20 screws', '20 wall anchors', '20 lb', 'M5 screw', '1 . 2 inches long', 'wooden', '10pack']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="inlineStr">
+        <is>
+          <t>MULTIPURPOSE - Strong and heavy duty , Maximum load 20lb , WZMYO wall plant hanger can easily hang wall hanging flowerpots , lanterns , wind chimes , flower baskets , bird feeders , lamp strings , coats , festival decorations , etc . , Easy to use and versatile , decorate your home , beautify your house or garden !</t>
+        </is>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>[('26', '36', 'PROPERTY'), ('52', '56', 'WEIGHT'), ('99', '111', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr">
+        <is>
+          <t>['heavy duty', '20lb', 'wall hanging']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="inlineStr">
+        <is>
+          <t>[ Multipurpose Plant hooks &amp; hangers ] : This plant hanger bracket is 6 inch width from the wall and 4 inch height can ensures adequate center of gravity balance , simple and elegant , ideal brackets for hanging plants , bird feeders , lanterns , baskets , flower pots , wind chimes and festival decorations etc .</t>
+        </is>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>[('70', '82', 'DIMENSION'), ('101', '114', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2916" t="inlineStr">
+        <is>
+          <t>['6 inch width', '4 inch height']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="inlineStr">
+        <is>
+          <t>[ Sturdy and Rustproof Hanging Plant Hooks ] : Our plant hook made of solid and lightweight aluminum alloy , the surface of the bird feeder hanger has been treated with anti - rust , premium quality makes it strong and durable . Large load - bearing capacity and can hold up to 13 lbs ( 6KG ) .</t>
+        </is>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>[('2', '8', 'PROPERTY'), ('13', '22', 'PROPERTY'), ('92', '106', 'MAT'), ('169', '180', 'PROPERTY'), ('208', '214', 'PROPERTY'), ('219', '226', 'PROPERTY'), ('235', '258', 'PROPERTY'), ('278', '284', 'WEIGHT'), ('80', '91', 'PROPERTY'), ('287', '290', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2917" t="inlineStr">
+        <is>
+          <t>['Sturdy', 'Rustproof', 'aluminum alloy', 'anti - rust', 'strong', 'durable', 'load - bearing capacity', '13 lbs', 'lightweight', '6KG']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="inlineStr">
+        <is>
+          <t>[ Easy to Install Plants Hook ] : Each plant wall hanger come with 2 standard M5 screws and screw anchors , you can install these plant brackets into wood or wall with matching screws easily and quickly . It looks great in a variety of different environments .</t>
+        </is>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>[('67', '87', 'PROPERTY'), ('150', '154', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr">
+        <is>
+          <t>['2 standard M5 screws', 'wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="inlineStr">
+        <is>
+          <t>[ Decor Your House ] : The vintage hanging brackets for plants design adds a touch of rustic style to your home &amp; garden , you can use it to decorate your your entryway , living room , dining room , patio , garden , backyard and other indoor outdoor places , it goes with any theme or decor .</t>
+        </is>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>[('27', '34', 'PROPERTY'), ('86', '98', 'PROPERTY'), ('235', '241', 'PROPERTY'), ('242', '249', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr">
+        <is>
+          <t>['vintage', 'rustic style', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="inlineStr">
+        <is>
+          <t>[ Great Gift Idea ] : These simple plant hanging hooks are practical and versatile that also can be a perfect gift for your families , friends , neighbors and your loved ones . If there is any problem with the product , please contact us at the first time , we will try our best to help you solve the problem .</t>
+        </is>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2920" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="inlineStr">
+        <is>
+          <t>🌿 Excellent Design : Created a multi - layer landscape , those plant ceiling hooks add some three - dimensional style to your garden and home . Use these plant hooks for plants indoors or outdoors to decorate with your most lush plants , you can turn your space into a natural oasis that stands out , letting your inner gardener thrive .</t>
+        </is>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>[('177', '184', 'PROPERTY'), ('188', '196', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr">
+        <is>
+          <t>['indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="inlineStr">
+        <is>
+          <t>🌸 Multi - Purpose : Hanging plants are a great way to spice up a room and garden . These ceiling hooks are commonly applied for hanging plants , wild bird feeders , plant baskets , birdhouses , flower pots , lanterns , wind chimes , and other fixtures hanging and mounting . Vintage beautiful ceiling hook suitable for indoor and outdoor applications .</t>
+        </is>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>[('319', '325', 'PROPERTY'), ('330', '337', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2922" t="inlineStr">
+        <is>
+          <t>['indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="inlineStr">
+        <is>
+          <t>🌿 Large Weight Capacity : With a heavy - duty high tensile iron construction , this plant hanger hook is sturdy and durable , and the maximum load - bearing capacity is 30 lbs . Sets come with all the necessary hardware to install quickly , and securely .</t>
+        </is>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>[('33', '45', 'PROPERTY'), ('105', '111', 'PROPERTY'), ('116', '123', 'PROPERTY'), ('169', '175', 'WEIGHT'), ('59', '63', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2923" t="inlineStr">
+        <is>
+          <t>['heavy - duty', 'sturdy', 'durable', '30 lbs', 'iron']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="inlineStr">
+        <is>
+          <t>🌸 Premium Material : These plant hanger hooks are made of durable material with performance weather resistance , which is sturdy , while the eco - friendly black vinyl coating makes it a rust - resistant solution .</t>
+        </is>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>[('58', '65', 'PROPERTY'), ('92', '110', 'PROPERTY'), ('122', '128', 'PROPERTY'), ('156', '161', 'COLOR'), ('162', '167', 'MAT'), ('168', '175', 'PROPERTY'), ('187', '203', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2924" t="inlineStr">
+        <is>
+          <t>['durable', 'weather resistance', 'sturdy', 'black', 'vinyl', 'coating', 'rust - resistant']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="inlineStr">
+        <is>
+          <t>🌿 More Details : Package includes set of 2 black plant hooks for ceiling , approx . dimension : 2 . 75 " x 2 . 1 " x 1 . 57 " . Hardware included : 6 mounting screws , approx . length : 1 . 25 inch / 30mm , and 6 anchors , approx . length : 1 . 24 inch / 31mm .</t>
+        </is>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>[('43', '48', 'COLOR'), ('96', '125', 'DIMENSION'), ('148', '165', 'PROPERTY'), ('177', '204', 'DIMENSION'), ('232', '259', 'DIMENSION'), ('211', '220', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2925" t="inlineStr">
+        <is>
+          <t>['black', '2 . 75 " x 2 . 1 " x 1 . 57 "', '6 mounting screws', 'length : 1 . 25 inch / 30mm', 'length : 1 . 24 inch / 31mm', '6 anchors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="inlineStr">
+        <is>
+          <t>Durable Construction : The flower stand made of durable and heavy duty metal iron material , and the surface processed by retro - style distressed treatment . Exquisite and cute bird shape design to add extra chic and elegance .</t>
+        </is>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>[('0', '7', 'PROPERTY'), ('48', '55', 'PROPERTY'), ('60', '70', 'PROPERTY'), ('71', '81', 'MAT'), ('178', '188', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C2926" t="inlineStr">
+        <is>
+          <t>['Durable', 'durable', 'heavy duty', 'metal iron', 'bird shape']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="inlineStr">
+        <is>
+          <t>Simple shape and high - strength welding process to make the load - bearing up to 3KG , which is very perfect for outdoor installation , such as balcony , garden fence , etc .</t>
+        </is>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>[('82', '85', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2927" t="inlineStr">
+        <is>
+          <t>['3KG']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" t="inlineStr">
+        <is>
+          <t>The vintage wrought iron wall hanging flower stand is very great for hanging various flowers , plants , wind chimes , lanterns , bird manger and other decorations to create a landscaping space and charming atmosphere .</t>
+        </is>
+      </c>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>[('12', '24', 'MAT'), ('4', '11', 'PROPERTY'), ('25', '37', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2928" t="inlineStr">
+        <is>
+          <t>['wrought iron', 'vintage', 'wall hanging']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="inlineStr">
+        <is>
+          <t>Easy to install : The hanging plant bracket is very simple to install , and the flower basket hook is widely used . Just screw the screws into the location to be installed , such as wooden fences , trees , and even indoor and outdoor walls .</t>
+        </is>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>[('182', '188', 'NMAT'), ('215', '221', 'PROPERTY'), ('226', '233', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2929" t="inlineStr">
+        <is>
+          <t>['wooden', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="inlineStr">
+        <is>
+          <t>Superior Quality : The hanging plant holder is made of durable and heavy duty metal iron material , black paint coated finish for superior rust resistance , waterproof and rustproof , adds a touch of elegance to any yard .</t>
+        </is>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>[('55', '62', 'PROPERTY'), ('67', '77', 'PROPERTY'), ('78', '88', 'MAT'), ('100', '105', 'COLOR'), ('112', '118', 'PROPERTY'), ('139', '154', 'PROPERTY'), ('157', '167', 'PROPERTY'), ('172', '181', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2930" t="inlineStr">
+        <is>
+          <t>['durable', 'heavy duty', 'metal iron', 'black', 'coated', 'rust resistance', 'waterproof', 'rustproof']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="inlineStr">
+        <is>
+          <t>Stylish Design : Cute bird and 3 leaves shape desgin make our wall plant hangers stand out from others , elegant curve and clean finish , complements most of the hanging colors and integrates with the surrounding environment .</t>
+        </is>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>[('31', '45', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C2931" t="inlineStr">
+        <is>
+          <t>['3 leaves shape']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="inlineStr">
+        <is>
+          <t>Omnipotent Hook : This iron plant hanger is ideal for hanging lanterns , bird feeders , wind chime , mason jars , garden lights , flower pots , plant basket , flower balls , holiday decorations , string lights , ornaments and more to enhance garden look .</t>
+        </is>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>[('23', '27', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2932" t="inlineStr">
+        <is>
+          <t>['iron']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="inlineStr">
+        <is>
+          <t>Stable and Easy to install : 2 pieces brackets come with 4 screws and 4 plugs , the plant hanging bracket can be installed on the wall , concrete post , wood , fences , porch , corridor , garden or any other indoor and outdoor setting , very stable and firm .</t>
+        </is>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>[('0', '6', 'PROPERTY'), ('29', '46', 'PROPERTY'), ('57', '65', 'PROPERTY'), ('70', '77', 'PROPERTY'), ('137', '145', 'NMAT'), ('153', '157', 'NMAT'), ('208', '214', 'PROPERTY'), ('219', '226', 'PROPERTY'), ('242', '248', 'PROPERTY'), ('253', '257', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2933" t="inlineStr">
+        <is>
+          <t>['Stable', '2 pieces brackets', '4 screws', '4 plugs', 'concrete', 'wood', 'indoor', 'outdoor', 'stable', 'firm']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="inlineStr">
+        <is>
+          <t>Pack of 2PCS Decorative Plant Hanger : The bracket is compact in size , good surface finishing . Enough plant putting space , with the distance ( 12 in / 30 . 5 cm ) to the wall . Weight 12 . 7 OZ / 360g . The maximum load is 4 kg .</t>
+        </is>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>[('8', '12', 'PROPERTY'), ('187', '203', 'WEIGHT'), ('226', '230', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2934" t="inlineStr">
+        <is>
+          <t>['2PCS', '12 . 7 OZ / 360g', '4 kg']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" t="inlineStr">
+        <is>
+          <t>Dimension : Approx . 11 . 8 x 7 . 5 inch .</t>
+        </is>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>[('21', '40', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2935" t="inlineStr">
+        <is>
+          <t>['11 . 8 x 7 . 5 inch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" t="inlineStr">
+        <is>
+          <t>Material : The plant hanger is made of high quality metal material , it ' s durable and heavy duty .</t>
+        </is>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>[('52', '57', 'MAT'), ('76', '83', 'PROPERTY'), ('88', '98', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2936" t="inlineStr">
+        <is>
+          <t>['metal', 'durable', 'heavy duty']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="inlineStr">
+        <is>
+          <t>Package include : pack of 2 plant hanging bracket with 4 mounting screws .</t>
+        </is>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>[('26', '49', 'PROPERTY'), ('55', '72', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2937" t="inlineStr">
+        <is>
+          <t>['2 plant hanging bracket', '4 mounting screws']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="inlineStr">
+        <is>
+          <t>EASY TO INSTALL : Each plant bracket has black screws , you only need to use the attached nails to screw into the place where you need to install it .</t>
+        </is>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>[('41', '46', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C2938" t="inlineStr">
+        <is>
+          <t>['black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="inlineStr">
+        <is>
+          <t>MULTI - ADVANTAGE - - To make your life more colorful , this heavy duty deck hook can be hung bird feeders , flower baskets , lantern , wind chimes and so on . 2 Packs</t>
+        </is>
+      </c>
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2939" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="inlineStr">
+        <is>
+          <t>PREMIUM QUALITY - - We use good quality metal materials , and the bird feeder pole can be adjusted , deck hook bird also not easy to rust , can hang a lot of weight , its hook can be better hanging items , is a good hummingbird feeders hangers .</t>
+        </is>
+      </c>
+      <c r="B2940" t="inlineStr">
+        <is>
+          <t>[('40', '45', 'MAT'), ('90', '98', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2940" t="inlineStr">
+        <is>
+          <t>['metal', 'adjusted']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="inlineStr">
+        <is>
+          <t>SMART DESIGN and SIZE - - 43 inch bird feeder pole , a longer distance guard against squirrels and other animals from stealing birds ' seeds . Things like bird droppings and seeds all fall off the deck , making it easier for you to clean up . Our smart design is hook pole length adjustable 28inches or 43 inches and the pole direction can be adjusted by 360 degree . Our deck hook for bird feeder is a good outdoor and indoor decorative products .</t>
+        </is>
+      </c>
+      <c r="B2941" t="inlineStr">
+        <is>
+          <t>[('26', '33', 'DIMENSION'), ('280', '290', 'PROPERTY'), ('291', '299', 'DIMENSION'), ('303', '312', 'DIMENSION'), ('355', '365', 'PROPERTY'), ('408', '415', 'PROPERTY'), ('420', '426', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2941" t="inlineStr">
+        <is>
+          <t>['43 inch', 'adjustable', '28inches', '43 inches', '360 degree', 'outdoor', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" t="inlineStr">
+        <is>
+          <t>Basket Hanger 6 . 9 " x8 . 1 " . Heavy Duty : 2 . 6 bl</t>
+        </is>
+      </c>
+      <c r="B2942" t="inlineStr">
+        <is>
+          <t>[('14', '30', 'DIMENSION'), ('46', '54', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2942" t="inlineStr">
+        <is>
+          <t>['6 . 9 " x8 . 1 "', '2 . 6 bl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="inlineStr">
+        <is>
+          <t>Made from Durable Cast Iron .</t>
+        </is>
+      </c>
+      <c r="B2943" t="inlineStr">
+        <is>
+          <t>[('10', '17', 'PROPERTY'), ('18', '27', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2943" t="inlineStr">
+        <is>
+          <t>['Durable', 'Cast Iron']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="inlineStr">
+        <is>
+          <t>Please note , screws are included . Color : Dark Brown .</t>
+        </is>
+      </c>
+      <c r="B2944" t="inlineStr">
+        <is>
+          <t>[('44', '54', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C2944" t="inlineStr">
+        <is>
+          <t>['Dark Brown']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="inlineStr">
+        <is>
+          <t>Heavy duty and quality guarantee - decorative and functional - ideal for hanging flower baskets , plants pots , lanterns , bird feeders or wind chimes and more - easy to mount on wall - make your home more charming and impress guests .</t>
+        </is>
+      </c>
+      <c r="B2945" t="inlineStr">
+        <is>
+          <t>[('0', '10', 'PROPERTY'), ('170', '183', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2945" t="inlineStr">
+        <is>
+          <t>['Heavy duty', 'mount on wall']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" t="inlineStr">
+        <is>
+          <t>Premium Material : Your hanging plant brackets are made from heavy - duty iron construction for sturdy wall brackets for hanging plants . Recommended weight for each hook is 12 kg .</t>
+        </is>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>[('61', '73', 'PROPERTY'), ('74', '78', 'MAT'), ('96', '102', 'PROPERTY'), ('174', '179', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2946" t="inlineStr">
+        <is>
+          <t>['heavy - duty', 'iron', 'sturdy', '12 kg']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="inlineStr">
+        <is>
+          <t>Weatherproof – These flowerpot hooks for hanging outside is fully powder coated ; rust , water , and corrosion proof , suitable for indoor and outdoor plant hanger or hummingbird feeder hanger .</t>
+        </is>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>[('0', '12', 'PROPERTY'), ('66', '72', 'MAT'), ('73', '79', 'PROPERTY'), ('82', '116', 'PROPERTY'), ('132', '138', 'PROPERTY'), ('143', '150', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2947" t="inlineStr">
+        <is>
+          <t>['Weatherproof', 'powder', 'coated', 'rust , water , and corrosion proof', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="inlineStr">
+        <is>
+          <t>Easy Installation – This hanging basket hanger is easy to install as the wall hanging plant stand comes with extra long 2 - inch screws and anchors to securely mount the plant hanging bracket in place .</t>
+        </is>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2948" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="inlineStr">
+        <is>
+          <t>Functional Design – Because of the large hooks for hanging plants , the shaft of the plant hanger bracket comes with 8 fixed rotation gears used to swivel your bird feeder bracket to various angles for optimal use . Suitable for bird feeders , birdhouses , lamps , lanterns , wind chimes , string lights , flowerpots , and mosquito lamps .</t>
+        </is>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>[('117', '139', 'PROPERTY'), ('35', '40', 'SIZE')]</t>
+        </is>
+      </c>
+      <c r="C2949" t="inlineStr">
+        <is>
+          <t>['8 fixed rotation gears', 'large']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="inlineStr">
+        <is>
+          <t>Included - the outdoor metal plant hanger includes a 7 inches ( 18cms ) green and yellow dual tip screwdriver . Wood wall mount hardware is included . Your wall - mounted bird feeder bracket set is 16 x 9 . 8 x 1 inch ( 40 . 6 x 25 x 2 . 2 cm ) .</t>
+        </is>
+      </c>
+      <c r="B2950" t="inlineStr">
+        <is>
+          <t>[('15', '22', 'PROPERTY'), ('23', '28', 'MAT'), ('53', '71', 'DIMENSION'), ('72', '77', 'COLOR'), ('82', '88', 'COLOR'), ('89', '109', 'PROPERTY'), ('112', '116', 'MAT'), ('117', '127', 'PROPERTY'), ('156', '170', 'PROPERTY'), ('198', '244', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2950" t="inlineStr">
+        <is>
+          <t>['outdoor', 'metal', '7 inches ( 18cms )', 'green', 'yellow', 'dual tip screwdriver', 'Wood', 'wall mount', 'wall - mounted', '16 x 9 . 8 x 1 inch ( 40 . 6 x 25 x 2 . 2 cm )']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="inlineStr">
+        <is>
+          <t>✅ FULL ACCESSORIES : 2 Pair Plant Hanger Wall Hooks fits a 5 " - 8 . 3 " Width on the Bottom of Planter Box - Slide In and Tighten to Fit ! With 3 size options to suit your railing . 1 Pair plant hanger wall hooks that can support weights up to 45 lbs .</t>
+        </is>
+      </c>
+      <c r="B2951" t="inlineStr">
+        <is>
+          <t>[('59', '78', 'DIMENSION'), ('145', '159', 'PROPERTY'), ('245', '251', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2951" t="inlineStr">
+        <is>
+          <t>['5 " - 8 . 3 " Width', '3 size options', '45 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="inlineStr">
+        <is>
+          <t>✅ DURABLE MATERIAL : Black planter hooks are made from high - quality iron that will not rust , fade , or erode , Featuring a classic powder coated steel finish sturdy and firm , can well support and protect plants , Powder coated steel is incredibly sturdy metal type to make sure deform and weather - resistant , reusable and long - lasting .</t>
+        </is>
+      </c>
+      <c r="B2952" t="inlineStr">
+        <is>
+          <t>[('2', '9', 'PROPERTY'), ('21', '26', 'COLOR'), ('70', '74', 'MAT'), ('134', '140', 'MAT'), ('141', '147', 'PROPERTY'), ('148', '153', 'MAT'), ('161', '167', 'PROPERTY'), ('172', '176', 'PROPERTY'), ('217', '223', 'MAT'), ('224', '230', 'PROPERTY'), ('231', '236', 'MAT'), ('251', '257', 'PROPERTY'), ('258', '263', 'MAT'), ('315', '323', 'PROPERTY'), ('282', '312', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2952" t="inlineStr">
+        <is>
+          <t>['DURABLE', 'Black', 'iron', 'powder', 'coated', 'steel', 'sturdy', 'firm', 'Powder', 'coated', 'steel', 'sturdy', 'metal', 'reusable', 'deform and weather - resistant']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="inlineStr">
+        <is>
+          <t>✅ EASY TO INSTALL : No additional tools required , it is very easy to install quickly . With 3 options that will fit any of your railings . Everything you need to install a stand such as an outdoor planter can be placed on your balcony railing . Your flower box price can be set up in minutes and will be solid for years to come .</t>
+        </is>
+      </c>
+      <c r="B2953" t="inlineStr">
+        <is>
+          <t>[('190', '197', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2953" t="inlineStr">
+        <is>
+          <t>['outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="inlineStr">
+        <is>
+          <t>✅ WIDE APPLICATION : Fits a Box that is 5 " - 8 . 3 " on the Bottom of your Box . Bottom Adjustable Bracket Kit for a Near Universal Planter Box Fit . Display Your Favorite Plants Or Flowers With a box holder that fits a variety of sizes . You can also attach two or three outdoor hooks in several ways .</t>
+        </is>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>[('89', '99', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2954" t="inlineStr">
+        <is>
+          <t>['Adjustable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="inlineStr">
+        <is>
+          <t>STURDY &amp; DURABLE - Our hanging plant bracket is made of high quality iron with perfect bending shape . The well - designed triangular fixed structure provides strong support . The sturdy structure allows it to withstand a weight of 90 lbs .</t>
+        </is>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>[('0', '6', 'PROPERTY'), ('9', '16', 'PROPERTY'), ('69', '73', 'MAT'), ('123', '133', 'SHAPE'), ('180', '186', 'PROPERTY'), ('232', '238', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2955" t="inlineStr">
+        <is>
+          <t>['STURDY', 'DURABLE', 'iron', 'triangular', 'sturdy', '90 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="inlineStr">
+        <is>
+          <t>DECORATIVE HANGING BRACKETS - These linear wall hook hanging plant brackets are extremely decorative . It has a smooth and rustic appearance that can be coordinated with most decorative styles . You don ’ t have to worry about being abrupt .</t>
+        </is>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>[('112', '118', 'PROPERTY'), ('123', '129', 'PROPERTY'), ('36', '42', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C2956" t="inlineStr">
+        <is>
+          <t>['smooth', 'rustic', 'linear']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="inlineStr">
+        <is>
+          <t>EASY TO INSTALL - The package comes with 4 plant lantern hooks , 12 mounting screws and 12 expansion screws to facilitate your installation work . You can mount it on wall , deck , fence , living room , garden , garage or balcony easily . It looks great both indoors and outdoors .</t>
+        </is>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>[('41', '62', 'PROPERTY'), ('65', '83', 'PROPERTY'), ('88', '107', 'PROPERTY'), ('259', '266', 'PROPERTY'), ('271', '279', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2957" t="inlineStr">
+        <is>
+          <t>['4 plant lantern hooks', '12 mounting screws', '12 expansion screws', 'indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="inlineStr">
+        <is>
+          <t>Easy to install - the screws are sharp enough that they can be easily screwed into wood , kitchen cabinets , cabinets by hand , with rubber plugs , can also be used on ceilings , walls , soft metals , etc . without problems . It is recommended to drill holes before tightening the screws to make installation easier .</t>
+        </is>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>[('83', '87', 'NMAT'), ('133', '139', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2958" t="inlineStr">
+        <is>
+          <t>['wood', 'rubber']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="inlineStr">
+        <is>
+          <t>Safety Buckle Design : A movable buckle is installed on the ordinary screw , and the hanging items will not fall out , which increases the safety performance of the product .</t>
+        </is>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>[('0', '20', 'PROPERTY'), ('25', '39', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2959" t="inlineStr">
+        <is>
+          <t>['Safety Buckle Design', 'movable buckle']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="inlineStr">
+        <is>
+          <t>High Quality : These ceiling hook sets are made of durable stainless steel , colorless , odorless , strong and not easy to rust , suitable for indoor and outdoor applications , look delicate and do not take up too much space . The diameter is 0 . 27 inches and the length is 3 . 9 inches .</t>
+        </is>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t>[('51', '58', 'PROPERTY'), ('59', '74', 'MAT'), ('77', '86', 'PROPERTY'), ('89', '97', 'PROPERTY'), ('143', '149', 'PROPERTY'), ('154', '161', 'PROPERTY'), ('243', '256', 'DIMENSION'), ('275', '287', 'DIMENSION'), ('111', '127', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2960" t="inlineStr">
+        <is>
+          <t>['durable', 'stainless steel', 'colorless', 'odorless', 'indoor', 'outdoor', '0 . 27 inches', '3 . 9 inches', 'not easy to rust']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="inlineStr">
+        <is>
+          <t>Widely Used : decorate your outdoor or indoor space by hanging bird feeders , poultry houses , flower baskets , flower pots , lanterns , wind chimes , etc . , with nylon rubber plugs , suitable for installation in concrete .</t>
+        </is>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>[('39', '45', 'PROPERTY'), ('28', '35', 'PROPERTY'), ('164', '169', 'MAT'), ('170', '176', 'MAT'), ('214', '222', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C2961" t="inlineStr">
+        <is>
+          <t>['indoor', 'outdoor', 'nylon', 'rubber', 'concrete']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" t="inlineStr">
+        <is>
+          <t>Durable Plant Hooks 5 Inch : Made of high quality cast iron material , heavy duty and very durable .</t>
+        </is>
+      </c>
+      <c r="B2962" t="inlineStr">
+        <is>
+          <t>[('0', '7', 'PROPERTY'), ('20', '26', 'DIMENSION'), ('50', '59', 'MAT'), ('71', '81', 'PROPERTY'), ('91', '98', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2962" t="inlineStr">
+        <is>
+          <t>['Durable', '5 Inch', 'cast iron', 'heavy duty', 'durable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" t="inlineStr">
+        <is>
+          <t>Rustic Cast Iron Wall Hooks : Very well made and delicate designed , matte black finish and a stylish charming look . A simple but elegant home decor for you .</t>
+        </is>
+      </c>
+      <c r="B2963" t="inlineStr">
+        <is>
+          <t>[('0', '6', 'PROPERTY'), ('7', '16', 'MAT'), ('49', '66', 'PROPERTY'), ('69', '80', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C2963" t="inlineStr">
+        <is>
+          <t>['Rustic', 'Cast Iron', 'delicate designed', 'matte black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="inlineStr">
+        <is>
+          <t>Multipurpose Plant Hangers Outdoor : Ideal for hanging plants , baskets , bird feeders , flower pots , lanterns , solar lights , wind chimes and more .</t>
+        </is>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>[('27', '34', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2964" t="inlineStr">
+        <is>
+          <t>['Outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="inlineStr">
+        <is>
+          <t>Elegant Hanging Plant Bracket : Excellent hanging brackets for outdoor and indoor places , such as your porch , entryway , garage , garden , farmhouse , living room , bedroom , kitchen , study and more .</t>
+        </is>
+      </c>
+      <c r="B2965" t="inlineStr">
+        <is>
+          <t>[('63', '70', 'PROPERTY'), ('75', '81', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2965" t="inlineStr">
+        <is>
+          <t>['outdoor', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" t="inlineStr">
+        <is>
+          <t>Easy To Install Plant Hooks For Wall : Measuring 4 - 1 / 4 inches height and 5 inches width , 3 / 16 inches thickness , holding Max . 40lbs . Screws are included and the installation is very easy .</t>
+        </is>
+      </c>
+      <c r="B2966" t="inlineStr">
+        <is>
+          <t>[('49', '72', 'DIMENSION'), ('77', '91', 'DIMENSION'), ('94', '117', 'DIMENSION'), ('134', '139', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2966" t="inlineStr">
+        <is>
+          <t>['4 - 1 / 4 inches height', '5 inches width', '3 / 16 inches thickness', '40lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="inlineStr">
+        <is>
+          <t>Q - Shaped Buckle Design - Not like the ordinary ceiling hooks for outdoor string lights , the safety latch is added to prevent hanging objects from falling or sliding out even with Vertical installation . No more worry about string lights being fall off .</t>
+        </is>
+      </c>
+      <c r="B2967" t="inlineStr">
+        <is>
+          <t>[('0', '10', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C2967" t="inlineStr">
+        <is>
+          <t>['Q - Shaped']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="inlineStr">
+        <is>
+          <t>Premium Material - Swivel hooks for hanging are made of high quality strong steel with rust proof coating , sun - proof and waterproof . It can hold up to 40 lbs objects and it ' s suitable for indoors and outdoors hanging .</t>
+        </is>
+      </c>
+      <c r="B2968" t="inlineStr">
+        <is>
+          <t>[('76', '81', 'MAT'), ('87', '105', 'PROPERTY'), ('108', '119', 'PROPERTY'), ('124', '134', 'PROPERTY'), ('155', '161', 'WEIGHT'), ('194', '201', 'PROPERTY'), ('206', '214', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2968" t="inlineStr">
+        <is>
+          <t>['steel', 'rust proof coating', 'sun - proof', 'waterproof', '40 lbs', 'indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="inlineStr">
+        <is>
+          <t>Easy To Install - Come with plastic tubes , swivel hooks for hanging are easy to install all solid surface such as walls , ceiling , wooden beams , tree , fence , eaves etc . You can pre drill a hole then wrench the string light hooks outdoor directly in .</t>
+        </is>
+      </c>
+      <c r="B2969" t="inlineStr">
+        <is>
+          <t>[('133', '139', 'NMAT'), ('28', '35', 'NMAT'), ('235', '242', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2969" t="inlineStr">
+        <is>
+          <t>['wooden', 'plastic', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" t="inlineStr">
+        <is>
+          <t>Best Value Deal - Outdoor hanging basket hooks works for hanging string lights , plants , flower pots , Christmas decorative lanterns , fairy lights , festival decoration lights , curtains , bird feeders and cages , ropes , chains , and more .</t>
+        </is>
+      </c>
+      <c r="B2970" t="inlineStr">
+        <is>
+          <t>[('18', '25', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2970" t="inlineStr">
+        <is>
+          <t>['Outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" t="inlineStr">
+        <is>
+          <t>TYPE : The Longhorn Reverse Flow Offset Smoker provides the best for you outdoor cooking needs . With optional smokestack locations you choose between reverse flow smoking and traditional offset smoking .</t>
+        </is>
+      </c>
+      <c r="B2971" t="inlineStr">
+        <is>
+          <t>[('73', '80', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2971" t="inlineStr">
+        <is>
+          <t>['outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="inlineStr">
+        <is>
+          <t>FUEL : Charcoal fuel allows you to grill with high heat or cook low and slow .</t>
+        </is>
+      </c>
+      <c r="B2972" t="inlineStr">
+        <is>
+          <t>[('7', '15', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2972" t="inlineStr">
+        <is>
+          <t>['Charcoal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="inlineStr">
+        <is>
+          <t>SIZE : 751 - square - inches of primary cooking space ; 309 - square - inches of secondary cooking space .</t>
+        </is>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>[('13', '19', 'SHAPE'), ('62', '68', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C2973" t="inlineStr">
+        <is>
+          <t>['square', 'square']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" t="inlineStr">
+        <is>
+          <t>MATERIAL : Heavy - gauge steel construction ensures durability you can trust .</t>
+        </is>
+      </c>
+      <c r="B2974" t="inlineStr">
+        <is>
+          <t>[('25', '30', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2974" t="inlineStr">
+        <is>
+          <t>['steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="inlineStr">
+        <is>
+          <t>FEATURES : Bottom shelf lets you keep cooking utensils and additional fuel close - by and cool - touch handles protect your hands from the heat .</t>
+        </is>
+      </c>
+      <c r="B2975" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2975" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" t="inlineStr">
+        <is>
+          <t>GRATE : Four baffles locked under porcelain - coated wire grates deliver even heat and smoke through cooking chamber .</t>
+        </is>
+      </c>
+      <c r="B2976" t="inlineStr">
+        <is>
+          <t>[('8', '20', 'PROPERTY'), ('34', '43', 'MAT'), ('46', '52', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2976" t="inlineStr">
+        <is>
+          <t>['Four baffles', 'porcelain', 'coated']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="inlineStr">
+        <is>
+          <t>MOBILITY : Large , wagon - style wheels for easy mobility .</t>
+        </is>
+      </c>
+      <c r="B2977" t="inlineStr">
+        <is>
+          <t>[('19', '39', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2977" t="inlineStr">
+        <is>
+          <t>['wagon - style wheels']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" t="inlineStr">
+        <is>
+          <t>CLEANING : Large charcoal basket provides a more efficient burn , easier tending and a convenient firebox door makes clean - up quick and easy .</t>
+        </is>
+      </c>
+      <c r="B2978" t="inlineStr">
+        <is>
+          <t>[('11', '16', 'SIZE'), ('17', '25', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2978" t="inlineStr">
+        <is>
+          <t>['Large', 'charcoal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" t="inlineStr">
+        <is>
+          <t>What you receive : you will get 6 pieces of 12 inch long black stainless steel bird feeder hooks in this package , enough quantity to meet your different needs in daily life</t>
+        </is>
+      </c>
+      <c r="B2979" t="inlineStr">
+        <is>
+          <t>[('32', '40', 'PROPERTY'), ('44', '56', 'DIMENSION'), ('57', '62', 'COLOR'), ('63', '78', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2979" t="inlineStr">
+        <is>
+          <t>['6 pieces', '12 inch long', 'black', 'stainless steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" t="inlineStr">
+        <is>
+          <t>S shape : ideal choice to hang bird feeders , bird house , plants , baskets and lanterns ; Practical S - shaped stainless steel metal hanger hook , strong and reliable , anti - rust and smooth shoulders without notches , safe to use</t>
+        </is>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>[('0', '7', 'SHAPE'), ('101', '111', 'SHAPE'), ('112', '127', 'MAT'), ('128', '133', 'MAT'), ('148', '154', 'PROPERTY'), ('159', '167', 'PROPERTY'), ('170', '181', 'PROPERTY'), ('186', '218', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2980" t="inlineStr">
+        <is>
+          <t>['S shape', 'S - shaped', 'stainless steel', 'metal', 'strong', 'reliable', 'anti - rust', 'smooth shoulders without notches']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" t="inlineStr">
+        <is>
+          <t>Reliable quality : the black S - shaped hooks are made of stainless steel , which are sturdy to use and can be applied to hang any other things whatever you want besides bird feeders , bird house , plants , without worrying your items falling down</t>
+        </is>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>[('23', '28', 'COLOR'), ('29', '39', 'SHAPE'), ('58', '73', 'MAT'), ('86', '92', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2981" t="inlineStr">
+        <is>
+          <t>['black', 'S - shaped', 'stainless steel', 'sturdy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" t="inlineStr">
+        <is>
+          <t>Size details : approximate size is 12 inch / 30 cm in length , the bigger diameter is 5 . 2 inch / 13 cm , and the smaller diameter is 2 . 4 inch / 6 cm , 6 pieces of black S - shaped metal hangers hooks in one set are sold together</t>
+        </is>
+      </c>
+      <c r="B2982" t="inlineStr">
+        <is>
+          <t>[('35', '60', 'DIMENSION'), ('86', '104', 'DIMENSION'), ('135', '152', 'DIMENSION'), ('155', '163', 'PROPERTY'), ('167', '172', 'COLOR'), ('173', '183', 'SHAPE'), ('184', '189', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C2982" t="inlineStr">
+        <is>
+          <t>['12 inch / 30 cm in length', '5 . 2 inch / 13 cm', '2 . 4 inch / 6 cm', '6 pieces', 'black', 'S - shaped', 'metal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="inlineStr">
+        <is>
+          <t>STRONG AND DURABLE MATERIAL : The outdoor plant hanger is made of iron to prevent rust . Fashion arc design and hand - forged make it withstand a weight of 30 pounds .</t>
+        </is>
+      </c>
+      <c r="B2983" t="inlineStr">
+        <is>
+          <t>[('0', '6', 'PROPERTY'), ('11', '18', 'PROPERTY'), ('34', '41', 'PROPERTY'), ('66', '70', 'MAT'), ('74', '86', 'PROPERTY'), ('97', '107', 'PROPERTY'), ('112', '125', 'PROPERTY'), ('156', '165', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2983" t="inlineStr">
+        <is>
+          <t>['STRONG', 'DURABLE', 'outdoor', 'iron', 'prevent rust', 'arc design', 'hand - forged', '30 pounds']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="inlineStr">
+        <is>
+          <t>FASHION DECORATION : The retro design creates an elegant appearance , the matching black screws and hooks can maintain a perfect appearance and for holiday decoration , add beauty to your home or garden .</t>
+        </is>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>[('83', '88', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C2984" t="inlineStr">
+        <is>
+          <t>['black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="inlineStr">
+        <is>
+          <t>MULTIPLE PURPOSE : Plant hanger hook can hang bird feeder , lantern , flower pot , wind chimes and holiday decoration , and can be easily installed on indoor , outdoor porch , garden , fence , wall or tree .</t>
+        </is>
+      </c>
+      <c r="B2985" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2985" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="inlineStr">
+        <is>
+          <t>EASY TO INSTALL : The size of the bird feeder hook ​ is 12 * 8 inches . Punch 2 holes in the wall or wood board to be installed , and insert screws through the hooks into the holes to complete the installation .</t>
+        </is>
+      </c>
+      <c r="B2986" t="inlineStr">
+        <is>
+          <t>[('56', '69', 'DIMENSION'), ('101', '105', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C2986" t="inlineStr">
+        <is>
+          <t>['12 * 8 inches', 'wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="inlineStr">
+        <is>
+          <t>SAFE AND PRACTICAL : The black coating on the surface of the hook is firm and does not peel off the paint , It is durable and doesn ' t contain harmful substances , and can be used at home with confidence .</t>
+        </is>
+      </c>
+      <c r="B2987" t="inlineStr">
+        <is>
+          <t>[('25', '30', 'COLOR'), ('31', '38', 'PROPERTY'), ('114', '121', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2987" t="inlineStr">
+        <is>
+          <t>['black', 'coating', 'durable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="inlineStr">
+        <is>
+          <t>Package Include : 36 pcs Q - hangers hooks and 36 pcs plastic tubes . Ideal for hanging lightweight items securely .</t>
+        </is>
+      </c>
+      <c r="B2988" t="inlineStr">
+        <is>
+          <t>[('18', '42', 'PROPERTY'), ('47', '53', 'PROPERTY'), ('54', '61', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C2988" t="inlineStr">
+        <is>
+          <t>['36 pcs Q - hangers hooks', '36 pcs', 'plastic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="inlineStr">
+        <is>
+          <t>Premium quality : Our Q shaped hook is made of heavy - duty steel with rust proof coating . The size of outdoor light hanging hook length is 2 . 2inch . It can bear a maximum weight of 40Ib and offer sturdy support for a long time . Suitable for interior and exterior use .</t>
+        </is>
+      </c>
+      <c r="B2989" t="inlineStr">
+        <is>
+          <t>[('22', '30', 'SHAPE'), ('47', '59', 'PROPERTY'), ('60', '65', 'MAT'), ('71', '89', 'PROPERTY'), ('104', '111', 'PROPERTY'), ('141', '150', 'DIMENSION'), ('185', '189', 'WEIGHT'), ('112', '117', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2989" t="inlineStr">
+        <is>
+          <t>['Q shaped', 'heavy - duty', 'steel', 'rust proof coating', 'outdoor', '2 . 2inch', '40Ib', 'light']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="inlineStr">
+        <is>
+          <t>Safety buckle design : The string light hooks with practical elastic buckle design are windproof , to prevent hanging objects from falling , even in windy or rainy days . It can be used in various environments without any sliding out worry .</t>
+        </is>
+      </c>
+      <c r="B2990" t="inlineStr">
+        <is>
+          <t>[('0', '20', 'PROPERTY'), ('61', '82', 'PROPERTY'), ('87', '96', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2990" t="inlineStr">
+        <is>
+          <t>['Safety buckle design', 'elastic buckle design', 'windproof']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="inlineStr">
+        <is>
+          <t>Wide application : The multi - purpose screw hook is suitable for daily use outdoors , homes , offices and workplaces . It can be used for safe hanging and organizing items : outdoor string lights , holiday lights , wires , wind chimes , feeders , birdhouses , lanterns , planters , ropes , chains , candle holders , party d é cor , utensils , tools and more .</t>
+        </is>
+      </c>
+      <c r="B2991" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2991" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="inlineStr">
+        <is>
+          <t>Easy installation : Screw in hooks , easy to install on wood , wall , ceiling , outdoor eaves , etc . You can screw the hooks into the wood with a wrench , or drill a hole into the cement wall , put a plastic tube , and then twist the hook into the plastic tube .</t>
+        </is>
+      </c>
+      <c r="B2992" t="inlineStr">
+        <is>
+          <t>[('56', '60', 'NMAT'), ('135', '139', 'NMAT'), ('201', '208', 'NMAT'), ('249', '256', 'NMAT'), ('181', '187', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C2992" t="inlineStr">
+        <is>
+          <t>['wood', 'wood', 'plastic', 'plastic', 'cement']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="inlineStr">
+        <is>
+          <t>Heavy Duty Steel : One - time molding , outlast shape , made of High - quality and Environmental - Friendly steels , strong and durable . The surface is polished by bright technology to keep it clean and anti - rust</t>
+        </is>
+      </c>
+      <c r="B2993" t="inlineStr">
+        <is>
+          <t>[('0', '10', 'PROPERTY'), ('11', '16', 'MAT'), ('19', '37', 'PROPERTY'), ('40', '53', 'PROPERTY'), ('108', '114', 'MAT'), ('117', '123', 'PROPERTY'), ('128', '135', 'PROPERTY'), ('204', '215', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2993" t="inlineStr">
+        <is>
+          <t>['Heavy Duty', 'Steel', 'One - time molding', 'outlast shape', 'steels', 'strong', 'durable', 'anti - rust']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" t="inlineStr">
+        <is>
+          <t>Safe Design : Nail - free S Shaped hook , round design at one end , no harm to your hands and equipment . Smooth at other end , easy to go through small holes , easy to apply at lots of places .</t>
+        </is>
+      </c>
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t>[('26', '34', 'SHAPE'), ('14', '25', 'PROPERTY'), ('42', '54', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2994" t="inlineStr">
+        <is>
+          <t>['S Shaped', 'Nail - free', 'round design']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" t="inlineStr">
+        <is>
+          <t>12Pcs S hooks Length : 3 . 5 inches / 9 cm ; Maximum bearing weight about : 10 kg</t>
+        </is>
+      </c>
+      <c r="B2995" t="inlineStr">
+        <is>
+          <t>[('0', '5', 'PROPERTY'), ('23', '42', 'DIMENSION'), ('76', '81', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C2995" t="inlineStr">
+        <is>
+          <t>['12Pcs', '3 . 5 inches / 9 cm', '10 kg']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" t="inlineStr">
+        <is>
+          <t>&lt; b &gt; Product Size : &lt; / b &gt; - - - 5 . 9in * 1 . 49in * 5 . 9in ( Due to every Metal wall hook that we create is handmade , the dimensions may vary slightly from Product to product . )</t>
+        </is>
+      </c>
+      <c r="B2996" t="inlineStr">
+        <is>
+          <t>[('35', '63', 'DIMENSION'), ('79', '84', 'MAT'), ('113', '121', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2996" t="inlineStr">
+        <is>
+          <t>['5 . 9in * 1 . 49in * 5 . 9in', 'Metal', 'handmade']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" t="inlineStr">
+        <is>
+          <t>&lt; b &gt; Where to Use : &lt; / b &gt; - - - For all outdoor / indoor ornaments : This decorative upcrooked wall hooks / hangers are ideal for hanging your favorite indoor and outdoor decorations . It measures 5 . 9inches in length making it suitable for hanging your Clothes , hats , bags , keys , windchimes or anything you want to hang , adding minimalist design to your home or garden .</t>
+        </is>
+      </c>
+      <c r="B2997" t="inlineStr">
+        <is>
+          <t>[('43', '50', 'PROPERTY'), ('53', '59', 'PROPERTY'), ('155', '161', 'PROPERTY'), ('166', '173', 'PROPERTY'), ('200', '211', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C2997" t="inlineStr">
+        <is>
+          <t>['outdoor', 'indoor', 'indoor', 'outdoor', '5 . 9inches']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="inlineStr">
+        <is>
+          <t>&lt; b &gt; Easily installed : &lt; / b &gt; - - - Adding style and functionality to your Outdoor or indoor space with an iron plant hanger hook Doesn ’ t need to be complicated . Simply find a flat surface on which the wrought iron hook can be mounted and hang whatever you desire . These incredibly functional hooks are sure to remain sturdy if installed on a surface that provides it with enough support with proper hardware .</t>
+        </is>
+      </c>
+      <c r="B2998" t="inlineStr">
+        <is>
+          <t>[('78', '85', 'PROPERTY'), ('89', '95', 'PROPERTY'), ('110', '114', 'MAT'), ('208', '220', 'MAT'), ('325', '331', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C2998" t="inlineStr">
+        <is>
+          <t>['Outdoor', 'indoor', 'iron', 'wrought iron', 'sturdy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="inlineStr">
+        <is>
+          <t>&lt; b &gt; Material and Technology : &lt; / b &gt; - - - Handmade wrought with cast iron and rustic cast iron : Our angled upcrooked hooks are forged from square stock for increased strength and rigidity . The square Hammered look has a craftsman style that fits with a vintage , rustic , or artisan decorative style .</t>
+        </is>
+      </c>
+      <c r="B2999" t="inlineStr">
+        <is>
+          <t>[('46', '54', 'PROPERTY'), ('68', '77', 'MAT'), ('82', '88', 'PROPERTY'), ('89', '98', 'MAT'), ('105', '111', 'PROPERTY'), ('112', '121', 'PROPERTY'), ('144', '150', 'SHAPE'), ('199', '205', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C2999" t="inlineStr">
+        <is>
+          <t>['Handmade', 'cast iron', 'rustic', 'cast iron', 'angled', 'upcrooked', 'square', 'square']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="inlineStr">
+        <is>
+          <t>&lt; b &gt; Unique Design and Corrosion resistant : &lt; / b &gt; - - - PopTop Brass Designs Cast Iron Wall Hooks / Hangers are finished in for weather resistance with a material that is more resilient than liquid paint . The iron is sealed with a dry powder that is applied electrostatically , leaving a matte Antique Replica Rust Color hard finish that won ' t chip or corrode as easily as your average paints do . This allows you to enjoy the convenience and attractiveness of their upcrooked bracket well into the future .</t>
+        </is>
+      </c>
+      <c r="B3000" t="inlineStr">
+        <is>
+          <t>[('6', '19', 'PROPERTY'), ('24', '43', 'PROPERTY'), ('81', '90', 'MAT'), ('132', '150', 'PROPERTY'), ('180', '189', 'PROPERTY'), ('214', '218', 'MAT'), ('474', '483', 'PROPERTY'), ('67', '80', 'PROPERTY'), ('195', '201', 'NMAT'), ('236', '246', 'NMAT'), ('293', '298', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C3000" t="inlineStr">
+        <is>
+          <t>['Unique Design', 'Corrosion resistant', 'Cast Iron', 'weather resistance', 'resilient', 'iron', 'upcrooked', 'Brass Designs', 'liquid', 'dry powder', 'matte']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" t="inlineStr">
+        <is>
+          <t>【 Thickened Catalpa Wood Design 】 100 % catalpa wood plant hooks , hard texture , handcrafted and coated with wood wax for protection . Safe plant hanger hook and can effectively hanging plants indoors or outdoors .</t>
+        </is>
+      </c>
+      <c r="B3001" t="inlineStr">
+        <is>
+          <t>[('12', '24', 'MAT'), ('34', '52', 'MAT'), ('67', '79', 'PROPERTY'), ('82', '93', 'PROPERTY'), ('98', '104', 'PROPERTY'), ('110', '118', 'MAT'), ('194', '201', 'PROPERTY'), ('205', '213', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3001" t="inlineStr">
+        <is>
+          <t>['Catalpa Wood', '100 % catalpa wood', 'hard texture', 'handcrafted', 'coated', 'wood wax', 'indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" t="inlineStr">
+        <is>
+          <t>【 8IN &amp; 12IN Length Options 】 Upgrade plant hangers can choose the distance from the wall according to the shape and size of different flower pots or green plants , which will be more practical and beautiful .</t>
+        </is>
+      </c>
+      <c r="B3002" t="inlineStr">
+        <is>
+          <t>[('2', '19', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3002" t="inlineStr">
+        <is>
+          <t>['8IN &amp; 12IN Length']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="inlineStr">
+        <is>
+          <t>【 Double Thoughtful Design 】 The bottom of the wood hooks for hanging plants adopts a bevel angle to better fit the wall or fence , and the top of the plant hanger hooks adopts a grooved hole to make the hanging more stable .</t>
+        </is>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>[('47', '51', 'MAT'), ('179', '191', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3003" t="inlineStr">
+        <is>
+          <t>['wood', 'grooved hole']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="inlineStr">
+        <is>
+          <t>【 Easy to Install and Remove 】 The plant bracket includes 2 lengthened screws , and 2 thickened expansion tubes , making plant wood hooks more firm . Each plant hook can hold up to 22lbs , and can also be used as wooden heavy coat hook , large backpack hook .</t>
+        </is>
+      </c>
+      <c r="B3004" t="inlineStr">
+        <is>
+          <t>[('58', '77', 'PROPERTY'), ('84', '111', 'PROPERTY'), ('127', '131', 'MAT'), ('181', '186', 'WEIGHT'), ('213', '219', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3004" t="inlineStr">
+        <is>
+          <t>['2 lengthened screws', '2 thickened expansion tubes', 'wood', '22lbs', 'wooden']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="inlineStr">
+        <is>
+          <t>【 Multi - Purpose Home Decor 】 Simple and elegant wood finish looks great in a variety of environments and is perfect for hanging plants , flower baskets , lanterns , bird feeders , wind chimes , street lights , bedside pendant lamps , and more to beautify rooms and gardens .</t>
+        </is>
+      </c>
+      <c r="B3005" t="inlineStr">
+        <is>
+          <t>[('50', '54', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3005" t="inlineStr">
+        <is>
+          <t>['wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="inlineStr">
+        <is>
+          <t>[ Decor Your Hourse ] : European style wall mounted flower pot bracket , beautiful and exquisite in shape , suitable for decoration . plant hooks can be perfectly applied to family wall , living rooms , gardens , etc . , creating a romantic and warm environment</t>
+        </is>
+      </c>
+      <c r="B3006" t="inlineStr">
+        <is>
+          <t>[('39', '51', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3006" t="inlineStr">
+        <is>
+          <t>['wall mounted']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="inlineStr">
+        <is>
+          <t>[ Durable in Use ] : Outdoor plant hangers are made of sturdy iron material , durable in use , wear resistant and not easily deformed . This hook can be used hung flower pot baskets , lights , bird feeders and other items</t>
+        </is>
+      </c>
+      <c r="B3007" t="inlineStr">
+        <is>
+          <t>[('2', '9', 'PROPERTY'), ('21', '28', 'PROPERTY'), ('62', '66', 'MAT'), ('78', '85', 'PROPERTY'), ('95', '109', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3007" t="inlineStr">
+        <is>
+          <t>['Durable', 'Outdoor', 'iron', 'durable', 'wear resistant']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" t="inlineStr">
+        <is>
+          <t>[ Strong Bearing Capacity ] : With mounting screw accessories , plant hanging bracket is easy to install , strong and firm , and strong bearing capacity . The long , curved fuselage has an elegant , modern look</t>
+        </is>
+      </c>
+      <c r="B3008" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3008" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" t="inlineStr">
+        <is>
+          <t>Rustic Plant Hanging Bracket : Stylish retro &amp; artsy modern design hooks . The vintage hanger design adds a touch of rustic style to your home and garden . Add beauty to your living space . You can use it to decorate your living room , bathroom , bedroom , patio , porch , garden and other indoor outdoor place .</t>
+        </is>
+      </c>
+      <c r="B3009" t="inlineStr">
+        <is>
+          <t>[('0', '6', 'PROPERTY'), ('39', '66', 'PROPERTY'), ('79', '86', 'PROPERTY'), ('117', '123', 'PROPERTY'), ('290', '296', 'PROPERTY'), ('297', '304', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3009" t="inlineStr">
+        <is>
+          <t>['Rustic', 'retro &amp; artsy modern design', 'vintage', 'rustic', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" t="inlineStr">
+        <is>
+          <t>High Quality : Our hanging plant hooks are made of high - quality iron and they are sturdy and rust - proof . The black finish adds elegance to your living space and matches any thing that hangs from it . Including 4 black hooks , 8 screws and rubber plugs .</t>
+        </is>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>[('66', '70', 'MAT'), ('84', '90', 'PROPERTY'), ('95', '107', 'PROPERTY'), ('114', '119', 'COLOR'), ('217', '222', 'COLOR'), ('231', '239', 'PROPERTY'), ('244', '250', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3010" t="inlineStr">
+        <is>
+          <t>['iron', 'sturdy', 'rust - proof', 'black', 'black', '8 screws', 'rubber']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" t="inlineStr">
+        <is>
+          <t>Multiuse Hooks : Our rustic iron plant hooks are great for hanging plant brackets , lanterns , wind chimes , bird houses , candle holders , coat , holiday decorations or anything else you need to hang up . Adding elegance and beauty to your home or garden .</t>
+        </is>
+      </c>
+      <c r="B3011" t="inlineStr">
+        <is>
+          <t>[('21', '27', 'PROPERTY'), ('28', '32', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3011" t="inlineStr">
+        <is>
+          <t>['rustic', 'iron']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" t="inlineStr">
+        <is>
+          <t>Easy to install : Our hooks only just fix it with attached screws . Great for living room , bathroom , bedroom , patio , porch , garden and other indoor outdoor place . Its elegant appearance decorates your home more beautiful .</t>
+        </is>
+      </c>
+      <c r="B3012" t="inlineStr">
+        <is>
+          <t>[('146', '152', 'PROPERTY'), ('153', '160', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3012" t="inlineStr">
+        <is>
+          <t>['indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" t="inlineStr">
+        <is>
+          <t>Reasonable Size : Each plant hanger hook is 4 . 6 inches in height and extends 3 . 3 inches from the wall , easy to install and work well . If you ' re not satisfied with our plant hooks , please contact us , we will provide you with a solution as soon as possible .</t>
+        </is>
+      </c>
+      <c r="B3013" t="inlineStr">
+        <is>
+          <t>[('44', '66', 'DIMENSION'), ('79', '91', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3013" t="inlineStr">
+        <is>
+          <t>['4 . 6 inches in height', '3 . 3 inches']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" t="inlineStr">
+        <is>
+          <t>HKCLAVUS outdoor lighting hooks are made by nylon plastic , come with 304 stainless steel screw and plastic expansion rubber tube , the hanger can be holds up to 20 lbs , wind proof and rust proof .</t>
+        </is>
+      </c>
+      <c r="B3014" t="inlineStr">
+        <is>
+          <t>[('9', '16', 'PROPERTY'), ('44', '49', 'MAT'), ('50', '57', 'MAT'), ('70', '89', 'MAT'), ('100', '107', 'MAT'), ('118', '124', 'MAT'), ('162', '168', 'WEIGHT'), ('171', '181', 'PROPERTY'), ('186', '196', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3014" t="inlineStr">
+        <is>
+          <t>['outdoor', 'nylon', 'plastic', '304 stainless steel', 'plastic', 'rubber', '20 lbs', 'wind proof', 'rust proof']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" t="inlineStr">
+        <is>
+          <t>Light clip hooks are suitable for indoor outdoor string lights , led christmas lights , fairy lights &amp; Patio Light hanger hooks , home patio backyard use . The safety design ensures the item or string light not easy to fall out . Also good for using hook to hang light weight items , such as wall planter , potted plants , wall decorations , Curtain , christmas ormaments .</t>
+        </is>
+      </c>
+      <c r="B3015" t="inlineStr">
+        <is>
+          <t>[('0', '5', 'PROPERTY'), ('34', '40', 'PROPERTY'), ('41', '48', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3015" t="inlineStr">
+        <is>
+          <t>['Light', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" t="inlineStr">
+        <is>
+          <t>Packing included hanger hooks , screw and expansion rubber tube . Size of Light Hooks : 1 . 37 x 1 . 14 inches , The length of stainless steel screw is 1 . 18 inch . Size of Expansion rubber tube : 1 x 0 . 23 inches .</t>
+        </is>
+      </c>
+      <c r="B3016" t="inlineStr">
+        <is>
+          <t>[('52', '58', 'MAT'), ('88', '110', 'DIMENSION'), ('127', '142', 'MAT'), ('152', '163', 'DIMENSION'), ('184', '190', 'MAT'), ('198', '215', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3016" t="inlineStr">
+        <is>
+          <t>['rubber', '1 . 37 x 1 . 14 inches', 'stainless steel', '1 . 18 inch', 'rubber', '1 x 0 . 23 inches']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" t="inlineStr">
+        <is>
+          <t>Christmas lights clips Easy Install on Wood or Wall in seconds . Install on wood , use a drill / screwdriver to screw the screw into beams or plank . install on concrete wall , outdoor string light hooks come with plastic Expansion rubber tube , pre - drill a 0 . 23 " hole , put a Expansion rubber tube into the hole , then tighten the screw into the plastic Expansion rubber tube .</t>
+        </is>
+      </c>
+      <c r="B3017" t="inlineStr">
+        <is>
+          <t>[('76', '80', 'NMAT'), ('161', '169', 'NMAT'), ('177', '184', 'PROPERTY'), ('214', '221', 'MAT'), ('232', '238', 'MAT'), ('246', '257', 'PROPERTY'), ('260', '273', 'DIMENSION'), ('292', '298', 'MAT'), ('352', '359', 'MAT'), ('370', '376', 'MAT'), ('39', '43', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3017" t="inlineStr">
+        <is>
+          <t>['wood', 'concrete', 'outdoor', 'plastic', 'rubber', 'pre - drill', '0 . 23 " hole', 'rubber', 'plastic', 'rubber', 'Wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" t="inlineStr">
+        <is>
+          <t>Simple installation : planter hook for bird feeder stand can be easily installed on fences , doors , wooden pavilions , pergola and wooden shelves .</t>
+        </is>
+      </c>
+      <c r="B3018" t="inlineStr">
+        <is>
+          <t>[('101', '107', 'NMAT'), ('132', '138', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3018" t="inlineStr">
+        <is>
+          <t>['wooden', 'wooden']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" t="inlineStr">
+        <is>
+          <t>Stable design : The planter hook for balcony bar is made of iron , and durable , waterproof and sun - resistant . planter hook for bird ornaments can hold the weight firmly</t>
+        </is>
+      </c>
+      <c r="B3019" t="inlineStr">
+        <is>
+          <t>[('0', '13', 'PROPERTY'), ('60', '64', 'MAT'), ('71', '78', 'PROPERTY'), ('81', '91', 'PROPERTY'), ('96', '111', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3019" t="inlineStr">
+        <is>
+          <t>['Stable design', 'iron', 'durable', 'waterproof', 'sun - resistant']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" t="inlineStr">
+        <is>
+          <t>: planter hook for outdoor flower pots are suitable for most fences and doors , adding elegance and beauty to your home or garden .</t>
+        </is>
+      </c>
+      <c r="B3020" t="inlineStr">
+        <is>
+          <t>[('19', '26', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3020" t="inlineStr">
+        <is>
+          <t>['outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" t="inlineStr">
+        <is>
+          <t>Save space : planter hook for house plants has a wide range of uses . These sturdy brackets are very suitable for hanging bird feeders , lanterns , flower baskets , flower pots , wind chimes , etc .</t>
+        </is>
+      </c>
+      <c r="B3021" t="inlineStr">
+        <is>
+          <t>[('76', '82', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3021" t="inlineStr">
+        <is>
+          <t>['sturdy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" t="inlineStr">
+        <is>
+          <t>★ 【 2 Pack 32 - inch Premium Quality Deck Hook &amp; Long hooks 】 Intricately designed to enhance all your home and garden projects . Patio , backyard , home outdoors and indoors , lawn or any other landscaping projects . These deck hooks is the perfect length so that the feeder is fully visible above the deck railing . It is also long enough that allows you to hang your feeder or planter away from your deck , avoiding constantly cleaning seeds and bird droppings .</t>
+        </is>
+      </c>
+      <c r="B3022" t="inlineStr">
+        <is>
+          <t>[('11', '20', 'DIMENSION'), ('154', '162', 'PROPERTY'), ('167', '174', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3022" t="inlineStr">
+        <is>
+          <t>['32 - inch', 'outdoors', 'indoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" t="inlineStr">
+        <is>
+          <t>★ 【 Durability &amp; Adjustable 】 Strong rust proof , weather proof metal construction . Solid bracket and curved rod top helps securely hold items . Adjustable clamp fits onto to deck railings which can be 1 " to 1 . 75 " inches wide . Strong enough to hold weights of 15 Lbs . The durable weather - proof powder - coated metal maintains its subtle black color and quality season after season . This product guarantees exquisite quality and value without compromising ease and convenience .</t>
+        </is>
+      </c>
+      <c r="B3023" t="inlineStr">
+        <is>
+          <t>[('4', '14', 'PROPERTY'), ('17', '27', 'PROPERTY'), ('37', '47', 'PROPERTY'), ('50', '63', 'PROPERTY'), ('64', '69', 'MAT'), ('85', '98', 'PROPERTY'), ('103', '117', 'PROPERTY'), ('146', '156', 'PROPERTY'), ('203', '230', 'DIMENSION'), ('266', '272', 'WEIGHT'), ('279', '286', 'PROPERTY'), ('287', '302', 'PROPERTY'), ('303', '309', 'MAT'), ('312', '318', 'PROPERTY'), ('319', '324', 'MAT'), ('346', '351', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C3023" t="inlineStr">
+        <is>
+          <t>['Durability', 'Adjustable', 'rust proof', 'weather proof', 'metal', 'Solid bracket', 'curved rod top', 'Adjustable', '1 " to 1 . 75 " inches wide', '15 Lbs', 'durable', 'weather - proof', 'powder', 'coated', 'metal', 'black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" t="inlineStr">
+        <is>
+          <t>★ 【 Multifunction &amp; Hang Anywhere 】 Endless applications and useful for hanging bird feeders , suet baskets , planters , flower pots , lanterns , Christmas decorations , string lights , wind chimes , ornaments , coconut baskets and more . You can hang it indoor or outdoor . Adding elegance and complement to your patio and garden . This angled hook can be repositioned without fuss and keeps your feeder in plain sight for perfect viewing from anywhere on your porch . And watch bird activity from the comfort of your deck</t>
+        </is>
+      </c>
+      <c r="B3024" t="inlineStr">
+        <is>
+          <t>[('255', '261', 'PROPERTY'), ('265', '272', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3024" t="inlineStr">
+        <is>
+          <t>['indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" t="inlineStr">
+        <is>
+          <t>★ 【 Easy to insatll &amp; Great Gift Idea 】 Clamp - on Deck Hook quickly and easily adjusts to hold securely to your deck railing . Absolutely no tools are needed , adjustable hand knob can be tightened and loosened quickly for easy installation and removal . It ' s very practical and versatile , which is the perfect gift for your friends , families , neighbours and your loved ones .</t>
+        </is>
+      </c>
+      <c r="B3025" t="inlineStr">
+        <is>
+          <t>[('40', '50', 'PROPERTY'), ('161', '181', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3025" t="inlineStr">
+        <is>
+          <t>['Clamp - on', 'adjustable hand knob']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" t="inlineStr">
+        <is>
+          <t>Multi - Purpose : Beautify your home or garden by hanging bird feeders , lanterns , flower pots , holiday decorations , string lights , wind chimes , ornaments , and more ! hooks canvas door fence hook wall lantern bird iron for ceramic art flow bike extended bracket planters plant fruit planter deck hanging .</t>
+        </is>
+      </c>
+      <c r="B3026" t="inlineStr">
+        <is>
+          <t>[('179', '185', 'NMAT'), ('220', '224', 'MAT'), ('251', '267', 'PROPERTY'), ('229', '236', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3026" t="inlineStr">
+        <is>
+          <t>['canvas', 'iron', 'extended bracket', 'ceramic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" t="inlineStr">
+        <is>
+          <t>Premium Quality : Rust resistant , heavy duty steel construction . Bring your heaviest pots and baskets ! wood buddha fancy dark garment extender flying and dual feeder disney bathroom crab decor add crochet calendar curved accessory 2 assorted decks clock butterfly anchor indoor decorations plants celtic belt glass french fat</t>
+        </is>
+      </c>
+      <c r="B3027" t="inlineStr">
+        <is>
+          <t>[('18', '32', 'PROPERTY'), ('35', '45', 'PROPERTY'), ('46', '51', 'MAT'), ('106', '110', 'MAT'), ('124', '136', 'PROPERTY'), ('157', '168', 'PROPERTY'), ('200', '216', 'PROPERTY'), ('217', '233', 'PROPERTY'), ('234', '256', 'PROPERTY'), ('274', '280', 'PROPERTY'), ('312', '317', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3027" t="inlineStr">
+        <is>
+          <t>['Rust resistant', 'heavy duty', 'steel', 'wood', 'dark garment', 'dual feeder', 'crochet calendar', 'curved accessory', '2 assorted decks clock', 'indoor', 'glass']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" t="inlineStr">
+        <is>
+          <t>Versatile : Screw this hanger into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . Curved tip helps securely hold items while adding to the exquisite look .</t>
+        </is>
+      </c>
+      <c r="B3028" t="inlineStr">
+        <is>
+          <t>[('35', '39', 'NMAT'), ('75', '81', 'PROPERTY'), ('147', '157', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3028" t="inlineStr">
+        <is>
+          <t>['wood', 'indoor', 'Curved tip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" t="inlineStr">
+        <is>
+          <t>「 Dimension 」 The Plant Hangers are 6 . 1 inches in height and 16 . 1 inches from the wall , the length of screws included is 1 . 4 inches . The maximum load of these plant hangers is about 50 lbs .</t>
+        </is>
+      </c>
+      <c r="B3029" t="inlineStr">
+        <is>
+          <t>[('36', '58', 'DIMENSION'), ('63', '76', 'DIMENSION'), ('126', '138', 'DIMENSION'), ('190', '196', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3029" t="inlineStr">
+        <is>
+          <t>['6 . 1 inches in height', '16 . 1 inches', '1 . 4 inches', '50 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" t="inlineStr">
+        <is>
+          <t>「 High Quality 」 Made of hard iron and with anti - rusting paint , these plant hooks are durable and rust resistant . They work well both outdoor or indoor . Besides , the special color - - - dark green makes your house and garden vibrant and beautiful with planters .</t>
+        </is>
+      </c>
+      <c r="B3030" t="inlineStr">
+        <is>
+          <t>[('25', '34', 'MAT'), ('44', '64', 'PROPERTY'), ('89', '96', 'PROPERTY'), ('101', '115', 'PROPERTY'), ('138', '145', 'PROPERTY'), ('149', '155', 'PROPERTY'), ('192', '202', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C3030" t="inlineStr">
+        <is>
+          <t>['hard iron', 'anti - rusting paint', 'durable', 'rust resistant', 'outdoor', 'indoor', 'dark green']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" t="inlineStr">
+        <is>
+          <t>「 Easy to install 」 You need to make holes on wood fence posts , deck columns or wall , and then tighten two screws to fix these plant hanger hooks . These screws are included in the package .</t>
+        </is>
+      </c>
+      <c r="B3031" t="inlineStr">
+        <is>
+          <t>[('46', '50', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3031" t="inlineStr">
+        <is>
+          <t>['wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" t="inlineStr">
+        <is>
+          <t>【 EXQUISITE AND PRACTICAL 】 This wall hanging brackets with classic curls in a country and vintage look , adding elegance and beauty to your home or garden without losing practicality , great for hanging plants , bird fodder or wind chimes</t>
+        </is>
+      </c>
+      <c r="B3032" t="inlineStr">
+        <is>
+          <t>[('33', '45', 'PROPERTY'), ('91', '98', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3032" t="inlineStr">
+        <is>
+          <t>['wall hanging', 'vintage']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" t="inlineStr">
+        <is>
+          <t>【 STYLISH FLOWER POT HANGER 】 The cast iron plant hanger has a smooth surface that complements anything that hangs from it , it is great for hanging various flowers , plants . Blends beautifully with its surroundings and works well with most other colors</t>
+        </is>
+      </c>
+      <c r="B3033" t="inlineStr">
+        <is>
+          <t>[('2', '9', 'PROPERTY'), ('34', '43', 'MAT'), ('63', '77', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3033" t="inlineStr">
+        <is>
+          <t>['STYLISH', 'cast iron', 'smooth surface']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" t="inlineStr">
+        <is>
+          <t>【 PREMIUM QUALITY 】 This plant hanging bracket is made of premium iron material , with electrostatic sprayed lacquer , durable and anti - rust , with solid welding , firm and durable , stable support and long lasting</t>
+        </is>
+      </c>
+      <c r="B3034" t="inlineStr">
+        <is>
+          <t>[('66', '70', 'MAT'), ('119', '126', 'PROPERTY'), ('131', '142', 'PROPERTY'), ('166', '170', 'PROPERTY'), ('175', '182', 'PROPERTY'), ('87', '116', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3034" t="inlineStr">
+        <is>
+          <t>['iron', 'durable', 'anti - rust', 'firm', 'durable', 'electrostatic sprayed lacquer']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" t="inlineStr">
+        <is>
+          <t>【 EASY TO INSTALL 】 Each plant basket bracket comes with two screws that are easy to install at home , you can easily install the wall hanging brackets indoors , outdoors or in the garden . This unique natural style will go perfectly with your home decor , door and garden</t>
+        </is>
+      </c>
+      <c r="B3035" t="inlineStr">
+        <is>
+          <t>[('57', '67', 'PROPERTY'), ('130', '142', 'PROPERTY'), ('152', '159', 'PROPERTY'), ('162', '170', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3035" t="inlineStr">
+        <is>
+          <t>['two screws', 'wall hanging', 'indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" t="inlineStr">
+        <is>
+          <t>The screw cup hook was built in heavy duty rustproof coating steel , suitable for hanging light - duty or light weight stuff in home , office and workplace</t>
+        </is>
+      </c>
+      <c r="B3036" t="inlineStr">
+        <is>
+          <t>[('32', '42', 'PROPERTY'), ('43', '52', 'PROPERTY'), ('53', '60', 'PROPERTY'), ('61', '66', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3036" t="inlineStr">
+        <is>
+          <t>['heavy duty', 'rustproof', 'coating', 'steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" t="inlineStr">
+        <is>
+          <t>Safety design q - hanger mug hook , deep enough to hang things securely and without any sliding out worry</t>
+        </is>
+      </c>
+      <c r="B3037" t="inlineStr">
+        <is>
+          <t>[('14', '24', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3037" t="inlineStr">
+        <is>
+          <t>['q - hanger']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" t="inlineStr">
+        <is>
+          <t>Easily install screw - in hook hanger , suitable for all solid surface such as walls , ceiling , wooden beams , outdoor eaves , garden , garage , backyard party , holiday decorative hanging</t>
+        </is>
+      </c>
+      <c r="B3038" t="inlineStr">
+        <is>
+          <t>[('15', '25', 'PROPERTY'), ('97', '103', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3038" t="inlineStr">
+        <is>
+          <t>['screw - in', 'wooden']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" t="inlineStr">
+        <is>
+          <t>12 Pack screw hook clips , each hook with 1 plastic tube</t>
+        </is>
+      </c>
+      <c r="B3039" t="inlineStr">
+        <is>
+          <t>[('0', '24', 'PROPERTY'), ('44', '51', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3039" t="inlineStr">
+        <is>
+          <t>['12 Pack screw hook clips', 'plastic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" t="inlineStr">
+        <is>
+          <t>【 EXCELLENT QUALITY 】 The hanging plant bracket support is made of heavy iron , the unique welding process is very strong , and the surface paint is smoother and more textured . Durable , can be used outdoors for a long time , and can resist rain , snow and sunlight .</t>
+        </is>
+      </c>
+      <c r="B3040" t="inlineStr">
+        <is>
+          <t>[('67', '77', 'MAT'), ('178', '185', 'PROPERTY'), ('200', '208', 'PROPERTY'), ('235', '266', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3040" t="inlineStr">
+        <is>
+          <t>['heavy iron', 'Durable', 'outdoors', 'resist rain , snow and sunlight']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" t="inlineStr">
+        <is>
+          <t>【 STABLE AND STURTY 】 The hanging plant hook is very sturdy , so you don ' t need to worry about it being damaged . Simple and generous design , the arc design of the frame fits perfectly with the wall , and it will not swing after installation . The edges are rounded , so you don ' t have to worry about scratching your hands . It can easily bear a weight of 30 pounds and has strong stability .</t>
+        </is>
+      </c>
+      <c r="B3041" t="inlineStr">
+        <is>
+          <t>[('149', '159', 'PROPERTY'), ('261', '268', 'SHAPE'), ('361', '370', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3041" t="inlineStr">
+        <is>
+          <t>['arc design', 'rounded', '30 pounds']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" t="inlineStr">
+        <is>
+          <t>【 EASY TO INSTALL 】 The hanging plant bracket hooks are easy to install at both ends . Each set of 2 black wall hanging plant hanger hooks , equipped with 4 screws and 4 plastic anchors . You only need to screw the screws into the location that needs to be installed , such as wooden fences , trees , and even indoor and outdoor walls , etc . , and the installation and fixing are very convenient</t>
+        </is>
+      </c>
+      <c r="B3042" t="inlineStr">
+        <is>
+          <t>[('101', '106', 'COLOR'), ('155', '163', 'PROPERTY'), ('170', '177', 'MAT'), ('277', '283', 'NMAT'), ('310', '316', 'PROPERTY'), ('321', '328', 'PROPERTY'), ('92', '100', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3042" t="inlineStr">
+        <is>
+          <t>['black', '4 screws', 'plastic', 'wooden', 'indoor', 'outdoor', 'set of 2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" t="inlineStr">
+        <is>
+          <t>【 MULTIPURPOSE PLANT HANGER BRACKET 】 This hanging plant bracketadopts a unique nostalgic retro design wrought iron style , which is very suitable for hanging flowers , plants , wind chimes , lanterns , bird feeders , wind chimes , flower baskets and other decorations . It is a very practical indoor or outdoor decoration tool .</t>
+        </is>
+      </c>
+      <c r="B3043" t="inlineStr">
+        <is>
+          <t>[('103', '115', 'NMAT'), ('294', '300', 'PROPERTY'), ('304', '311', 'PROPERTY'), ('90', '102', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3043" t="inlineStr">
+        <is>
+          <t>['wrought iron', 'indoor', 'outdoor', 'retro design']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" t="inlineStr">
+        <is>
+          <t>Beautify the walls . Tighten the cable to make the wall look tight and clean . Wonderful for using the turnbuckle to hang a cable to connect a string of lights across back yard . The turnbuckle can level the light above the fish tank . Great for hanging photo prints mounted on foam board . Work great for TV antenna to adjust the wires , the attractive finish is shiny without distracting from the display .</t>
+        </is>
+      </c>
+      <c r="B3044" t="inlineStr">
+        <is>
+          <t>[('278', '282', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3044" t="inlineStr">
+        <is>
+          <t>['foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" t="inlineStr">
+        <is>
+          <t>Help eliminate the slack of the cable . No more struggle with a drooping clothesline , and now you can easily tighten them up with these turnbuckles . It works by allowing you to hook each end in placeturn the central piece to tighten / shorten the distance between the hooks adding tension . You can tighten the slack by turning the casing surrounding the counter - rotating threads .</t>
+        </is>
+      </c>
+      <c r="B3045" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3045" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" t="inlineStr">
+        <is>
+          <t>No ragged edges and no crooked . The eye loop is welded well and leaving spare gap . Perfect for leveling outdoor hanging plants . The turnbuckles won ' t rust exposure a seaside environment , and there is no discoloration after lots of rain . They ' re solid and the threads are smooth . The turnbuckle is detachable , so it can be reused , and lubricant can be added as needed to increase screw lubrication .</t>
+        </is>
+      </c>
+      <c r="B3046" t="inlineStr">
+        <is>
+          <t>[('0', '15', 'PROPERTY'), ('20', '30', 'PROPERTY'), ('106', '113', 'PROPERTY'), ('307', '317', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3046" t="inlineStr">
+        <is>
+          <t>['No ragged edges', 'no crooked', 'outdoor', 'detachable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" t="inlineStr">
+        <is>
+          <t>Robust and secure . Wind cannot make the turnbuckle structure vibrate . It won ' t unscrew itself and line comes down . Used to hang up a patio sail or sunshade sail . Easy to add tension when required , and more then strong enough to hold the sail in place even during moderate winds . It is a simple matter to untie and re - tie . Add a long wire , a few twists and you will have a perfect tension .</t>
+        </is>
+      </c>
+      <c r="B3047" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3047" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" t="inlineStr">
+        <is>
+          <t>Provide great stability for hanging patio string lights in combination with screw eyes leg threads . Use these turnbuckles to install a wire rope / cable system on new deck . Used to connect and make vertical sagging fence posts after a storm . Great for setting up an overhead line for a dog run until the yard fenced entirely in . They are very suitable for a balcony cable .</t>
+        </is>
+      </c>
+      <c r="B3048" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3048" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" t="inlineStr">
+        <is>
+          <t>【 Multi - Purpose 】 A very useful indoor or outdoor decoration tool , you can use it to decorate your patio , porch , garden , backyard , deck , porch , bedroom , living room , bathroom , kitchen , balcony , entryway by hanging lanterns , planters , baskets , mason jars , wind chimes , bird feeders , flower pots , holiday decorations , string lights , ornaments and more !</t>
+        </is>
+      </c>
+      <c r="B3049" t="inlineStr">
+        <is>
+          <t>[('34', '40', 'PROPERTY'), ('44', '51', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3049" t="inlineStr">
+        <is>
+          <t>['indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" t="inlineStr">
+        <is>
+          <t>【 Simple but Elegant Appearance 】 The triangular fixed structure provides the most stable support and strength in the actual use process . The modern classic design with the unique and noble elegant temperament , beautiful and practical , suitable for all kinds of home and garden style .</t>
+        </is>
+      </c>
+      <c r="B3050" t="inlineStr">
+        <is>
+          <t>[('38', '48', 'SHAPE'), ('143', '164', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3050" t="inlineStr">
+        <is>
+          <t>['triangular', 'modern classic design']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" t="inlineStr">
+        <is>
+          <t>【 Premium Quality 】 Made of solid top - grade heavy - duty cast iron and with the fine workmanship , the wall mounted hooks feature a stylish look and strong anti - rust performance . Matte Black powder coated finish resists corrosion and weathering better than most conventional paint finishes , lasting many seasons .</t>
+        </is>
+      </c>
+      <c r="B3051" t="inlineStr">
+        <is>
+          <t>[('46', '58', 'PROPERTY'), ('59', '68', 'MAT'), ('105', '117', 'PROPERTY'), ('158', '169', 'PROPERTY'), ('184', '195', 'COLOR'), ('196', '202', 'MAT'), ('203', '209', 'PROPERTY'), ('217', '249', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3051" t="inlineStr">
+        <is>
+          <t>['heavy - duty', 'cast iron', 'wall mounted', 'anti - rust', 'Matte Black', 'powder', 'coated', 'resists corrosion and weathering']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" t="inlineStr">
+        <is>
+          <t>【 Weight &amp; Dimension 】 Measures 11 . 1 ' ' L x 0 . 79 ' ' W x 6 . 1 ' ' H , each ; Product Weight 0 . 75 lb , each ; Maximum load : 30 lbs .</t>
+        </is>
+      </c>
+      <c r="B3052" t="inlineStr">
+        <is>
+          <t>[('32', '73', 'DIMENSION'), ('98', '107', 'WEIGHT'), ('132', '138', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3052" t="inlineStr">
+        <is>
+          <t>["11 . 1 ' ' L x 0 . 79 ' ' W x 6 . 1 ' ' H", '0 . 75 lb', '30 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" t="inlineStr">
+        <is>
+          <t>【 Easy To Install 】 There are 2 nail holes at both ends of the bracket and easy to install . Equipped with screws and rubber plugs for mounting and fixing .</t>
+        </is>
+      </c>
+      <c r="B3053" t="inlineStr">
+        <is>
+          <t>[('30', '42', 'PROPERTY'), ('118', '124', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3053" t="inlineStr">
+        <is>
+          <t>['2 nail holes', 'rubber']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" t="inlineStr">
+        <is>
+          <t>【 PREMIUM MATERIAL 】 Made of heavy duty steel construction , They are sturdy and doesn ’ t bend . The hanging plant bracket surface is inkjet with paint to prevent from rusting . Golden paint is natural and durable , adding elegance and beauty to your home or garden without losing practicality</t>
+        </is>
+      </c>
+      <c r="B3054" t="inlineStr">
+        <is>
+          <t>[('29', '39', 'PROPERTY'), ('40', '45', 'MAT'), ('70', '76', 'PROPERTY'), ('179', '185', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C3054" t="inlineStr">
+        <is>
+          <t>['heavy duty', 'steel', 'sturdy', 'Golden']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" t="inlineStr">
+        <is>
+          <t>【 PRACTICAL DESIGN 】 The height of 8 inches ensures the stable balance , the length of 10 inches provides enough space for your flower pot . And the special triangular structure ensures additional support and strength</t>
+        </is>
+      </c>
+      <c r="B3055" t="inlineStr">
+        <is>
+          <t>[('35', '43', 'DIMENSION'), ('87', '96', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3055" t="inlineStr">
+        <is>
+          <t>['8 inches', '10 inches']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" t="inlineStr">
+        <is>
+          <t>【 EASY TO USE 】 The outdoor hanging brackets package contains with 4 screws and 4 expansion nail . You just need to drill 2 holes on the wall with an electric drill , insert the dowels into the holes and then attach the wall hooks with screws</t>
+        </is>
+      </c>
+      <c r="B3056" t="inlineStr">
+        <is>
+          <t>[('20', '27', 'PROPERTY'), ('67', '75', 'PROPERTY'), ('80', '96', 'PROPERTY'), ('122', '129', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3056" t="inlineStr">
+        <is>
+          <t>['outdoor', '4 screws', '4 expansion nail', '2 holes']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" t="inlineStr">
+        <is>
+          <t>Premium Quality : The hanging plants bracket hanger made of durable and metal iron material , the surface processed by cover a nice gloss black powder coat treatment and rust resistant</t>
+        </is>
+      </c>
+      <c r="B3057" t="inlineStr">
+        <is>
+          <t>[('60', '67', 'PROPERTY'), ('72', '82', 'MAT'), ('144', '150', 'MAT'), ('151', '155', 'PROPERTY'), ('170', '184', 'PROPERTY'), ('132', '143', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C3057" t="inlineStr">
+        <is>
+          <t>['durable', 'metal iron', 'powder', 'coat', 'rust resistant', 'gloss black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3058">
+      <c r="A3058" t="inlineStr">
+        <is>
+          <t>Stylish Design : The wall hooks hanging are unique cutting process with integrated molding , with the unique nostalgia of vintage iron art for compatible decorative , adding elegance and beauty to your home or garden</t>
+        </is>
+      </c>
+      <c r="B3058" t="inlineStr">
+        <is>
+          <t>[('72', '90', 'PROPERTY'), ('130', '134', 'MAT'), ('21', '31', 'PROPERTY'), ('122', '129', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3058" t="inlineStr">
+        <is>
+          <t>['integrated molding', 'iron', 'wall hooks', 'vintage']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" t="inlineStr">
+        <is>
+          <t>Easy Installation : Decorative iron wall hooks are equipped with screws for mounting and fixing , which you can easily install it indoors / outdoors and in the garden .</t>
+        </is>
+      </c>
+      <c r="B3059" t="inlineStr">
+        <is>
+          <t>[('31', '35', 'MAT'), ('130', '137', 'PROPERTY'), ('140', '148', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3059" t="inlineStr">
+        <is>
+          <t>['iron', 'indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" t="inlineStr">
+        <is>
+          <t>Save Money and Feel More at Ease ： Come with 2pcs hanging brackets in one package that more save you money ， and strong bearing , easily hanging different decorative below 30 pounds , you don ' t worry falling .</t>
+        </is>
+      </c>
+      <c r="B3060" t="inlineStr">
+        <is>
+          <t>[('45', '49', 'PROPERTY'), ('172', '181', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3060" t="inlineStr">
+        <is>
+          <t>['2pcs', '30 pounds']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" t="inlineStr">
+        <is>
+          <t>Size Information : outdoor Thanksgiving decorations measure approximately 14 x 66 . 8 inches , you can hang them outside , which can attract the attention of passers by , but also according to their appearance to determine the direction of the wind</t>
+        </is>
+      </c>
+      <c r="B3061" t="inlineStr">
+        <is>
+          <t>[('19', '26', 'PROPERTY'), ('74', '92', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3061" t="inlineStr">
+        <is>
+          <t>['outdoor', '14 x 66 . 8 inches']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" t="inlineStr">
+        <is>
+          <t>Cute Turkey Design : outdoor thanksgiving decors use cute turkey elements as the theme , in line with the theme of Thanksgiving , suitable for Thanksgiving theme decoration , home decoration , fall party</t>
+        </is>
+      </c>
+      <c r="B3062" t="inlineStr">
+        <is>
+          <t>[('5', '18', 'PROPERTY'), ('21', '28', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3062" t="inlineStr">
+        <is>
+          <t>['Turkey Design', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" t="inlineStr">
+        <is>
+          <t>Quality Material : windsocks thanksgiving outdoor are made of quality polyester fabric and felt , lightweight and reliable , which can serve you for a long time , you can use them with confidence</t>
+        </is>
+      </c>
+      <c r="B3063" t="inlineStr">
+        <is>
+          <t>[('70', '86', 'MAT'), ('91', '95', 'MAT'), ('98', '109', 'PROPERTY'), ('114', '122', 'PROPERTY'), ('42', '49', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3063" t="inlineStr">
+        <is>
+          <t>['polyester fabric', 'felt', 'lightweight', 'reliable', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" t="inlineStr">
+        <is>
+          <t>Broad Range of Applications : windsock outdoor hanging decorations can be hung in many places , you can hang them directly on your front door , yard , garden , porch sign , window , flagpole , lamp post or whatever you like</t>
+        </is>
+      </c>
+      <c r="B3064" t="inlineStr">
+        <is>
+          <t>[('39', '46', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3064" t="inlineStr">
+        <is>
+          <t>['outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" t="inlineStr">
+        <is>
+          <t>[ Excellent quality ] The plant ring is made of high quality steel , which is so sturdy and the bracket is not easy bent when you use them to hanger on your favorite plants !</t>
+        </is>
+      </c>
+      <c r="B3065" t="inlineStr">
+        <is>
+          <t>[('61', '66', 'MAT'), ('81', '87', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3065" t="inlineStr">
+        <is>
+          <t>['steel', 'sturdy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" t="inlineStr">
+        <is>
+          <t>[ Functional Brackets ] I recommend these to everyone who has indoor plants and wants to display them in a way that ' s fun and functional !</t>
+        </is>
+      </c>
+      <c r="B3066" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3066" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" t="inlineStr">
+        <is>
+          <t>[ Perfect for My DIY project lovers ] This rings are made from sturdy material and are good quality . They were perfect for hanging some of my 4 - 5 " pots on the walls . Nice simple design . Easy to hang and came with their own screws .</t>
+        </is>
+      </c>
+      <c r="B3067" t="inlineStr">
+        <is>
+          <t>[('63', '69', 'PROPERTY'), ('143', '150', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3067" t="inlineStr">
+        <is>
+          <t>['sturdy', '4 - 5 "']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" t="inlineStr">
+        <is>
+          <t>[ Great looking pot holder rings ] You can easily hang indoor plants on the wall . You will love the way they look and the pots can be easily taken out to change the look or just to water them .</t>
+        </is>
+      </c>
+      <c r="B3068" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3068" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" t="inlineStr">
+        <is>
+          <t>Pack of 4 in BLACK ; The inner diameter of the small flower pot ring is 5 . 35 inches , and the inner diameter of the large flower pot ring is 7 . 5 inches . Since it is foldable , it can be loaded with everyday plants . ( Before purchasing a flower pot stand , please measure your flower pot first . )</t>
+        </is>
+      </c>
+      <c r="B3069" t="inlineStr">
+        <is>
+          <t>[('0', '9', 'PROPERTY'), ('13', '18', 'COLOR'), ('72', '85', 'DIMENSION'), ('143', '155', 'DIMENSION'), ('170', '178', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3069" t="inlineStr">
+        <is>
+          <t>['Pack of 4', 'BLACK', '5 . 35 inches', '7 . 5 inches', 'foldable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" t="inlineStr">
+        <is>
+          <t>Material : Made of iron , hard texture , not easy to deform ; electrostatic spray paint treatment , matte black surface treatment . Using the swing arm stand , it can rotate 90 degrees and rotate up or down . Does not rust easily and shows a better grade .</t>
+        </is>
+      </c>
+      <c r="B3070" t="inlineStr">
+        <is>
+          <t>[('19', '23', 'MAT'), ('26', '38', 'PROPERTY'), ('62', '87', 'PROPERTY'), ('100', '111', 'COLOR'), ('174', '184', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3070" t="inlineStr">
+        <is>
+          <t>['iron', 'hard texture', 'electrostatic spray paint', 'matte black', '90 degrees']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" t="inlineStr">
+        <is>
+          <t>Hanging plant stand adds a decorative touch , Folding hollow wall hanging design saves space , and the bottom is suspended for easy ventilation and drainage of the flowerpot .</t>
+        </is>
+      </c>
+      <c r="B3071" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3071" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" t="inlineStr">
+        <is>
+          <t>Easily mounts to any flat surface with two screws , elegant and artistic , perfect for your courtyard , porch , balcony , garden , etc . （ NOT included pot ）</t>
+        </is>
+      </c>
+      <c r="B3072" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3072" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" t="inlineStr">
+        <is>
+          <t>Hang the green plants on the wall and receive a vibrant drawing board to make your home look warmer . Add plants indoors or outdoors to add vitality to life and create a healthy green space .</t>
+        </is>
+      </c>
+      <c r="B3073" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3073" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" t="inlineStr">
+        <is>
+          <t>✅ White fence hooks measures 6 inches in length and 2 inches in width , could fit most of vinyl fence and doors .</t>
+        </is>
+      </c>
+      <c r="B3074" t="inlineStr">
+        <is>
+          <t>[('2', '7', 'COLOR'), ('29', '47', 'DIMENSION'), ('52', '69', 'DIMENSION'), ('90', '95', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3074" t="inlineStr">
+        <is>
+          <t>['White', '6 inches in length', '2 inches in width', 'vinyl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" t="inlineStr">
+        <is>
+          <t>✅ Quality : This Heavy duty patio hooks are made of high quality steel with white powder coated surface , solid and can be used for long time</t>
+        </is>
+      </c>
+      <c r="B3075" t="inlineStr">
+        <is>
+          <t>[('17', '27', 'PROPERTY'), ('65', '70', 'MAT'), ('76', '81', 'COLOR'), ('82', '88', 'MAT'), ('89', '95', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3075" t="inlineStr">
+        <is>
+          <t>['Heavy duty', 'steel', 'white', 'powder', 'coated']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" t="inlineStr">
+        <is>
+          <t>PREMIUM SOLID WOOD - The wood hanging basket hooks are made of 1inch extra thick rubber wood , which is light in weight while maintaining the firmness and durability of the wooden hook . The 6 inch hook can hold up to 12 " diameter planter . They come with adequate screws for wall studs and universal anchors for other types of walls that can hold a maximum of 20 lbs .</t>
+        </is>
+      </c>
+      <c r="B3076" t="inlineStr">
+        <is>
+          <t>[('8', '18', 'MAT'), ('25', '29', 'MAT'), ('63', '80', 'DIMENSION'), ('81', '92', 'MAT'), ('104', '119', 'PROPERTY'), ('173', '179', 'MAT'), ('191', '197', 'DIMENSION'), ('218', '231', 'DIMENSION'), ('362', '368', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3076" t="inlineStr">
+        <is>
+          <t>['SOLID WOOD', 'wood', '1inch extra thick', 'rubber wood', 'light in weight', 'wooden', '6 inch', '12 " diameter', '20 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" t="inlineStr">
+        <is>
+          <t>SIMPLE AND ELEGANT DESIGN - A Wooden color finish stunningly complements anything that hangs from it , add rustic decor to your country style home and garden . You can use the plant hanger brackets to decorate your living room , bathroom , bedroom , entrance , terrace , porch , garden , backyard , fence and other indoor and outdoor places .</t>
+        </is>
+      </c>
+      <c r="B3077" t="inlineStr">
+        <is>
+          <t>[('30', '36', 'COLOR'), ('107', '113', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3077" t="inlineStr">
+        <is>
+          <t>['Wooden', 'rustic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" t="inlineStr">
+        <is>
+          <t>MULTI PURPOS - Strong and durable , Maximum load 20 lb . This plant wall hangers can easily hang wall hanging flowerpots , lanterns , wind chimes , plant baskets , bird feeders , lamp strings , coats , festival decorations , etc . Easy to use and versatile , decorate your home , beautify your home or garden !</t>
+        </is>
+      </c>
+      <c r="B3078" t="inlineStr">
+        <is>
+          <t>[('49', '54', 'WEIGHT'), ('97', '109', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3078" t="inlineStr">
+        <is>
+          <t>['20 lb', 'wall hanging']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" t="inlineStr">
+        <is>
+          <t>PACKAGE INCLUDES - This package includes 2pcs 6 inch plant hooks ( Adapted for 12 " diameter planters ) , 4 screws and 4 wall anchors . The plant hanger hook size : 7 . 7 ” L x 10 . 6 ” H x 1 ” W . Each screw is a standard M4 . 2 screw , 2 inches long . It looks great in a variety of different environments .</t>
+        </is>
+      </c>
+      <c r="B3079" t="inlineStr">
+        <is>
+          <t>[('41', '45', 'PROPERTY'), ('46', '52', 'DIMENSION'), ('79', '83', 'DIMENSION'), ('106', '114', 'PROPERTY'), ('119', '133', 'PROPERTY'), ('165', '195', 'DIMENSION'), ('238', '251', 'DIMENSION'), ('223', '235', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3079" t="inlineStr">
+        <is>
+          <t>['2pcs', '6 inch', '12 "', '4 screws', '4 wall anchors', '7 . 7 ” L x 10 . 6 ” H x 1 ” W', '2 inches long', 'M4 . 2 screw']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" t="inlineStr">
+        <is>
+          <t>SINCERELY AT YOUR SERVICE - Please feel free to contact us if you have any problems about the wood plant hooks . We offer a 60 days refund service to help you get a great shopping experience .</t>
+        </is>
+      </c>
+      <c r="B3080" t="inlineStr">
+        <is>
+          <t>[('94', '98', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3080" t="inlineStr">
+        <is>
+          <t>['wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" t="inlineStr">
+        <is>
+          <t>[ Simple &amp; Elegant ] : The shepherd hook adopts retro appearance and black finish will add elegance and beauty to your garden hook , which can complement any items you choose to hang on it . Blends seamlessly with the surrounding environment and complements most other colors .</t>
+        </is>
+      </c>
+      <c r="B3081" t="inlineStr">
+        <is>
+          <t>[('48', '64', 'PROPERTY'), ('69', '74', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C3081" t="inlineStr">
+        <is>
+          <t>['retro appearance', 'black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" t="inlineStr">
+        <is>
+          <t>[ Firmly &amp; Securely ] : A total of 5 base claws , using high - quality steel structure and powder coating technology , with the characteristics of anti - rust , high durability and durability . The garden shepherd hook has a special 2 + 2 + 1 structure and super long fork , which means that its sturdiness and stability far exceed 2 or 3 - pronged ones , ensuring that the outdoor garden shepherd hook can be used continuously for multiple seasons .</t>
+        </is>
+      </c>
+      <c r="B3082" t="inlineStr">
+        <is>
+          <t>[('35', '47', 'PROPERTY'), ('71', '76', 'MAT'), ('91', '97', 'MAT'), ('98', '105', 'PROPERTY'), ('147', '158', 'PROPERTY'), ('166', '176', 'PROPERTY'), ('181', '191', 'PROPERTY'), ('233', '252', 'PROPERTY'), ('263', '272', 'PROPERTY'), ('296', '306', 'PROPERTY'), ('311', '320', 'PROPERTY'), ('374', '381', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3082" t="inlineStr">
+        <is>
+          <t>['5 base claws', 'steel', 'powder', 'coating', 'anti - rust', 'durability', 'durability', '2 + 2 + 1 structure', 'long fork', 'sturdiness', 'stability', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" t="inlineStr">
+        <is>
+          <t>[ Various applications ] : Beautify yours outdoor living space by hanging bird feeders , solar lights , flower pots , lanterns , flower baskets , garden lights , mason jars , string lights , wind chimes , decorations , bird feeders , bird baths , flower pots , etc ! Very suitable for outdoor wedding aisles , very suitable for any garden decoration .</t>
+        </is>
+      </c>
+      <c r="B3083" t="inlineStr">
+        <is>
+          <t>[('42', '49', 'PROPERTY'), ('285', '292', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3083" t="inlineStr">
+        <is>
+          <t>['outdoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" t="inlineStr">
+        <is>
+          <t>[ Use place ] : The outdoor shepherd hook is suitable for your garden , lawn , balcony , snow , backyard , grassland , adding a beautiful scenery to the lawn and garden .</t>
+        </is>
+      </c>
+      <c r="B3084" t="inlineStr">
+        <is>
+          <t>[('20', '27', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3084" t="inlineStr">
+        <is>
+          <t>['outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" t="inlineStr">
+        <is>
+          <t>【 SIZE 】 Solid black powder - coated Steel hangers are 1 / 4 " round powder - coated steel size 8 " . Designed for Alumawood solid non - insulated ( roof with grooves ) panel patio .</t>
+        </is>
+      </c>
+      <c r="B3085" t="inlineStr">
+        <is>
+          <t>[('15', '20', 'COLOR'), ('21', '27', 'MAT'), ('30', '36', 'PROPERTY'), ('37', '42', 'MAT'), ('55', '68', 'DIMENSION'), ('69', '75', 'MAT'), ('78', '84', 'PROPERTY'), ('85', '90', 'MAT'), ('91', '95', 'DIMENSION'), ('96', '99', 'DIMENSION'), ('131', '146', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3085" t="inlineStr">
+        <is>
+          <t>['black', 'powder', 'coated', 'Steel', '1 / 4 " round', 'powder', 'coated', 'steel', 'size', '8 "', 'non - insulated']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" t="inlineStr">
+        <is>
+          <t>【 ACCESSORIES 】 Package comes with 12 pack hangers and 12 pack vinyl sleeves . The vinyl sleeves are for increasing the size of hangers that go on the Solid Non Insulated grooved covers . Some grooves are a little bigger than others and require a sleeve to create a tighter fit . If the hanger hooks for  the patio  cover fit tight in the groove between the roof panel and the header beam , you might not need the vinyl sleeves but if the hanger hooks for  the patio  cover move around and is loose then we recommend getting the vinyl sleeves . Just use soap and water to slide on the vinyl tubbing .</t>
+        </is>
+      </c>
+      <c r="B3086" t="inlineStr">
+        <is>
+          <t>[('35', '50', 'PROPERTY'), ('55', '62', 'PROPERTY'), ('63', '68', 'MAT'), ('83', '88', 'MAT'), ('157', '185', 'PROPERTY'), ('414', '419', 'MAT'), ('529', '534', 'MAT'), ('554', '558', 'NMAT'), ('563', '568', 'NMAT'), ('585', '590', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3086" t="inlineStr">
+        <is>
+          <t>['12 pack hangers', '12 pack', 'vinyl', 'vinyl', 'Non Insulated grooved covers', 'vinyl', 'vinyl', 'soap', 'water', 'vinyl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" t="inlineStr">
+        <is>
+          <t>【 QUALITY 】 Our hanger hooks for  patio  covers are made of 100 % steel and then powder - coated black to ensure our customers get only the best and strongest quality , guarantee to last . Allowing you to hang all types of decorations and small equipment .</t>
+        </is>
+      </c>
+      <c r="B3087" t="inlineStr">
+        <is>
+          <t>[('60', '71', 'MAT'), ('81', '87', 'MAT'), ('90', '96', 'PROPERTY'), ('97', '102', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C3087" t="inlineStr">
+        <is>
+          <t>['100 % steel', 'powder', 'coated', 'black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" t="inlineStr">
+        <is>
+          <t>STURDY AND DURABLE : Made of premium quality metal and coated with anti - rust layer , providing with additional support and strength in quadrilateral fixed structure which makes this swivel plant hanging bracket enough sturdy and durable , offering your objects the safest support</t>
+        </is>
+      </c>
+      <c r="B3088" t="inlineStr">
+        <is>
+          <t>[('0', '6', 'PROPERTY'), ('11', '18', 'PROPERTY'), ('45', '50', 'MAT'), ('55', '61', 'PROPERTY'), ('67', '84', 'PROPERTY'), ('220', '226', 'PROPERTY'), ('231', '238', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3088" t="inlineStr">
+        <is>
+          <t>['STURDY', 'DURABLE', 'metal', 'coated', 'anti - rust layer', 'sturdy', 'durable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" t="inlineStr">
+        <is>
+          <t>ADJUSTABLE &amp; DOUBLE BRACKETS DESIGN : This decorative plant hanger can be flexibly rotated to 180 ° , adjusted to the position where the hook fits . You can hang two lanterns or hummingbird feeders , etc . at the same time , so valuable is it .</t>
+        </is>
+      </c>
+      <c r="B3089" t="inlineStr">
+        <is>
+          <t>[('0', '10', 'PROPERTY'), ('13', '35', 'PROPERTY'), ('94', '99', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3089" t="inlineStr">
+        <is>
+          <t>['ADJUSTABLE', 'DOUBLE BRACKETS DESIGN', '180 °']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3090">
+      <c r="A3090" t="inlineStr">
+        <is>
+          <t>WIDELY USE : Beautify your home or garden by hanging bird feeders , lanterns , flower baskets , Halloween or Christmas decorations , string lights , wind chimes , and so on ! This hanging plant bracket is your best choice whether in indoor or outdoor .</t>
+        </is>
+      </c>
+      <c r="B3090" t="inlineStr">
+        <is>
+          <t>[('233', '239', 'PROPERTY'), ('243', '250', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3090" t="inlineStr">
+        <is>
+          <t>['indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" t="inlineStr">
+        <is>
+          <t>2 PACK INCLUDED &amp; EASY TO INSTALL : 2 pack Included , there is no need worry about your hangers are not enough . Just follow the instruction , the swivel hanging brackets can be easily mounted on wooden fences , trees , deck posts and even indoor walls in living room , garden , or balcony .</t>
+        </is>
+      </c>
+      <c r="B3091" t="inlineStr">
+        <is>
+          <t>[('36', '42', 'PROPERTY'), ('196', '202', 'NMAT'), ('240', '246', 'PROPERTY'), ('0', '6', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3091" t="inlineStr">
+        <is>
+          <t>['2 pack', 'wooden', 'indoor', '2 PACK']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" t="inlineStr">
+        <is>
+          <t>The vintage wrought iron wall hanging flower stand is very great for hanging various flowers , plants , wind chimes , lanterns , bird manger and other decorations to create a landscaping space and charming atmosphere .</t>
+        </is>
+      </c>
+      <c r="B3092" t="inlineStr">
+        <is>
+          <t>[('12', '24', 'MAT'), ('25', '37', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3092" t="inlineStr">
+        <is>
+          <t>['wrought iron', 'wall hanging']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" t="inlineStr">
+        <is>
+          <t>The flower stand made of durable and heavy duty metal iron material , and the surface processed by retro - style distressed treatment . exquisite and cute shape design to add extra chic and elegance , especially harmonious with modern style house decoration .</t>
+        </is>
+      </c>
+      <c r="B3093" t="inlineStr">
+        <is>
+          <t>[('25', '32', 'PROPERTY'), ('37', '47', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3093" t="inlineStr">
+        <is>
+          <t>['durable', 'heavy duty']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" t="inlineStr">
+        <is>
+          <t>The nail holes at both ends of the bracket are easy to install . Equipped with screws for mounting and fixing , very stable and firm .</t>
+        </is>
+      </c>
+      <c r="B3094" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3094" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" t="inlineStr">
+        <is>
+          <t>Simple shape and high - strength welding process to make the load - bearing up to 3KG , which is very perfect for outdoor installation , such as balcony , garden fence , etc . The maximum weight is 33 pounds or 15 kilograms .</t>
+        </is>
+      </c>
+      <c r="B3095" t="inlineStr">
+        <is>
+          <t>[('82', '85', 'WEIGHT'), ('114', '121', 'PROPERTY'), ('198', '207', 'WEIGHT'), ('211', '223', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3095" t="inlineStr">
+        <is>
+          <t>['3KG', 'outdoor', '33 pounds', '15 kilograms']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" t="inlineStr">
+        <is>
+          <t>Come with 2pcs hanging brackets in one package . The bracket is compact in size and suitable for indoor and outdoor use . Besides , it is suitable for your home , garden , corridor , store , etc . And it can hang everything on the wall .</t>
+        </is>
+      </c>
+      <c r="B3096" t="inlineStr">
+        <is>
+          <t>[('10', '14', 'PROPERTY'), ('97', '103', 'PROPERTY'), ('108', '115', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3096" t="inlineStr">
+        <is>
+          <t>['2pcs', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" t="inlineStr">
+        <is>
+          <t>♪ Product Details - - Size : 7 . 8x1 . 4x7in , specific size refer to the product picture . Net weight : 1 . 4 lb . Because it is artificial production , there will be a little difference between the size and weight of each product , please understand .</t>
+        </is>
+      </c>
+      <c r="B3097" t="inlineStr">
+        <is>
+          <t>[('29', '44', 'DIMENSION'), ('105', '113', 'WEIGHT'), ('130', '140', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3097" t="inlineStr">
+        <is>
+          <t>['7 . 8x1 . 4x7in', '1 . 4 lb', 'artificial']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" t="inlineStr">
+        <is>
+          <t>♪ Material - - Cast iron . The surface of our iron ware is painted with waterproof paint . It can be placed outdoors at will . It will not be damaged or rusted in the sun or in the rain .</t>
+        </is>
+      </c>
+      <c r="B3098" t="inlineStr">
+        <is>
+          <t>[('15', '24', 'MAT'), ('46', '50', 'MAT'), ('59', '66', 'PROPERTY'), ('72', '88', 'PROPERTY'), ('108', '116', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3098" t="inlineStr">
+        <is>
+          <t>['Cast iron', 'iron', 'painted', 'waterproof paint', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" t="inlineStr">
+        <is>
+          <t>♪ Easily installed - - Adding style and functionality to your Outdoor or indoor space with an iron plant hanger hook Doesn ’ t need to be complicated . Simply find a flat surface on which the wrought iron hook can be mounted and hang whatever you desire . These incredibly functional hooks are sure to remain sturdy if installed on a surface that provides it with enough support with proper hardware .</t>
+        </is>
+      </c>
+      <c r="B3099" t="inlineStr">
+        <is>
+          <t>[('94', '98', 'MAT'), ('192', '204', 'MAT'), ('309', '315', 'PROPERTY'), ('62', '69', 'PROPERTY'), ('73', '79', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3099" t="inlineStr">
+        <is>
+          <t>['iron', 'wrought iron', 'sturdy', 'Outdoor', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" t="inlineStr">
+        <is>
+          <t>♪ Material and Technology - - Handmade wrought with cast iron and rustic cast iron : Our angled upcrooked hooks are forged from square stock for increased strength and rigidity . The square Hammered look has a craftsman style that fits with a vintage , rustic , or artisan decorative style .</t>
+        </is>
+      </c>
+      <c r="B3100" t="inlineStr">
+        <is>
+          <t>[('30', '38', 'PROPERTY'), ('52', '61', 'MAT'), ('66', '72', 'PROPERTY'), ('73', '82', 'MAT'), ('89', '95', 'PROPERTY'), ('96', '105', 'PROPERTY'), ('128', '134', 'SHAPE'), ('183', '189', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C3100" t="inlineStr">
+        <is>
+          <t>['Handmade', 'cast iron', 'rustic', 'cast iron', 'angled', 'upcrooked', 'square', 'square']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" t="inlineStr">
+        <is>
+          <t>Material and load - bearing : the maximum load - bearing 20 lb ( 9 kg ) flower pot , 9 - inch inner diameter , welding process , very strong .</t>
+        </is>
+      </c>
+      <c r="B3101" t="inlineStr">
+        <is>
+          <t>[('57', '71', 'WEIGHT'), ('85', '93', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3101" t="inlineStr">
+        <is>
+          <t>['20 lb ( 9 kg )', '9 - inch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" t="inlineStr">
+        <is>
+          <t>Durable and anti - rust : The plant pot holder ring is made of metal , and the surface is sprayed with anti - rust treatment , which is relatively smooth and can resist deformation . The powder coating can increase the protection against bad weather conditions .</t>
+        </is>
+      </c>
+      <c r="B3102" t="inlineStr">
+        <is>
+          <t>[('0', '7', 'PROPERTY'), ('12', '23', 'PROPERTY'), ('63', '68', 'MAT'), ('103', '124', 'PROPERTY'), ('147', '153', 'PROPERTY'), ('162', '180', 'PROPERTY'), ('187', '193', 'MAT'), ('194', '201', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3102" t="inlineStr">
+        <is>
+          <t>['Durable', 'anti - rust', 'metal', 'anti - rust treatment', 'smooth', 'resist deformation', 'powder', 'coating']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" t="inlineStr">
+        <is>
+          <t>DIY item decoration : The iron flower pot holder ring is very suitable for displaying flowers or plants in a vertical garden space . It can also be added indoors or outdoors , and can be easily decorated with pot holders . Plant support rings are an excellent storage method for terraces , balconies , porches , courtyards and windows .</t>
+        </is>
+      </c>
+      <c r="B3103" t="inlineStr">
+        <is>
+          <t>[('26', '30', 'MAT'), ('154', '161', 'PROPERTY'), ('165', '173', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3103" t="inlineStr">
+        <is>
+          <t>['iron', 'indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" t="inlineStr">
+        <is>
+          <t>Easy to install : The installation is simple , just find a wall , fence or plane that is stable enough to fix the metal flowerpot , and then install it with a screw kit .</t>
+        </is>
+      </c>
+      <c r="B3104" t="inlineStr">
+        <is>
+          <t>[('114', '119', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3104" t="inlineStr">
+        <is>
+          <t>['metal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" t="inlineStr">
+        <is>
+          <t>Use occasions : Flower pot ring frames are widely used in bedrooms , living rooms , bathrooms , gardens , roofs , pet houses , backyards , balconies , shops , etc . These sturdy wall - mounted brackets can hold various round containers , as well as footballs , basketballs , etc .</t>
+        </is>
+      </c>
+      <c r="B3105" t="inlineStr">
+        <is>
+          <t>[('178', '192', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3105" t="inlineStr">
+        <is>
+          <t>['wall - mounted']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" t="inlineStr">
+        <is>
+          <t>Mount Birdhouses and Birdfeeders to 4x4 Posts</t>
+        </is>
+      </c>
+      <c r="B3106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" t="inlineStr">
+        <is>
+          <t>Provides a Safe , Secure Mounting Option</t>
+        </is>
+      </c>
+      <c r="B3107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3108">
+      <c r="A3108" t="inlineStr">
+        <is>
+          <t>Each side of the flange measures 3 . 25 " x 2 "</t>
+        </is>
+      </c>
+      <c r="B3108" t="inlineStr">
+        <is>
+          <t>[('33', '47', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3108" t="inlineStr">
+        <is>
+          <t>['3 . 25 " x 2 "']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3109">
+      <c r="A3109" t="inlineStr">
+        <is>
+          <t>MULTI - PURPOSE : Beautify your outdoor living space by hanging bird feeders , suet baskets , planters , flower pots , lanterns , holiday decorations , string lights , wind chimes , ornaments , and more !</t>
+        </is>
+      </c>
+      <c r="B3109" t="inlineStr">
+        <is>
+          <t>[('32', '39', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3109" t="inlineStr">
+        <is>
+          <t>['outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3110">
+      <c r="A3110" t="inlineStr">
+        <is>
+          <t>SIZE &amp; ADJUSTABILITY : Kingsyard deck hook for bird feeder is 27 inch long , has a diameter of 1 . 5 inch ( more thicker and harder ) , and carries 20 pounds . The non - slip clamp on the base of the bird feeder hanger is adjustable for deck and railings , and can accommodate up to 2 . 2 inch in thickness .</t>
+        </is>
+      </c>
+      <c r="B3110" t="inlineStr">
+        <is>
+          <t>[('7', '20', 'PROPERTY'), ('62', '74', 'DIMENSION'), ('95', '105', 'DIMENSION'), ('148', '157', 'WEIGHT'), ('164', '174', 'PROPERTY'), ('222', '232', 'PROPERTY'), ('283', '293', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3110" t="inlineStr">
+        <is>
+          <t>['ADJUSTABILITY', '27 inch long', '1 . 5 inch', '20 pounds', 'non - slip', 'adjustable', '2 . 2 inch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" t="inlineStr">
+        <is>
+          <t>【 Indoor &amp; Outdoor Use 】 16 " outdoor plant hangers is suitable for hanging bird feeders , lanterns , plant pots , flower pots , wind chimes , string lights , path lights , holiday decorations , etc ; the wall lantern hooks can be mounted on a wall indoors and on a fence or tree outdoors , adding elegance and beauty to your home or garden</t>
+        </is>
+      </c>
+      <c r="B3111" t="inlineStr">
+        <is>
+          <t>[('25', '29', 'DIMENSION'), ('30', '37', 'PROPERTY'), ('2', '8', 'PROPERTY'), ('11', '18', 'PROPERTY'), ('249', '256', 'PROPERTY'), ('280', '288', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3111" t="inlineStr">
+        <is>
+          <t>['16 "', 'outdoor', 'Indoor', 'Outdoor', 'indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3112">
+      <c r="A3112" t="inlineStr">
+        <is>
+          <t>【 Heavy Duty Plant Hangers 】 The wall plant bracket made of solid iron and thick hooks , with the maximum weight capacity of 60 lbs , no more worry about any bending or breaking and give you the perfect security</t>
+        </is>
+      </c>
+      <c r="B3112" t="inlineStr">
+        <is>
+          <t>[('2', '12', 'PROPERTY'), ('60', '70', 'MAT'), ('75', '86', 'PROPERTY'), ('125', '131', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3112" t="inlineStr">
+        <is>
+          <t>['Heavy Duty', 'solid iron', 'thick hooks', '60 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3113">
+      <c r="A3113" t="inlineStr">
+        <is>
+          <t>【 Stable and sturdy 】 The Four - hole mounting structure provides extra support and strength , can be securely fastened to provide the safest protection for your plants and objects ; Curved hook is attractive and is out far enough from the wall that a plant can hang freely</t>
+        </is>
+      </c>
+      <c r="B3113" t="inlineStr">
+        <is>
+          <t>[('26', '37', 'PROPERTY'), ('2', '8', 'PROPERTY'), ('13', '19', 'PROPERTY'), ('183', '194', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3113" t="inlineStr">
+        <is>
+          <t>['Four - hole', 'Stable', 'sturdy', 'Curved hook']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3114">
+      <c r="A3114" t="inlineStr">
+        <is>
+          <t>【 Easy to install 】 Package include 4pcs wind chime hook ( mounting screw are included ) , adding elegance and beauty to your home or garden without losing practicality ; Just screw the screws into the location to be installed , such as wooden fences , trees , and even indoor and outdoor walls</t>
+        </is>
+      </c>
+      <c r="B3114" t="inlineStr">
+        <is>
+          <t>[('36', '56', 'PROPERTY'), ('59', '73', 'PROPERTY'), ('237', '243', 'NMAT'), ('270', '276', 'PROPERTY'), ('281', '288', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3114" t="inlineStr">
+        <is>
+          <t>['4pcs wind chime hook', 'mounting screw', 'wooden', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" t="inlineStr">
+        <is>
+          <t>Material : 304 Stainless Steel ; Chain Length : 800mm / 31 . 5 " ; Clip Size : 25x9mm / 0 . 98 " x0 . 35 " ; Clip Open Width : 5mm / 0 . 2 " ; S Hook Size : 25x16mm / 0 . 98 " x0 . 63 " ; S Hook Open Width : 8mm / 0 . 32 "</t>
+        </is>
+      </c>
+      <c r="B3115" t="inlineStr">
+        <is>
+          <t>[('11', '30', 'MAT'), ('48', '64', 'DIMENSION'), ('79', '106', 'DIMENSION'), ('157', '185', 'DIMENSION'), ('119', '140', 'DIMENSION'), ('143', '149', 'PROPERTY'), ('188', '194', 'PROPERTY'), ('200', '222', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3115" t="inlineStr">
+        <is>
+          <t>['304 Stainless Steel', '800mm / 31 . 5 "', '25x9mm / 0 . 98 " x0 . 35 "', '25x16mm / 0 . 98 " x0 . 63 "', 'Width : 5mm / 0 . 2 "', 'S Hook', 'S Hook', 'Width : 8mm / 0 . 32 "']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" t="inlineStr">
+        <is>
+          <t>Made of 304 stainless steel material , durable to use , and not easy to deform . Hooks and clips on both ends , this design is good for fastening .</t>
+        </is>
+      </c>
+      <c r="B3116" t="inlineStr">
+        <is>
+          <t>[('8', '27', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3116" t="inlineStr">
+        <is>
+          <t>['304 stainless steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" t="inlineStr">
+        <is>
+          <t>【 Enjoy Nature 】 It can be attached to any window . Bird details that can be seen up close inside . It is a great way to teach children about the sciences .</t>
+        </is>
+      </c>
+      <c r="B3117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" t="inlineStr">
+        <is>
+          <t>【 Easy to Use 】 the window with alcohol . Wipes with cloth or towel . Press the button on the suction cup . Hook the hook on it .</t>
+        </is>
+      </c>
+      <c r="B3118" t="inlineStr">
+        <is>
+          <t>[('32', '39', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3118" t="inlineStr">
+        <is>
+          <t>['alcohol']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" t="inlineStr">
+        <is>
+          <t>【 Premium ABS Material 】 Made of premium ABS material , which features friction proof , proof , rust proof and not easily deformed .</t>
+        </is>
+      </c>
+      <c r="B3119" t="inlineStr">
+        <is>
+          <t>[('10', '13', 'MAT'), ('41', '44', 'MAT'), ('71', '85', 'PROPERTY'), ('88', '93', 'PROPERTY'), ('96', '106', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3119" t="inlineStr">
+        <is>
+          <t>['ABS', 'ABS', 'friction proof', 'proof', 'rust proof']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" t="inlineStr">
+        <is>
+          <t>Heavy Duty Plant Hook are 100 % Steel Onstruction</t>
+        </is>
+      </c>
+      <c r="B3120" t="inlineStr">
+        <is>
+          <t>[('0', '10', 'PROPERTY'), ('26', '37', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3120" t="inlineStr">
+        <is>
+          <t>['Heavy Duty', '100 % Steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" t="inlineStr">
+        <is>
+          <t>Black Powder - Coated Finish Rust Proof and Durable</t>
+        </is>
+      </c>
+      <c r="B3121" t="inlineStr">
+        <is>
+          <t>[('0', '5', 'COLOR'), ('6', '12', 'MAT'), ('29', '39', 'PROPERTY'), ('44', '51', 'PROPERTY'), ('15', '21', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3121" t="inlineStr">
+        <is>
+          <t>['Black', 'Powder', 'Rust Proof', 'Durable', 'Coated']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" t="inlineStr">
+        <is>
+          <t>2 × Plant Hanger Hooks , Installation Hardware Included</t>
+        </is>
+      </c>
+      <c r="B3122" t="inlineStr">
+        <is>
+          <t>[('0', '22', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3122" t="inlineStr">
+        <is>
+          <t>['2 × Plant Hanger Hooks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" t="inlineStr">
+        <is>
+          <t>Extends Hanging Point by 12 Inches From Mounting Surface</t>
+        </is>
+      </c>
+      <c r="B3123" t="inlineStr">
+        <is>
+          <t>[('25', '34', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3123" t="inlineStr">
+        <is>
+          <t>['12 Inches']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" t="inlineStr">
+        <is>
+          <t>Plant Hooks Outdoor Great for hanging plants , bird feeders or wind chimes</t>
+        </is>
+      </c>
+      <c r="B3124" t="inlineStr">
+        <is>
+          <t>[('12', '19', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3124" t="inlineStr">
+        <is>
+          <t>['Outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" t="inlineStr">
+        <is>
+          <t>★ WEATHERPROOF MATERIAL : The Wall Hook made of durable zinc steel and coated vinyl which are perfect for outdoor indoor using . The Holder is smooth and strong , protecting your hand while installing and your hanging item .</t>
+        </is>
+      </c>
+      <c r="B3125" t="inlineStr">
+        <is>
+          <t>[('48', '55', 'PROPERTY'), ('56', '66', 'MAT'), ('71', '77', 'PROPERTY'), ('78', '83', 'MAT'), ('106', '113', 'PROPERTY'), ('114', '120', 'PROPERTY'), ('143', '149', 'PROPERTY'), ('154', '160', 'PROPERTY'), ('2', '14', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3125" t="inlineStr">
+        <is>
+          <t>['durable', 'zinc steel', 'coated', 'vinyl', 'outdoor', 'indoor', 'smooth', 'strong', 'WEATHERPROOF']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" t="inlineStr">
+        <is>
+          <t>★ EASY INSTALLATION : Screw - in design of the Plant Hanger and sharp point ensureseasily screw into wood , wall , ceiling . Reusable holder is better than adhesive type hook .</t>
+        </is>
+      </c>
+      <c r="B3126" t="inlineStr">
+        <is>
+          <t>[('22', '39', 'PROPERTY'), ('64', '75', 'PROPERTY'), ('101', '105', 'NMAT'), ('125', '133', 'PROPERTY'), ('156', '164', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3126" t="inlineStr">
+        <is>
+          <t>['Screw - in design', 'sharp point', 'wood', 'Reusable', 'adhesive']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" t="inlineStr">
+        <is>
+          <t>★ WIDE APPLICATION : Screw - in Hooks help to create extra room in your rooms . It can help you to organize cords and wire , hang mug , towel , plant , pot , light , lantern , lamp , curtain , festival decoration , making your home clean and tidy .</t>
+        </is>
+      </c>
+      <c r="B3127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" t="inlineStr">
+        <is>
+          <t>★ QUANTITY : 100pcs String Lights Holders are enough to meet your needs . Buy now , may still be able to use until Christmas . A great helper to safe your money .</t>
+        </is>
+      </c>
+      <c r="B3128" t="inlineStr">
+        <is>
+          <t>[('13', '19', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3128" t="inlineStr">
+        <is>
+          <t>['100pcs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" t="inlineStr">
+        <is>
+          <t>★ WARM NOTE : This Ceiling Hooks contains functional sharp points , please put it away from children and babies .</t>
+        </is>
+      </c>
+      <c r="B3129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" t="inlineStr">
+        <is>
+          <t>String Light Hooks</t>
+        </is>
+      </c>
+      <c r="B3130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" t="inlineStr">
+        <is>
+          <t>Hand forged hanging plants bracket hanger made of metal iron material , matte black finish</t>
+        </is>
+      </c>
+      <c r="B3131" t="inlineStr">
+        <is>
+          <t>[('0', '11', 'PROPERTY'), ('50', '60', 'MAT'), ('72', '83', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C3131" t="inlineStr">
+        <is>
+          <t>['Hand forged', 'metal iron', 'matte black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" t="inlineStr">
+        <is>
+          <t>Multi Purpose decorative made of heavy hand forged Iron adds a rustic touch to your patio , living room or even your kitchen</t>
+        </is>
+      </c>
+      <c r="B3132" t="inlineStr">
+        <is>
+          <t>[('39', '55', 'MAT'), ('63', '69', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3132" t="inlineStr">
+        <is>
+          <t>['hand forged Iron', 'rustic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3133">
+      <c r="A3133" t="inlineStr">
+        <is>
+          <t>Looks great as Hanging Bird Feeder Hanging Lantern Hanging Wind Chimes or Hanging Flower Pot</t>
+        </is>
+      </c>
+      <c r="B3133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3134">
+      <c r="A3134" t="inlineStr">
+        <is>
+          <t>Multi - Purpose : Beautify your home or garden by hanging bird feeders , lanterns , planters , flower pots , holiday decorations , string lights , wind chimes , ornaments , and more ! hooks canvas door fence hook wall lantern bird iron for ceramic art wind chimes flow bike extended bracket planters plant fruit planter deck hanging black post africancoat brass decorative garage chain extenders</t>
+        </is>
+      </c>
+      <c r="B3134" t="inlineStr">
+        <is>
+          <t>[('190', '196', 'MAT'), ('231', '235', 'MAT'), ('240', '247', 'NMAT'), ('274', '290', 'PROPERTY'), ('333', '338', 'COLOR'), ('344', '355', 'NMAT'), ('356', '361', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3134" t="inlineStr">
+        <is>
+          <t>['canvas', 'iron', 'ceramic', 'extended bracket', 'black', 'africancoat', 'brass']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3135">
+      <c r="A3135" t="inlineStr">
+        <is>
+          <t>Stylish : Hand forged wrought iron offers a charming , traditional look . A dark finish stunningly complements anything that hangs from it , adding elegance and beauty to your home or garden . Matching black screws maintain a consistent , sleek look for your garden . buddies outdoor floor metal branch ceiling with lights heavy duty outside flower pot cats cap accessories 4 bronze multi purpose captain cabinet atom set basket hanger hand forged bohemian 6 inch crown holiday chime of rust</t>
+        </is>
+      </c>
+      <c r="B3135" t="inlineStr">
+        <is>
+          <t>[('10', '21', 'PROPERTY'), ('22', '34', 'MAT'), ('76', '87', 'PROPERTY'), ('202', '207', 'COLOR'), ('276', '283', 'PROPERTY'), ('290', '295', 'MAT'), ('323', '333', 'PROPERTY'), ('383', '404', 'PROPERTY'), ('413', '421', 'PROPERTY'), ('436', '447', 'PROPERTY'), ('457', '469', 'DIMENSION'), ('376', '382', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3135" t="inlineStr">
+        <is>
+          <t>['Hand forged', 'wrought iron', 'dark finish', 'black', 'outdoor', 'metal', 'heavy duty', 'multi purpose captain', 'atom set', 'hand forged', '6 inch crown', 'bronze']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3136">
+      <c r="A3136" t="inlineStr">
+        <is>
+          <t>Premium Quality : Rust resistant , heavy duty steel construction . Bring your heaviest pots and baskets ! wood buddha fancy dark garment extender flying and dual feeder disney bathroom crab decor add crochet calendar curved accessory 2 assorted decks clock butterfly anchor indoor decorations plants celtic belt glass french fat</t>
+        </is>
+      </c>
+      <c r="B3136" t="inlineStr">
+        <is>
+          <t>[('18', '32', 'PROPERTY'), ('35', '45', 'PROPERTY'), ('46', '51', 'MAT'), ('106', '110', 'MAT'), ('124', '136', 'PROPERTY'), ('157', '168', 'PROPERTY'), ('200', '216', 'PROPERTY'), ('217', '233', 'PROPERTY'), ('234', '256', 'PROPERTY'), ('274', '280', 'PROPERTY'), ('312', '317', 'MAT'), ('318', '328', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3136" t="inlineStr">
+        <is>
+          <t>['Rust resistant', 'heavy duty', 'steel', 'wood', 'dark garment', 'dual feeder', 'crochet calendar', 'curved accessory', '2 assorted decks clock', 'indoor', 'glass', 'french fat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3137">
+      <c r="A3137" t="inlineStr">
+        <is>
+          <t>Versatile : Screw this hanger into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . Curved tip helps securely hold items while adding to the exquisite look</t>
+        </is>
+      </c>
+      <c r="B3137" t="inlineStr">
+        <is>
+          <t>[('35', '39', 'NMAT'), ('75', '81', 'PROPERTY'), ('147', '157', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3137" t="inlineStr">
+        <is>
+          <t>['wood', 'indoor', 'Curved tip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3138">
+      <c r="A3138" t="inlineStr">
+        <is>
+          <t>VERSATILITY - These ceiling hooks perfect for indoor and outdoor use . Such as hanging mugs , towels , plants , kitchen utensils , pots and pans , wind chimes , hummingbird feeders , lights . . . etc .</t>
+        </is>
+      </c>
+      <c r="B3138" t="inlineStr">
+        <is>
+          <t>[('46', '52', 'PROPERTY'), ('57', '64', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3138" t="inlineStr">
+        <is>
+          <t>['indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3139">
+      <c r="A3139" t="inlineStr">
+        <is>
+          <t>STURDY - Strong and heavy duty wall hooks . Easy to install . The threads are large enough to be fairly secure even in drywall .</t>
+        </is>
+      </c>
+      <c r="B3139" t="inlineStr">
+        <is>
+          <t>[('119', '126', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3139" t="inlineStr">
+        <is>
+          <t>['drywall']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3140">
+      <c r="A3140" t="inlineStr">
+        <is>
+          <t>VINYL COATED - Alamic cup hooks with soft , cleanable vinyl coating to protect the mug handles and other things .</t>
+        </is>
+      </c>
+      <c r="B3140" t="inlineStr">
+        <is>
+          <t>[('0', '5', 'MAT'), ('6', '12', 'PROPERTY'), ('15', '21', 'MAT'), ('37', '41', 'PROPERTY'), ('44', '53', 'PROPERTY'), ('54', '59', 'MAT'), ('60', '67', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3140" t="inlineStr">
+        <is>
+          <t>['VINYL', 'COATED', 'Alamic', 'soft', 'cleanable', 'vinyl', 'coating']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3141">
+      <c r="A3141" t="inlineStr">
+        <is>
+          <t>PERFECT SIZE - 2 inches hook length , 0 . 9 inches screw length .</t>
+        </is>
+      </c>
+      <c r="B3141" t="inlineStr">
+        <is>
+          <t>[('15', '23', 'DIMENSION'), ('38', '50', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3141" t="inlineStr">
+        <is>
+          <t>['2 inches', '0 . 9 inches']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3142">
+      <c r="A3142" t="inlineStr">
+        <is>
+          <t>WHAT YOU GOT - Package included 12 pieces of screw - in hooks .</t>
+        </is>
+      </c>
+      <c r="B3142" t="inlineStr">
+        <is>
+          <t>[('32', '61', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3142" t="inlineStr">
+        <is>
+          <t>['12 pieces of screw - in hooks']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3143">
+      <c r="A3143" t="inlineStr">
+        <is>
+          <t>Made of premium iron material for long - lasting time use .</t>
+        </is>
+      </c>
+      <c r="B3143" t="inlineStr">
+        <is>
+          <t>[('16', '20', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3143" t="inlineStr">
+        <is>
+          <t>['iron']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3144">
+      <c r="A3144" t="inlineStr">
+        <is>
+          <t>💗 STYLISH : Hand forged wrought iron offers a charming , traditional look . A dark finish stunningly complements anything that hangs from it , adding elegance and beauty to your home or garden . Matching black screws maintain a consistent , sleek look .</t>
+        </is>
+      </c>
+      <c r="B3144" t="inlineStr">
+        <is>
+          <t>[('2', '9', 'PROPERTY'), ('12', '23', 'PROPERTY'), ('24', '36', 'MAT'), ('78', '89', 'PROPERTY'), ('204', '209', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C3144" t="inlineStr">
+        <is>
+          <t>['STYLISH', 'Hand forged', 'wrought iron', 'dark finish', 'black']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3145">
+      <c r="A3145" t="inlineStr">
+        <is>
+          <t>💗 PREMIUM QUALITY : Rust resistant , heavy duty steel construction . Bring your heaviest pots and baskets !</t>
+        </is>
+      </c>
+      <c r="B3145" t="inlineStr">
+        <is>
+          <t>[('20', '34', 'PROPERTY'), ('37', '47', 'PROPERTY'), ('48', '53', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3145" t="inlineStr">
+        <is>
+          <t>['Rust resistant', 'heavy duty', 'steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3146">
+      <c r="A3146" t="inlineStr">
+        <is>
+          <t>💗 VERSATILE : Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . Curved tip helps securely hold items while adding to the exquisite look .</t>
+        </is>
+      </c>
+      <c r="B3146" t="inlineStr">
+        <is>
+          <t>[('65', '71', 'PROPERTY'), ('137', '147', 'PROPERTY'), ('25', '29', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3146" t="inlineStr">
+        <is>
+          <t>['indoor', 'Curved tip', 'wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3147">
+      <c r="A3147" t="inlineStr">
+        <is>
+          <t>💗 The flowerpot hook is made of durable and heavy - duty iron material . A long - term service assured .</t>
+        </is>
+      </c>
+      <c r="B3147" t="inlineStr">
+        <is>
+          <t>[('32', '39', 'PROPERTY'), ('44', '56', 'PROPERTY'), ('57', '61', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3147" t="inlineStr">
+        <is>
+          <t>['durable', 'heavy - duty', 'iron']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3148">
+      <c r="A3148" t="inlineStr">
+        <is>
+          <t>Hooks for String Lights : Very suitable for daily use , Practical safety buckle design , suitable for indoor and outdoor use , so that your articles can be easily suspended or moved under any weather conditions . Besides , it is very suitable for safe hanging and finishing items : Christmas decoration lights , outdoor wires , flowerpots , flowerpots , bird feeders , mugs , pictures , utensils , wreaths , tools , etc .</t>
+        </is>
+      </c>
+      <c r="B3148" t="inlineStr">
+        <is>
+          <t>[('73', '86', 'PROPERTY'), ('102', '108', 'PROPERTY'), ('113', '120', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3148" t="inlineStr">
+        <is>
+          <t>['buckle design', 'indoor', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" t="inlineStr">
+        <is>
+          <t>High Quality : Outdoor hooks for string lights It has many functions and uses , such as eye hooks screw , eye hooks , outdoor light hooks , rope light clips , outdoor towel hooks , hook and eye latch , gutter hooks for lights , screw in hooks , outdoor command hooks , patio light hooks . eye hooks screw , eye hooks , outdoor light hooks , rope light clips , outdoor towel hooks , hook and eye latch , gutter hooks for lights , screw in hooks , outdoor command hooks , patio light hooks .</t>
+        </is>
+      </c>
+      <c r="B3149" t="inlineStr">
+        <is>
+          <t>[('15', '22', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3149" t="inlineStr">
+        <is>
+          <t>['Outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3150">
+      <c r="A3150" t="inlineStr">
+        <is>
+          <t>Material &amp; Features of Ceiling Plant Hook : Carbon steel construction make it sturdy and durable , glossy without burr , the maximum load - bearing capacity is 40 lbs .</t>
+        </is>
+      </c>
+      <c r="B3150" t="inlineStr">
+        <is>
+          <t>[('44', '56', 'MAT'), ('78', '84', 'PROPERTY'), ('89', '96', 'PROPERTY'), ('99', '118', 'PROPERTY'), ('160', '166', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3150" t="inlineStr">
+        <is>
+          <t>['Carbon steel', 'sturdy', 'durable', 'glossy without burr', '40 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" t="inlineStr">
+        <is>
+          <t>Easy Installation : You can hit the wood directly with a hammer , or you can screw in the wood with a wrench . To install a hook on the wall , you need to make a hole in the wall , put a plastic tube , and then put the hook into the plastic tube . 1 / 8in drill bit is recommended . The overall hook is 2 . 2 ” , thread is 0 . 75 ” , loop is 3 / 4 ” , and the opening is 1 / 2 " .</t>
+        </is>
+      </c>
+      <c r="B3151" t="inlineStr">
+        <is>
+          <t>[('36', '40', 'NMAT'), ('90', '94', 'NMAT'), ('187', '194', 'MAT'), ('233', '240', 'MAT'), ('248', '255', 'DIMENSION'), ('256', '265', 'PROPERTY'), ('303', '310', 'DIMENSION'), ('323', '331', 'DIMENSION'), ('342', '349', 'DIMENSION'), ('371', '378', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3151" t="inlineStr">
+        <is>
+          <t>['wood', 'wood', 'plastic', 'plastic', '1 / 8in', 'drill bit', '2 . 2 ”', '0 . 75 ”', '3 / 4 ”', '1 / 2 "']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" t="inlineStr">
+        <is>
+          <t>What You Get : Pack of 30 Q - hangers with 30 plastic tubes and 1 pcs Wing Nut Drive , If you are dissatisfied for any reason , please contact us for help within 30 days , and we will ensure that you are satisfied with your customer experience .</t>
+        </is>
+      </c>
+      <c r="B3152" t="inlineStr">
+        <is>
+          <t>[('23', '37', 'PROPERTY'), ('46', '53', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3152" t="inlineStr">
+        <is>
+          <t>['30 Q - hangers', 'plastic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" t="inlineStr">
+        <is>
+          <t>HIGH QUALITY : Pack of 2 pcs , screws includeded , single piece is 10inch in length , black , waterproof and rustproof , made of thick metal , sturdy construction , not easy to deform .</t>
+        </is>
+      </c>
+      <c r="B3153" t="inlineStr">
+        <is>
+          <t>[('51', '63', 'PROPERTY'), ('67', '83', 'DIMENSION'), ('86', '91', 'COLOR'), ('94', '104', 'PROPERTY'), ('109', '118', 'PROPERTY'), ('135', '140', 'MAT'), ('143', '149', 'PROPERTY'), ('15', '28', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3153" t="inlineStr">
+        <is>
+          <t>['single piece', '10inch in length', 'black', 'waterproof', 'rustproof', 'metal', 'sturdy', 'Pack of 2 pcs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154" t="inlineStr">
+        <is>
+          <t>EASILY INSTALL : Just drill two holes in the wall and fix them with screws , widely be installed on walls , trees , wooden fences , entryways , porchs , patios , gardens , indoors or outdoors .</t>
+        </is>
+      </c>
+      <c r="B3154" t="inlineStr">
+        <is>
+          <t>[('172', '179', 'PROPERTY'), ('183', '191', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3154" t="inlineStr">
+        <is>
+          <t>['indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155" t="inlineStr">
+        <is>
+          <t>UNIQUE DESIGN : Elegant bird design , it makes the hook itself enjoyable to watch , the top with auxiliary support wire , to ensure that the load , suitable for various occasions , it ' s a functional ornament indeed .</t>
+        </is>
+      </c>
+      <c r="B3155" t="inlineStr">
+        <is>
+          <t>[('24', '35', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3155" t="inlineStr">
+        <is>
+          <t>['bird design']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" t="inlineStr">
+        <is>
+          <t>MULTI - PURPOSE : Beautify your outdoor living space by hanging planters , flower pots , lanterns , garden lights , mason jars , wreaths and holiday decorations , string lights , wind chimes , ornaments , flower balls , ceramic birdbaths and more ! A decorative freestanding mount to hang lamps , coconut coco - fiber moss baskets , humming birdfeeders and other accessories !</t>
+        </is>
+      </c>
+      <c r="B3156" t="inlineStr">
+        <is>
+          <t>[('32', '39', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3156" t="inlineStr">
+        <is>
+          <t>['outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" t="inlineStr">
+        <is>
+          <t>PREMIUM QUALITY : Heavy duty steel constructed garden stakes . With a 2 / 5 inch diameter pole that is thicker than similar hooks from other brands , you can be confident you ' re getting the strongest shepherd ' s crook on the market ! Double forked and extra - long base prongs at the foot of the rod maintain a fixed , upright posture while remaining firmly planted in the ground . Bring your heaviest pots and baskets ! Stands 48 inches tall , 42 inches long above the floor .</t>
+        </is>
+      </c>
+      <c r="B3157" t="inlineStr">
+        <is>
+          <t>[('18', '28', 'PROPERTY'), ('29', '34', 'MAT'), ('70', '89', 'DIMENSION'), ('237', '250', 'PROPERTY'), ('255', '279', 'PROPERTY'), ('431', '445', 'DIMENSION'), ('448', '462', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3157" t="inlineStr">
+        <is>
+          <t>['Heavy duty', 'steel', '2 / 5 inch diameter', 'Double forked', 'extra - long base prongs', '48 inches tall', '42 inches long']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" t="inlineStr">
+        <is>
+          <t>STYLISH : Traditional look and white finish adds elegance and beauty to your garden . Stunningly complements anything that hangs from it .</t>
+        </is>
+      </c>
+      <c r="B3158" t="inlineStr">
+        <is>
+          <t>[('31', '36', 'COLOR')]</t>
+        </is>
+      </c>
+      <c r="C3158" t="inlineStr">
+        <is>
+          <t>['white']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" t="inlineStr">
+        <is>
+          <t>This plant hanger is in a iron vintage style , which is very beautiful for you to hang the lanterns , artificial plant basket etc .</t>
+        </is>
+      </c>
+      <c r="B3159" t="inlineStr">
+        <is>
+          <t>[('26', '30', 'MAT'), ('31', '44', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3159" t="inlineStr">
+        <is>
+          <t>['iron', 'vintage style']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" t="inlineStr">
+        <is>
+          <t>The plant hook is made of hand - forged heavy cast iron material and it will not rust or melt by heat easily , which is durable .</t>
+        </is>
+      </c>
+      <c r="B3160" t="inlineStr">
+        <is>
+          <t>[('26', '39', 'PROPERTY'), ('46', '55', 'MAT'), ('120', '127', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3160" t="inlineStr">
+        <is>
+          <t>['hand - forged', 'cast iron', 'durable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" t="inlineStr">
+        <is>
+          <t>The plant hanger is compact in size and the outer face of it is smooth , you can hang it on walls or doors to hang your lanterns or wind chimes .</t>
+        </is>
+      </c>
+      <c r="B3161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" t="inlineStr">
+        <is>
+          <t>✔ ️ HANGTEC PLANT HANGERS : The original range of British designed weather resistant stainless steel heavy duty 25kg ( 55lbs ) designer brackets , don ' t be fooled by cheap copies . Thousands of customers around the world have trusted the Braax brand manufacturing , quality and strength for over 10 years .</t>
+        </is>
+      </c>
+      <c r="B3162" t="inlineStr">
+        <is>
+          <t>[('4', '11', 'PROPERTY'), ('67', '84', 'PROPERTY'), ('85', '100', 'MAT'), ('101', '111', 'PROPERTY'), ('112', '126', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3162" t="inlineStr">
+        <is>
+          <t>['HANGTEC', 'weather resistant', 'stainless steel', 'heavy duty', '25kg ( 55lbs )']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" t="inlineStr">
+        <is>
+          <t>✔ ️ UNIQUE FOUR POINT MOUNTING : Superior wall fixing for heavier baskets in demanding strong wind weather conditions . Better than weaker standard 2 point curly brackets . Easy to install onto a Wall , Fence Post , Cabin , Shed , Gazebo , Pergola ' s and into many materials softwood , hardwood , brick , concrete , stone , metal .</t>
+        </is>
+      </c>
+      <c r="B3163" t="inlineStr">
+        <is>
+          <t>[('11', '30', 'PROPERTY'), ('148', '170', 'PROPERTY'), ('276', '284', 'NMAT'), ('287', '295', 'NMAT'), ('298', '303', 'NMAT'), ('306', '314', 'NMAT'), ('317', '322', 'NMAT'), ('325', '330', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3163" t="inlineStr">
+        <is>
+          <t>['FOUR POINT MOUNTING', '2 point curly brackets', 'softwood', 'hardwood', 'brick', 'concrete', 'stone', 'metal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" t="inlineStr">
+        <is>
+          <t>✔ ️ SPACIOUS DESIGN : 40cm ( 15 . 8 inch ) arm length allows plenty of room to help prevent wall damage resulting in healthier plants looking fantastic all season long .</t>
+        </is>
+      </c>
+      <c r="B3164" t="inlineStr">
+        <is>
+          <t>[('22', '26', 'DIMENSION'), ('29', '40', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3164" t="inlineStr">
+        <is>
+          <t>['40cm', '15 . 8 inch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="A3165" t="inlineStr">
+        <is>
+          <t>✔ ️ VERSATILE : For outdoor or indoor use in many applications Hanging Baskets , Macram é Plant Hangers , Solar Lights , Bird Feeders , Wind Chimes Topiary Balls , Lanterns , Hurricane Lamps , Giant Clocks , Thermometers and MORE !</t>
+        </is>
+      </c>
+      <c r="B3165" t="inlineStr">
+        <is>
+          <t>[('20', '27', 'PROPERTY'), ('31', '37', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3165" t="inlineStr">
+        <is>
+          <t>['outdoor', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="A3166" t="inlineStr">
+        <is>
+          <t>Stylish Design :  Hand  forged  wrought  steel  offers  a  charming ,  traditional  look .  A  dark  finish  stunningly  complements  anything  that  hangs  from  it ,  adding  elegance  and  beauty  to  your  home  or  garden .</t>
+        </is>
+      </c>
+      <c r="B3166" t="inlineStr">
+        <is>
+          <t>[('95', '107', 'PROPERTY'), ('18', '46', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3166" t="inlineStr">
+        <is>
+          <t>['dark  finish', 'Hand  forged  wrought  steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" t="inlineStr">
+        <is>
+          <t>Quality Plant Hangers : This plant wall hanger has been made of high tensile steel , stable and durable , the elegant black epoxy coated and anti - rust , the maximum load is 11 lbs , Screw into wood</t>
+        </is>
+      </c>
+      <c r="B3167" t="inlineStr">
+        <is>
+          <t>[('85', '91', 'PROPERTY'), ('96', '103', 'PROPERTY'), ('118', '123', 'COLOR'), ('124', '129', 'MAT'), ('130', '136', 'PROPERTY'), ('141', '152', 'PROPERTY'), ('175', '181', 'WEIGHT'), ('195', '199', 'NMAT'), ('35', '46', 'PROPERTY'), ('64', '82', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3167" t="inlineStr">
+        <is>
+          <t>['stable', 'durable', 'black', 'epoxy', 'coated', 'anti - rust', '11 lbs', 'wood', 'wall hanger', 'high tensile steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="A3168" t="inlineStr">
+        <is>
+          <t>Easy to installe : There are 2 nail holes at both ends of the bracket and easy to install . Equipped with screws and plastic plugs for mounting and fixing .</t>
+        </is>
+      </c>
+      <c r="B3168" t="inlineStr">
+        <is>
+          <t>[('29', '41', 'PROPERTY'), ('117', '124', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3168" t="inlineStr">
+        <is>
+          <t>['2 nail holes', 'plastic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="A3169" t="inlineStr">
+        <is>
+          <t>Packing : 2 Pack Hanging Brackets for Plants 12 Inch hinging baskets and below , bird feeder hook , wind chimes hook</t>
+        </is>
+      </c>
+      <c r="B3169" t="inlineStr">
+        <is>
+          <t>[('10', '16', 'PROPERTY'), ('45', '52', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3169" t="inlineStr">
+        <is>
+          <t>['2 Pack', '12 Inch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3170">
+      <c r="A3170" t="inlineStr">
+        <is>
+          <t>OUTDOOR DECORATION HOOKS - - These hooks have a large load - bearing capacity for fixing fans , hammocks , etc .</t>
+        </is>
+      </c>
+      <c r="B3170" t="inlineStr">
+        <is>
+          <t>[('48', '77', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3170" t="inlineStr">
+        <is>
+          <t>['large load - bearing capacity']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" t="inlineStr">
+        <is>
+          <t>ANCHOR HOOKS - - These hooks can be installed on the wall or ceiling , angle adjustable .</t>
+        </is>
+      </c>
+      <c r="B3171" t="inlineStr">
+        <is>
+          <t>[('77', '87', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3171" t="inlineStr">
+        <is>
+          <t>['adjustable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" t="inlineStr">
+        <is>
+          <t>UTENSILS HOOKS - - Perfect for organizing your heavy tools in garage , garden , shop , basement or . Stainless Steel Hooks</t>
+        </is>
+      </c>
+      <c r="B3172" t="inlineStr">
+        <is>
+          <t>[('101', '116', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3172" t="inlineStr">
+        <is>
+          <t>['Stainless Steel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" t="inlineStr">
+        <is>
+          <t>Package includes 4 piece fence hooks , enough to use for different needs . Our vinyl fence brackets measures 15 inches in length and 2 inches in width .</t>
+        </is>
+      </c>
+      <c r="B3173" t="inlineStr">
+        <is>
+          <t>[('17', '36', 'PROPERTY'), ('79', '84', 'MAT'), ('109', '128', 'DIMENSION'), ('133', '150', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3173" t="inlineStr">
+        <is>
+          <t>['4 piece fence hooks', 'vinyl', '15 inches in length', '2 inches in width']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" t="inlineStr">
+        <is>
+          <t>Innovative fence hooks : Our patio hooks are made of high quality metal , unlike other fence hooks , our flat design is more conducive to stability and will not deform where it comes in contact with the fence due to hanging heavy objects . The flat structure can also be used as a door hook , you can use it to hang clothes , scarves , towels , etc .</t>
+        </is>
+      </c>
+      <c r="B3174" t="inlineStr">
+        <is>
+          <t>[('66', '71', 'MAT'), ('105', '116', 'PROPERTY'), ('244', '258', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3174" t="inlineStr">
+        <is>
+          <t>['metal', 'flat design', 'flat structure']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" t="inlineStr">
+        <is>
+          <t>No need for nails : this fence hook , in addition to better stability , does not require drilling , easy to install and will not harm your fence and gate making your garden neat and tidy</t>
+        </is>
+      </c>
+      <c r="B3175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" t="inlineStr">
+        <is>
+          <t>Sturdy steel fence hangers covered in rust - resistant coating last longer than expected , these patio light hooks can handle almost anything you can lift and hang , including heavy decorative items .</t>
+        </is>
+      </c>
+      <c r="B3176" t="inlineStr">
+        <is>
+          <t>[('0', '6', 'PROPERTY'), ('7', '12', 'MAT'), ('38', '62', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3176" t="inlineStr">
+        <is>
+          <t>['Sturdy', 'steel', 'rust - resistant coating']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" t="inlineStr">
+        <is>
+          <t>✨ Material : heavy duty solid cast iron ; vintage style design , anti - rust , very sturdy and durable , for long years</t>
+        </is>
+      </c>
+      <c r="B3177" t="inlineStr">
+        <is>
+          <t>[('13', '23', 'PROPERTY'), ('24', '39', 'MAT'), ('42', '62', 'PROPERTY'), ('65', '76', 'PROPERTY'), ('84', '90', 'PROPERTY'), ('95', '102', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3177" t="inlineStr">
+        <is>
+          <t>['heavy duty', 'solid cast iron', 'vintage style design', 'anti - rust', 'sturdy', 'durable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" t="inlineStr">
+        <is>
+          <t>✨ Design : Curved vines paired with pretty painted roses to complement your garden</t>
+        </is>
+      </c>
+      <c r="B3178" t="inlineStr">
+        <is>
+          <t>[('11', '23', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3178" t="inlineStr">
+        <is>
+          <t>['Curved vines']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" t="inlineStr">
+        <is>
+          <t>✨ Easy to install . hanging plant bracket Comes with all necessary screws , can be installed on the wall , concrete posts , wood , fences . It ' s very sturdy and you don ' t have to worry about its quality</t>
+        </is>
+      </c>
+      <c r="B3179" t="inlineStr">
+        <is>
+          <t>[('107', '115', 'NMAT'), ('124', '128', 'NMAT'), ('152', '158', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3179" t="inlineStr">
+        <is>
+          <t>['concrete', 'wood', 'sturdy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" t="inlineStr">
+        <is>
+          <t>✨ Size : 2pack , Each one 11 . 4 " L , 7 . 9 " W , 1 . 9lb</t>
+        </is>
+      </c>
+      <c r="B3180" t="inlineStr">
+        <is>
+          <t>[('9', '14', 'PROPERTY'), ('26', '48', 'DIMENSION'), ('51', '58', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3180" t="inlineStr">
+        <is>
+          <t>['2pack', '11 . 4 " L , 7 . 9 " W', '1 . 9lb']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" t="inlineStr">
+        <is>
+          <t>Our aged metal collection showcases a fabulous range of distressed metal chandeliers , lanterns , hooks and other unique items</t>
+        </is>
+      </c>
+      <c r="B3181" t="inlineStr">
+        <is>
+          <t>[('9', '14', 'MAT'), ('67', '72', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3181" t="inlineStr">
+        <is>
+          <t>['metal', 'metal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" t="inlineStr">
+        <is>
+          <t>This aged metal hanging candle adds a romantic and cozy atmosphere to any patio or garden setting</t>
+        </is>
+      </c>
+      <c r="B3182" t="inlineStr">
+        <is>
+          <t>[('10', '15', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3182" t="inlineStr">
+        <is>
+          <t>['metal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" t="inlineStr">
+        <is>
+          <t>The lantern has an elegant design on the base and a Round hook on the top for easy hanging</t>
+        </is>
+      </c>
+      <c r="B3183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" t="inlineStr">
+        <is>
+          <t>Made of 304 stainless steel , glossy surface , anti - rust , anti - corrosion , strong load - bearing capacity .</t>
+        </is>
+      </c>
+      <c r="B3184" t="inlineStr">
+        <is>
+          <t>[('8', '27', 'MAT'), ('30', '44', 'PROPERTY'), ('47', '58', 'PROPERTY'), ('61', '77', 'PROPERTY'), ('87', '101', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3184" t="inlineStr">
+        <is>
+          <t>['304 stainless steel', 'glossy surface', 'anti - rust', 'anti - corrosion', 'load - bearing']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" t="inlineStr">
+        <is>
+          <t>Double - swivel construction keeps hanging baskets from tangling in the wind .</t>
+        </is>
+      </c>
+      <c r="B3185" t="inlineStr">
+        <is>
+          <t>[('0', '15', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3185" t="inlineStr">
+        <is>
+          <t>['Double - swivel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" t="inlineStr">
+        <is>
+          <t>Notice : suggested NOT to load over 50 kg / 110 lbs of weight when used alone for ropes , hanging sandbags , hammocks .</t>
+        </is>
+      </c>
+      <c r="B3186" t="inlineStr">
+        <is>
+          <t>[('36', '51', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3186" t="inlineStr">
+        <is>
+          <t>['50 kg / 110 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" t="inlineStr">
+        <is>
+          <t>Each package including 2 pcs tiny heavy - duty double - ended swivel hook .</t>
+        </is>
+      </c>
+      <c r="B3187" t="inlineStr">
+        <is>
+          <t>[('23', '28', 'PROPERTY'), ('34', '46', 'PROPERTY'), ('29', '33', 'SIZE'), ('47', '61', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3187" t="inlineStr">
+        <is>
+          <t>['2 pcs', 'heavy - duty', 'tiny', 'double - ended']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" t="inlineStr">
+        <is>
+          <t>Material : 304 stainless steel , heavy - duty</t>
+        </is>
+      </c>
+      <c r="B3188" t="inlineStr">
+        <is>
+          <t>[('11', '30', 'MAT'), ('33', '45', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3188" t="inlineStr">
+        <is>
+          <t>['304 stainless steel', 'heavy - duty']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" t="inlineStr">
+        <is>
+          <t>Size : 4 . 7cm ( L ) x1 . 27cm / 1 . 85inch * 0 . 5inch</t>
+        </is>
+      </c>
+      <c r="B3189" t="inlineStr">
+        <is>
+          <t>[('7', '55', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3189" t="inlineStr">
+        <is>
+          <t>['4 . 7cm ( L ) x1 . 27cm / 1 . 85inch * 0 . 5inch']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" t="inlineStr">
+        <is>
+          <t>Package : Include 4PCS hanging basket spinners</t>
+        </is>
+      </c>
+      <c r="B3190" t="inlineStr">
+        <is>
+          <t>[('18', '22', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3190" t="inlineStr">
+        <is>
+          <t>['4PCS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" t="inlineStr">
+        <is>
+          <t>Note : Suggested NOT to load over 10 kg of weight .</t>
+        </is>
+      </c>
+      <c r="B3191" t="inlineStr">
+        <is>
+          <t>[('34', '39', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3191" t="inlineStr">
+        <is>
+          <t>['10 kg']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" t="inlineStr">
+        <is>
+          <t>【 Multi purpose 】 : The Plant Hangers Outdoor is suitable for hanging bird feeder , lantern , flower pot , flower basket , flower pot , string lamp , wind chime , ornament , etc . Add elegance and beauty to your home or garden .</t>
+        </is>
+      </c>
+      <c r="B3192" t="inlineStr">
+        <is>
+          <t>[('38', '45', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3192" t="inlineStr">
+        <is>
+          <t>['Outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" t="inlineStr">
+        <is>
+          <t>【 Unique design 】 : It is well known that triangles are stable . With a unique triangular design , this product is more stable and not deformable , further its maximum load is 30 lbs , for which it ' s suitable for most garden potted plants . The hook part adopts a non - slip design to prevent potted plants from falling down .</t>
+        </is>
+      </c>
+      <c r="B3193" t="inlineStr">
+        <is>
+          <t>[('79', '89', 'SHAPE'), ('176', '182', 'WEIGHT'), ('266', '283', 'PROPERTY'), ('120', '126', 'PROPERTY'), ('131', '145', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3193" t="inlineStr">
+        <is>
+          <t>['triangular', '30 lbs', 'non - slip design', 'stable', 'not deformable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" t="inlineStr">
+        <is>
+          <t>【 Easy to Install 】 : The plant hanger can be installed in a few minutes according to the instructions , and the screws can be drilled into wooden fence posts , deck posts and even indoor walls . It looks good , both inside and outside and in the garden . Two screws and two expansion pipes are included in the package .</t>
+        </is>
+      </c>
+      <c r="B3194" t="inlineStr">
+        <is>
+          <t>[('140', '146', 'NMAT'), ('181', '187', 'PROPERTY'), ('256', '266', 'PROPERTY'), ('271', '290', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3194" t="inlineStr">
+        <is>
+          <t>['wooden', 'indoor', 'Two screws', 'two expansion pipes']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" t="inlineStr">
+        <is>
+          <t>【 High Quality and Firmness 】 : The heavy iron structure is stable , firm and antirust . Two expansion pipes are matched with screws , which are more tight . The plant hooks will be perfectly matched in outdoor and indoor environment , adding charm to your home or garden .</t>
+        </is>
+      </c>
+      <c r="B3195" t="inlineStr">
+        <is>
+          <t>[('42', '46', 'MAT'), ('60', '66', 'PROPERTY'), ('69', '73', 'PROPERTY'), ('78', '86', 'PROPERTY'), ('89', '108', 'PROPERTY'), ('203', '210', 'PROPERTY'), ('215', '221', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3195" t="inlineStr">
+        <is>
+          <t>['iron', 'stable', 'firm', 'antirust', 'Two expansion pipes', 'outdoor', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" t="inlineStr">
+        <is>
+          <t>【 Satisfaction Guarante 】 : Approximate dimensions of plant hanger hook : 15 . 5 inches ( length ) , 5 . 2 inches ( height ) and 0 . 5 inches ( width ) . If you have any questions about this product , please contact us before leaving a review .</t>
+        </is>
+      </c>
+      <c r="B3196" t="inlineStr">
+        <is>
+          <t>[('74', '98', 'DIMENSION'), ('101', '124', 'DIMENSION'), ('129', '151', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3196" t="inlineStr">
+        <is>
+          <t>['15 . 5 inches ( length )', '5 . 2 inches ( height )', '0 . 5 inches ( width )']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" t="inlineStr">
+        <is>
+          <t>Created from durable 1 / 8 " thick steel ( 60 % of which is recycled ) ; recommended weight limit is 10 lbs .</t>
+        </is>
+      </c>
+      <c r="B3197" t="inlineStr">
+        <is>
+          <t>[('13', '20', 'PROPERTY'), ('21', '34', 'DIMENSION'), ('35', '40', 'MAT'), ('101', '107', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3197" t="inlineStr">
+        <is>
+          <t>['durable', '1 / 8 " thick', 'steel', '10 lbs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" t="inlineStr">
+        <is>
+          <t>Stretches 11 . 5 " from the wall and is powder - coated to endure the outdoor elements</t>
+        </is>
+      </c>
+      <c r="B3198" t="inlineStr">
+        <is>
+          <t>[('10', '18', 'DIMENSION'), ('40', '46', 'MAT'), ('49', '55', 'PROPERTY'), ('70', '77', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3198" t="inlineStr">
+        <is>
+          <t>['11 . 5 "', 'powder', 'coated', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" t="inlineStr">
+        <is>
+          <t>Made in the USA</t>
+        </is>
+      </c>
+      <c r="B3199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" t="inlineStr">
+        <is>
+          <t>Let Me Carry 176oz . Off Of Your Heavy Load - - - These heavy - duty adhesive hooks from Floro can carry up to 176oz . of garden pots , plants , and tools ! Hang them onto these durable hangers and never worry about them falling to the floor . It has a 90 ° rotatable stainless - steel hook that adjusts to the position of the mounted trowel or the bulky weights of the macrame pots you put into it ! It is a dependable wall holder to bear strong tension without installing this product with nails nor screws .</t>
+        </is>
+      </c>
+      <c r="B3200" t="inlineStr">
+        <is>
+          <t>[('13', '18', 'WEIGHT'), ('56', '68', 'PROPERTY'), ('69', '77', 'PROPERTY'), ('111', '116', 'WEIGHT'), ('178', '185', 'PROPERTY'), ('253', '267', 'PROPERTY'), ('268', '285', 'MAT'), ('296', '303', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3200" t="inlineStr">
+        <is>
+          <t>['176oz', 'heavy - duty', 'adhesive', '176oz', 'durable', '90 ° rotatable', 'stainless - steel', 'adjusts']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" t="inlineStr">
+        <is>
+          <t>You Don ' t Have To Hammer It Down To Your Walls - - - Drilling holes into your wall to mount hooks ? Spare the gardener with the nitty - gritty handyman job ! Our reusable hook will handle that for you without getting your walls damaged . It has an impressive , stronghold adhesive that ensures superior attachment between your wall surface and adhesive strip . Forget about picking your power drill or hammer up and start using these terrific , easy - to - install holders .</t>
+        </is>
+      </c>
+      <c r="B3201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" t="inlineStr">
+        <is>
+          <t>No Water Can Pass Through It - - - Water your plants hanging from these adhesive hooks without fretting that they might fall down at the slightest touch of wetness . Floro ’ s reusable hooks are impervious to water or moisture , making its suction clamp to stay dry and hold firmly onto your wall surface . Being impenetrable to any form of liquid gives a long - lasting powerful grip that can carry objects reliably . Splash water on these hooks but they will stay where they ’ re supposed to .</t>
+        </is>
+      </c>
+      <c r="B3202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" t="inlineStr">
+        <is>
+          <t>I ' ll Leave Your Space Without A Trace - - - Installing adhesive hooks can be easily done , but some of them leave marks when taken off . Don ' t worry because you can mount it on any flat smooth surface , then transfer its position without anyone noticing it had been somewhere else before . Just let the hot air from your hair dryer blow on it , and slowly take out the adhesive hook from its sides . You can change the positions of your hung plants or garden shears without leaving sticky marks behind !</t>
+        </is>
+      </c>
+      <c r="B3203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C3203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" t="inlineStr">
+        <is>
+          <t>Camouflaging Over Color - Painted Walls - - - Are you looking for stick - on hooks that don ' t upset the aesthetic paint of your wall ? Our clear wall hooks work like camouflage ! Presented with a clear plastic adhesive body , the paint on your wall is visible even by having these holders mounted on it . Floro ’ s reliable hooks provide a discreet presentation into your structural design . Using these adhesive hooks can look perfectly great without messing up your bath or kitchen ’ s interior design .</t>
+        </is>
+      </c>
+      <c r="B3204" t="inlineStr">
+        <is>
+          <t>[('66', '82', 'PROPERTY'), ('204', '211', 'MAT'), ('212', '220', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3204" t="inlineStr">
+        <is>
+          <t>['stick - on hooks', 'plastic', 'adhesive']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" t="inlineStr">
+        <is>
+          <t>Efficient Design - 3 Screws Are Tightly Fixed On The Surface . Compared With A Single Screw Hook , The Hook Is More Stable And Durable , And Can Hold Heavy Objects .</t>
+        </is>
+      </c>
+      <c r="B3205" t="inlineStr">
+        <is>
+          <t>[('19', '27', 'PROPERTY'), ('116', '122', 'PROPERTY'), ('127', '134', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3205" t="inlineStr">
+        <is>
+          <t>['3 Screws', 'Stable', 'Durable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" t="inlineStr">
+        <is>
+          <t>Heavy - Duty Hook - The Hook Can Bear Up To 50 Pounds Of Weight , Suitable For Indoor And Outdoor Use , To Meet Your Different Needs .</t>
+        </is>
+      </c>
+      <c r="B3206" t="inlineStr">
+        <is>
+          <t>[('44', '53', 'WEIGHT'), ('79', '85', 'PROPERTY'), ('90', '97', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3206" t="inlineStr">
+        <is>
+          <t>['50 Pounds', 'Indoor', 'Outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" t="inlineStr">
+        <is>
+          <t>High - Quality Materials - Made Of Heavy Ironic Materials And Coated With High - Quality Painting Materials . Rugged And Rust - Proof , Even When Used Outdoors .</t>
+        </is>
+      </c>
+      <c r="B3207" t="inlineStr">
+        <is>
+          <t>[('121', '133', 'PROPERTY'), ('110', '116', 'PROPERTY'), ('151', '159', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3207" t="inlineStr">
+        <is>
+          <t>['Rust - Proof', 'Rugged', 'Outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" t="inlineStr">
+        <is>
+          <t>The Package Includes - 2 Metal Hooks , 6 Steel Screws , 6 Expansion Tubes .</t>
+        </is>
+      </c>
+      <c r="B3208" t="inlineStr">
+        <is>
+          <t>[('25', '30', 'MAT'), ('41', '46', 'MAT'), ('56', '73', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3208" t="inlineStr">
+        <is>
+          <t>['Metal', 'Steel', '6 Expansion Tubes']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" t="inlineStr">
+        <is>
+          <t>The vintage wrought iron wall hanging flower stand is very great for hanging various flowers , plants , wind chimes , lanterns , bird manger and other decorations to create a landscaping space and charming atmosphere .</t>
+        </is>
+      </c>
+      <c r="B3209" t="inlineStr">
+        <is>
+          <t>[('12', '24', 'MAT'), ('25', '37', 'PROPERTY'), ('4', '11', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3209" t="inlineStr">
+        <is>
+          <t>['wrought iron', 'wall hanging', 'vintage']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" t="inlineStr">
+        <is>
+          <t>The flower stand made of durable and heavy duty metal iron material , and the surface processed by retro - style distressed treatment . Exquisite and cute bird shape design to add extra chic and elegance .</t>
+        </is>
+      </c>
+      <c r="B3210" t="inlineStr">
+        <is>
+          <t>[('25', '32', 'PROPERTY'), ('37', '47', 'PROPERTY'), ('48', '53', 'MAT'), ('155', '165', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C3210" t="inlineStr">
+        <is>
+          <t>['durable', 'heavy duty', 'metal', 'bird shape']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" t="inlineStr">
+        <is>
+          <t>Simple shape and high - strength welding process to make the load - bearing up to 3KG , which is very perfect for outdoor installation , such as balcony , garden fence , etc .</t>
+        </is>
+      </c>
+      <c r="B3211" t="inlineStr">
+        <is>
+          <t>[('82', '85', 'WEIGHT'), ('114', '121', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3211" t="inlineStr">
+        <is>
+          <t>['3KG', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" t="inlineStr">
+        <is>
+          <t>The nail holes at both ends of the bracket are easy to install . Equipped with screws and rubber plugs for mounting and fixing , very stable and firm .</t>
+        </is>
+      </c>
+      <c r="B3212" t="inlineStr">
+        <is>
+          <t>[('90', '96', 'MAT'), ('134', '140', 'PROPERTY'), ('145', '149', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3212" t="inlineStr">
+        <is>
+          <t>['rubber', 'stable', 'firm']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="A3213" t="inlineStr">
+        <is>
+          <t>Come with 2pcs in one package . The bracket is compact in size . Product Dimension : 30 * 26 * 2cm / 11 . 8 * 10 . 23 * 0 . 78 inch ; Package Dimension : 32 * 37 * 2cm / 12 . 6 * 14 . 5 * 0 . 78 inch ; Weight : 22 . 28oz .</t>
+        </is>
+      </c>
+      <c r="B3213" t="inlineStr">
+        <is>
+          <t>[('10', '14', 'PROPERTY'), ('85', '131', 'DIMENSION'), ('211', '220', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3213" t="inlineStr">
+        <is>
+          <t>['2pcs', '30 * 26 * 2cm / 11 . 8 * 10 . 23 * 0 . 78 inch', '22 . 28oz']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="A3214" t="inlineStr">
+        <is>
+          <t>【 High Quality and Anti - rust 】 : The Christmas lights hanger hooks are 2 . 2 x 1 inch , made of high quality steel with rust proof coating , sun - proof and waterproof , which can hold up to 40 lbs , suitable for indoors and outdoors use .</t>
+        </is>
+      </c>
+      <c r="B3214" t="inlineStr">
+        <is>
+          <t>[('19', '30', 'PROPERTY'), ('73', '87', 'DIMENSION'), ('111', '116', 'MAT'), ('122', '140', 'PROPERTY'), ('143', '154', 'PROPERTY'), ('159', '169', 'PROPERTY'), ('193', '199', 'WEIGHT'), ('215', '222', 'PROPERTY'), ('227', '235', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3214" t="inlineStr">
+        <is>
+          <t>['Anti - rust', '2 . 2 x 1 inch', 'steel', 'rust proof coating', 'sun - proof', 'waterproof', '40 lbs', 'indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="A3215" t="inlineStr">
+        <is>
+          <t>【 Safety Buckle Design 】 : Safety buckle design will prevent hanging objects from falling , even in high wind . Compared with ordinary ceiling hooks , the q hanger hooks are weatherproof and wind - resistant , perfect for hanging outdoor patio string lights . No worry about items being knocked off , more secure .</t>
+        </is>
+      </c>
+      <c r="B3215" t="inlineStr">
+        <is>
+          <t>[('9', '22', 'PROPERTY'), ('34', '47', 'PROPERTY'), ('155', '163', 'PROPERTY'), ('174', '186', 'PROPERTY'), ('191', '207', 'PROPERTY'), ('230', '237', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3215" t="inlineStr">
+        <is>
+          <t>['Buckle Design', 'buckle design', 'q hanger', 'weatherproof', 'wind - resistant', 'outdoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" t="inlineStr">
+        <is>
+          <t>【 Easy to Install 】 : Screw in hooks , easy to install on wood , great for patio , deck , ceiling , tree , fence and more . On hard surface , drilling a smaller hole is recommended before turning thread .</t>
+        </is>
+      </c>
+      <c r="B3216" t="inlineStr">
+        <is>
+          <t>[('22', '36', 'PROPERTY'), ('58', '62', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3216" t="inlineStr">
+        <is>
+          <t>['Screw in hooks', 'wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" t="inlineStr">
+        <is>
+          <t>【 Package Included 】 : Pack of 40 string light hangers . If you are not satisfied with our product for any reason , please contact us through amazon . We will provide a 12 - months refund or free change .</t>
+        </is>
+      </c>
+      <c r="B3217" t="inlineStr">
+        <is>
+          <t>[('23', '33', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3217" t="inlineStr">
+        <is>
+          <t>['Pack of 40']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" t="inlineStr">
+        <is>
+          <t>Reliable Welding &amp; Rust Proof : Rings and hooks were made of heavy duty wrought iron , have been metal pressure welded . Black powder coating , comfortable touch and not easy to rust than the liquid paint . You can use this wall plant holder ring to show plants indoors and outdoors .</t>
+        </is>
+      </c>
+      <c r="B3218" t="inlineStr">
+        <is>
+          <t>[('19', '29', 'PROPERTY'), ('72', '84', 'MAT'), ('97', '102', 'MAT'), ('103', '118', 'PROPERTY'), ('121', '126', 'COLOR'), ('127', '133', 'MAT'), ('134', '141', 'PROPERTY'), ('144', '155', 'PROPERTY'), ('262', '269', 'PROPERTY'), ('274', '282', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3218" t="inlineStr">
+        <is>
+          <t>['Rust Proof', 'wrought iron', 'metal', 'pressure welded', 'Black', 'powder', 'coating', 'comfortable', 'indoors', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" t="inlineStr">
+        <is>
+          <t>Package Included : 3 pack of flower planters and the screw kit . The 6 inch Flowerpot Ring has an interior diameter of 5 - 3 / 8 " . ( Please measure your flowerpot before purchasing our flower pot bracket . )</t>
+        </is>
+      </c>
+      <c r="B3219" t="inlineStr">
+        <is>
+          <t>[('19', '25', 'PROPERTY'), ('69', '75', 'DIMENSION'), ('119', '130', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3219" t="inlineStr">
+        <is>
+          <t>['3 pack', '6 inch', '5 - 3 / 8 "']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" t="inlineStr">
+        <is>
+          <t>DIY Item Decoration : Iron flower pot holder ring are ideal for displaying flowers or plants in vertical garden spaces . It can also be added to the indoor or outdoors , making it easy to decorate using a pot carrier . It is one of the great storage solutions for terraces , balconies , porches , courtyards and windows and much more .</t>
+        </is>
+      </c>
+      <c r="B3220" t="inlineStr">
+        <is>
+          <t>[('22', '26', 'MAT'), ('149', '155', 'PROPERTY'), ('159', '167', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3220" t="inlineStr">
+        <is>
+          <t>['Iron', 'indoor', 'outdoors']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" t="inlineStr">
+        <is>
+          <t>Easy to install : Simply find a wall , fence post or flat surface that is stable enough to hold a metal flowerpot and install it with a screw kit .</t>
+        </is>
+      </c>
+      <c r="B3221" t="inlineStr">
+        <is>
+          <t>[('98', '103', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3221" t="inlineStr">
+        <is>
+          <t>['metal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" t="inlineStr">
+        <is>
+          <t>EASY TO INSTALL - Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . The hardware is included .</t>
+        </is>
+      </c>
+      <c r="B3222" t="inlineStr">
+        <is>
+          <t>[('29', '33', 'NMAT'), ('69', '75', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3222" t="inlineStr">
+        <is>
+          <t>['wood', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" t="inlineStr">
+        <is>
+          <t>How to use - 2 mounting holes to anchor the piece firmly into your wall . 2pcs mounting screws are included . Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments .</t>
+        </is>
+      </c>
+      <c r="B3223" t="inlineStr">
+        <is>
+          <t>[('13', '29', 'PROPERTY'), ('74', '94', 'PROPERTY'), ('121', '125', 'NMAT'), ('161', '167', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3223" t="inlineStr">
+        <is>
+          <t>['2 mounting holes', '2pcs mounting screws', 'wood', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" t="inlineStr">
+        <is>
+          <t>🌼 [ Wall Mount Hanging Bracket Hanger Easy to Install ] - 3 mounting holes to anchor the piece firmly into your wall . Recommend using wall heavy - duty anchors for mounting . Screw into wood fence posts , deck posts , or even indoor walls .</t>
+        </is>
+      </c>
+      <c r="B3224" t="inlineStr">
+        <is>
+          <t>[('4', '14', 'PROPERTY'), ('58', '74', 'PROPERTY'), ('187', '191', 'NMAT'), ('227', '233', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3224" t="inlineStr">
+        <is>
+          <t>['Wall Mount', '3 mounting holes', 'wood', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" t="inlineStr">
+        <is>
+          <t>VERSATILE : Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . Curved tip helps securely hold items while adding to the exquisite look .</t>
+        </is>
+      </c>
+      <c r="B3225" t="inlineStr">
+        <is>
+          <t>[('23', '27', 'NMAT'), ('63', '69', 'PROPERTY'), ('135', '145', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3225" t="inlineStr">
+        <is>
+          <t>['wood', 'indoor', 'Curved tip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" t="inlineStr">
+        <is>
+          <t>SUITABLE FOR : Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . Curved tip helps securely hold items while adding to the exquisite look .</t>
+        </is>
+      </c>
+      <c r="B3226" t="inlineStr">
+        <is>
+          <t>[('66', '72', 'PROPERTY'), ('138', '148', 'PROPERTY'), ('26', '30', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3226" t="inlineStr">
+        <is>
+          <t>['indoor', 'Curved tip', 'wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" t="inlineStr">
+        <is>
+          <t>★ Easy To Assemble : 3 mounting holes to anchor the piece firmly into your wall . mounting screws included . Recommend using wall anchors for mounting . Screw into wood fence posts , deck posts , or even indoor walls .</t>
+        </is>
+      </c>
+      <c r="B3227" t="inlineStr">
+        <is>
+          <t>[('21', '37', 'PROPERTY'), ('164', '168', 'NMAT'), ('204', '210', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3227" t="inlineStr">
+        <is>
+          <t>['3 mounting holes', 'wood', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" t="inlineStr">
+        <is>
+          <t>VERSATILE : Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . Curved tip helps securely hold items while adding to the exquisite look .</t>
+        </is>
+      </c>
+      <c r="B3228" t="inlineStr">
+        <is>
+          <t>[('23', '27', 'NMAT'), ('63', '69', 'PROPERTY'), ('135', '145', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3228" t="inlineStr">
+        <is>
+          <t>['wood', 'indoor', 'Curved tip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" t="inlineStr">
+        <is>
+          <t>VERSATILE : Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . Curved tip helps securely hold items while adding to the exquisite look .</t>
+        </is>
+      </c>
+      <c r="B3229" t="inlineStr">
+        <is>
+          <t>[('23', '27', 'NMAT'), ('63', '69', 'PROPERTY'), ('135', '145', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3229" t="inlineStr">
+        <is>
+          <t>['wood', 'indoor', 'Curved tip']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" t="inlineStr">
+        <is>
+          <t>✔ EASY TO INSTALL - Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . Just fix it with attached screws , decorates your patio , garden , entryway , porch , living room , dining room . Its elegant appearance decorates your home more beautiful .</t>
+        </is>
+      </c>
+      <c r="B3230" t="inlineStr">
+        <is>
+          <t>[('71', '77', 'PROPERTY'), ('31', '35', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3230" t="inlineStr">
+        <is>
+          <t>['indoor', 'wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" t="inlineStr">
+        <is>
+          <t>✔ EASY TO INSTALL - Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments . Just fix it with attached screws , decorates your patio , garden , entryway , porch , living room , dining room . Its elegant appearance decorates your home more beautiful .</t>
+        </is>
+      </c>
+      <c r="B3231" t="inlineStr">
+        <is>
+          <t>[('71', '77', 'PROPERTY'), ('31', '35', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3231" t="inlineStr">
+        <is>
+          <t>['indoor', 'wood']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" t="inlineStr">
+        <is>
+          <t>Innovative fence hooks : Our patio hooks are made of high quality metal , unlike other fence hooks , our flat design is more conducive to stability and will not deform where it comes in contact with the fence due to hanging heavy objects . The flat structure can also be used as a door hook , you can use it to hang clothes , scarves , towels , etc .</t>
+        </is>
+      </c>
+      <c r="B3232" t="inlineStr">
+        <is>
+          <t>[('66', '71', 'MAT'), ('105', '116', 'PROPERTY'), ('244', '258', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3232" t="inlineStr">
+        <is>
+          <t>['metal', 'flat design', 'flat structure']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" t="inlineStr">
+        <is>
+          <t>【 Easy to Install 】 : First make a position where you want to hang the hanger planter hooks . Drill 2 holes on the wall with an electric drill . Then insert the dowels into the holes and finally attach the wall planter hooks with screws . Screw into wood fence posts , deck posts , or even indoor walls . Looks great within a variety of different environments .</t>
+        </is>
+      </c>
+      <c r="B3233" t="inlineStr">
+        <is>
+          <t>[('250', '254', 'NMAT'), ('290', '296', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3233" t="inlineStr">
+        <is>
+          <t>['wood', 'indoor']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" t="inlineStr">
+        <is>
+          <t>Recommendation : In order to implement height adjustment function , the screw structure is adopted instead of a single piece metal . The height is mainly designed for hanging some garden decorations . So we don ’ t recommend it for hanging heavy objects of over 10 pounds . Particularly soft soil and hanging overloads may cause the hook to topple over .</t>
+        </is>
+      </c>
+      <c r="B3234" t="inlineStr">
+        <is>
+          <t>[('125', '130', 'NMAT'), ('262', '271', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3234" t="inlineStr">
+        <is>
+          <t>['metal', '10 pounds']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" t="inlineStr">
+        <is>
+          <t>[ Easy to Install ] - - - Just simply find a wall , fence post or flat surface that is stable enough to hold a metal flowerpot , and attach 2 screws to the wall with a screw kit , then you can put your planter pot on</t>
+        </is>
+      </c>
+      <c r="B3235" t="inlineStr">
+        <is>
+          <t>[('111', '116', 'NMAT'), ('140', '148', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3235" t="inlineStr">
+        <is>
+          <t>['metal', '2 screws']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" t="inlineStr">
+        <is>
+          <t>【 Super Easy to Install 】 Simply find a wall , fence post or flat surface that is stable enough to hold a metal flowerpot and install it with a screw kit .</t>
+        </is>
+      </c>
+      <c r="B3236" t="inlineStr">
+        <is>
+          <t>[('106', '111', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3236" t="inlineStr">
+        <is>
+          <t>['metal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" t="inlineStr">
+        <is>
+          <t>Recommendation : In order to implement height adjustment function , the screw structure is adopted instead of a single piece metal . The height is mainly designed for hanging some garden decorations . So we don ’ t recommend it for hanging heavy objects of over 10 pounds . Particularly soft soil and hanging overloads may cause the hook to topple over .</t>
+        </is>
+      </c>
+      <c r="B3237" t="inlineStr">
+        <is>
+          <t>[('125', '130', 'NMAT'), ('262', '271', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3237" t="inlineStr">
+        <is>
+          <t>['metal', '10 pounds']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" t="inlineStr">
+        <is>
+          <t>Premium Quality : This cooling pillow is manufactured from individually molded memory foam , unlike ordinary cut foam pillows . Our high - end memory foam pillow is never compressed and has a softer and more comfortable feel that is going to last for a long time . The adaptive material of the firm pillow returns to its actual shape after every use , making it reliable throughout the years .</t>
+        </is>
+      </c>
+      <c r="B3238" t="inlineStr">
+        <is>
+          <t>[('72', '78', 'PROPERTY'), ('79', '90', 'MAT'), ('109', '117', 'NMAT'), ('143', '154', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3238" t="inlineStr">
+        <is>
+          <t>['molded', 'memory foam', 'cut foam', 'memory foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" t="inlineStr">
+        <is>
+          <t>【 Nice Breath Ability 】 : Best Service , Warranty &amp; 100 % your Money Back . Unlike your memory foam office chair cushion , car seat cushion , or foam wheelchair cushion . This unique gel honeycomb cooling structure greatly reduces heat transfer between the buttocks and the seat , increases air circulation and keep cool at the bottom for sedentary .</t>
+        </is>
+      </c>
+      <c r="B3239" t="inlineStr">
+        <is>
+          <t>[('88', '99', 'NMAT'), ('187', '196', 'PROPERTY'), ('339', '348', 'TARGET_USER')]</t>
+        </is>
+      </c>
+      <c r="C3239" t="inlineStr">
+        <is>
+          <t>['memory foam', 'honeycomb', 'sedentary']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" t="inlineStr">
+        <is>
+          <t>COLDEST LONGEST - Freeze it , we dare you ! Rated for extreme cooling , our doughnut pillows cooling seat pillow technology is unlike any other butt cushion for hemmorrhoids . The coolest post partum donut cushion and donut tailbone cushion ever .</t>
+        </is>
+      </c>
+      <c r="B3240" t="inlineStr">
+        <is>
+          <t>[('76', '84', 'SHAPE'), ('206', '213', 'PROPERTY'), ('218', '223', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C3240" t="inlineStr">
+        <is>
+          <t>['doughnut', 'cushion', 'donut']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" t="inlineStr">
+        <is>
+          <t>CHARCOAL INFUSED - Did you know that white memory foam absorbs unwanted odor ? Yuck ! Unlike other anti hemorrhoids chair doughnut sitting pillows , this butt cushion for hemmoroids uses activated charcoal to remove unwanted smells and stains .</t>
+        </is>
+      </c>
+      <c r="B3241" t="inlineStr">
+        <is>
+          <t>[('0', '8', 'MAT'), ('37', '42', 'COLOR'), ('43', '54', 'MAT'), ('55', '76', 'PROPERTY'), ('187', '205', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3241" t="inlineStr">
+        <is>
+          <t>['CHARCOAL', 'white', 'memory foam', 'absorbs unwanted odor', 'activated charcoal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" t="inlineStr">
+        <is>
+          <t>No More Sweats - Unlike your memory foam cushion . Our advanced honeycomb grid design cooling gel coccyx seat cushion provides coolness while you are sitting , and it has a breathable cover , so you sit comfortable and cool</t>
+        </is>
+      </c>
+      <c r="B3242" t="inlineStr">
+        <is>
+          <t>[('29', '40', 'NMAT'), ('64', '85', 'PROPERTY'), ('98', '104', 'MAT'), ('173', '189', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3242" t="inlineStr">
+        <is>
+          <t>['memory foam', 'honeycomb grid design', 'coccyx', 'breathable cover']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" t="inlineStr">
+        <is>
+          <t>SOFT AND COMFORTABLE : Our perforated pillows are made of 100 % cotton breathable fabric and down and polyester mixed filling , down filling is better than regular cotton , reusable , you can machine wash and dry normally .</t>
+        </is>
+      </c>
+      <c r="B3243" t="inlineStr">
+        <is>
+          <t>[('0', '4', 'PROPERTY'), ('9', '20', 'PROPERTY'), ('27', '37', 'PROPERTY'), ('58', '70', 'MAT'), ('93', '97', 'MAT'), ('102', '111', 'MAT'), ('112', '117', 'PROPERTY'), ('164', '170', 'NMAT'), ('173', '181', 'PROPERTY'), ('192', '204', 'PROPERTY'), ('82', '88', 'MAT'), ('71', '81', 'PROPERTY'), ('128', '132', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3243" t="inlineStr">
+        <is>
+          <t>['SOFT', 'COMFORTABLE', 'perforated', '100 % cotton', 'down', 'polyester', 'mixed', 'cotton', 'reusable', 'machine wash', 'fabric', 'breathable', 'down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" t="inlineStr">
+        <is>
+          <t>Exceptional Comfort - East Coast Bedding Goose Down Pillows provide the perfect combination of comfort and convenience ; Our king , queen and standard size pillows are made with genuine goose feathers , providing an incredibly soft yet supportive feel for your head and neck ; These pillows will keep you comfortable all night long and help you get a good night ' s rest</t>
+        </is>
+      </c>
+      <c r="B3244" t="inlineStr">
+        <is>
+          <t>[('186', '200', 'MAT'), ('41', '51', 'MAT'), ('125', '129', 'SIZE'), ('132', '137', 'SIZE'), ('142', '150', 'SIZE'), ('227', '231', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3244" t="inlineStr">
+        <is>
+          <t>['goose feathers', 'Goose Down', 'king', 'queen', 'standard', 'soft']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" t="inlineStr">
+        <is>
+          <t>Super Soft - Enjoy a soft and comfortable pillow every night of the week with the Down Pillow ; This ultra - soft pillow makes it easier to relax your head and neck muscles while still providing the necessary support ; Retains no moisture and no sweat</t>
+        </is>
+      </c>
+      <c r="B3245" t="inlineStr">
+        <is>
+          <t>[('6', '10', 'PROPERTY'), ('21', '25', 'PROPERTY'), ('30', '41', 'PROPERTY'), ('101', '113', 'PROPERTY'), ('227', '238', 'PROPERTY'), ('243', '251', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3245" t="inlineStr">
+        <is>
+          <t>['Soft', 'soft', 'comfortable', 'ultra - soft', 'no moisture', 'no sweat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" t="inlineStr">
+        <is>
+          <t>Cool Gel Memory Foam Pillow : Our gel pillow uses natural latex instead of synthetic latex and does not contain any chemical ingredients . It is an ideal pillow for relieving neck pain</t>
+        </is>
+      </c>
+      <c r="B3246" t="inlineStr">
+        <is>
+          <t>[('9', '20', 'MAT'), ('50', '63', 'MAT'), ('75', '90', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3246" t="inlineStr">
+        <is>
+          <t>['Memory Foam', 'natural latex', 'synthetic latex']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" t="inlineStr">
+        <is>
+          <t>Latex Pillow - Acanva Latex Bed Pillows are made from the quality natural latex . Unlike cotton and feather pillows , latex pillows are naturally - resistant which are suitable for people who are sensitive and chemical free .</t>
+        </is>
+      </c>
+      <c r="B3247" t="inlineStr">
+        <is>
+          <t>[('0', '5', 'MAT'), ('22', '27', 'MAT'), ('89', '95', 'NMAT'), ('100', '107', 'NMAT'), ('118', '123', 'MAT'), ('136', '157', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3247" t="inlineStr">
+        <is>
+          <t>['Latex', 'Latex', 'cotton', 'feather', 'latex', 'naturally - resistant']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" t="inlineStr">
+        <is>
+          <t>PERFECT SIZE - Unlike normal ear piercing pillow , our piercing pillow for side sleepers size is very thick and comfortable , the outer diameter about 9 . 9in , the inner diameter is about 3 . 5in and the thickness is about 3 . 8in . The ear pillow for piercing can be used on top of other pillows for added elevation and support - allowing you to find your personal comfort zone .</t>
+        </is>
+      </c>
+      <c r="B3248" t="inlineStr">
+        <is>
+          <t>[('102', '107', 'PROPERTY'), ('112', '123', 'PROPERTY'), ('151', '158', 'DIMENSION'), ('189', '196', 'DIMENSION'), ('224', '231', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3248" t="inlineStr">
+        <is>
+          <t>['thick', 'comfortable', '9 . 9in', '3 . 5in', '3 . 8in']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" t="inlineStr">
+        <is>
+          <t>👍 【 Donut Pillow 】 - This pillow with hole is square shape with premium quality PP filling , unlike other inflatable or flat butt donut pillow , our comfy seat cushion helps you sit on any hard surface . With 3 . 5 ' ' thickness , this cushion gently lifts you up from seat chairs , evens the pressure of buttocks , pelvic and thighs .</t>
+        </is>
+      </c>
+      <c r="B3249" t="inlineStr">
+        <is>
+          <t>[('4', '9', 'SHAPE'), ('46', '58', 'SHAPE'), ('80', '82', 'MAT'), ('149', '154', 'PROPERTY'), ('209', '228', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3249" t="inlineStr">
+        <is>
+          <t>['Donut', 'square shape', 'PP', 'comfy', "3 . 5 ' ' thickness"]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" t="inlineStr">
+        <is>
+          <t>High QUALITY : Unlike a lot of coxxyx cushions that use ineffective budget materials , Feagar orthopedic memory foam chair pads use thick , high density memory foam that can keep its shape , feel soft and comfortable . Since it ' s temperature sense memory foam , it ' s normal that cushions become harder in low temperature , cushion softness will be adjusted by user or environment temperature , thus it can give good support and perfects posture well .</t>
+        </is>
+      </c>
+      <c r="B3250" t="inlineStr">
+        <is>
+          <t>[('31', '37', 'NMAT'), ('94', '104', 'PROPERTY'), ('105', '116', 'MAT'), ('153', '164', 'MAT'), ('196', '200', 'PROPERTY'), ('205', '216', 'PROPERTY'), ('250', '261', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3250" t="inlineStr">
+        <is>
+          <t>['coxxyx', 'orthopedic', 'memory foam', 'memory foam', 'soft', 'comfortable', 'memory foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" t="inlineStr">
+        <is>
+          <t>HYGIENIC , ERGONOMIC SEAT CUSHION - Includes a breathable , removable , machine washable cover with carrying handle , and unlike an egg crate foam seat cushion , the water proof gel pad can be hand washed to keep everything clean .</t>
+        </is>
+      </c>
+      <c r="B3251" t="inlineStr">
+        <is>
+          <t>[('0', '8', 'PROPERTY'), ('11', '20', 'PROPERTY'), ('47', '57', 'PROPERTY'), ('60', '69', 'PROPERTY'), ('72', '88', 'PROPERTY'), ('142', '146', 'NMAT'), ('166', '177', 'PROPERTY'), ('193', '204', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3251" t="inlineStr">
+        <is>
+          <t>['HYGIENIC', 'ERGONOMIC', 'breathable', 'removable', 'machine washable', 'foam', 'water proof', 'hand washed']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" t="inlineStr">
+        <is>
+          <t>FIRM YET GENTLE - unlike ordinary orthopedic back support cushions , back orthopedic pillows and back orthopedic supports , the pain relieving QiPillow orthopedic back comfort &amp; posture support cushion never collapses under body weight , and never loses its level of support no matter how firm or soft you set it , even after prolonged period of sitting .</t>
+        </is>
+      </c>
+      <c r="B3252" t="inlineStr">
+        <is>
+          <t>[('0', '15', 'TARGET_USER'), ('152', '162', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3252" t="inlineStr">
+        <is>
+          <t>['FIRM YET GENTLE', 'orthopedic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" t="inlineStr">
+        <is>
+          <t>NO MORE SEAT SWEAT : Unlike your memory foam office chair cushion , car seat cushion , or foam wheelchair cushion . Our seat cushion is with honeycomb design , the built - in , free - flowing air channels will prevent seat sweat and stay comfort cooling instead of heating where you ' re sitting .</t>
+        </is>
+      </c>
+      <c r="B3253" t="inlineStr">
+        <is>
+          <t>[('33', '44', 'NMAT'), ('90', '94', 'NMAT'), ('141', '157', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3253" t="inlineStr">
+        <is>
+          <t>['memory foam', 'foam', 'honeycomb design']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" t="inlineStr">
+        <is>
+          <t>♻ ️ 【 Best Seat Cushion 】 - - - Car seat cushions for short people is made of high - quality , High - grade imitation PU fabric , as breathable and comfortable as cloth , as beautiful as PU , Internal padding 25 % down cotton + 75 % PP cotton , thick and full and not easy to deform , size : 45cmX40cmX12cm / 17 . 7 " x 16 " x 4 . 7 " , Extra Thick Large Seat Cushion , which greatly improves your vision when driving .</t>
+        </is>
+      </c>
+      <c r="B3254" t="inlineStr">
+        <is>
+          <t>[('54', '66', 'TARGET_USER'), ('118', '127', 'MAT'), ('133', '143', 'PROPERTY'), ('148', '159', 'PROPERTY'), ('163', '168', 'NMAT'), ('187', '189', 'NMAT'), ('192', '208', 'PROPERTY'), ('209', '225', 'MAT'), ('228', '242', 'MAT'), ('292', '334', 'DIMENSION'), ('337', '348', 'SIZE'), ('349', '354', 'SIZE')]</t>
+        </is>
+      </c>
+      <c r="C3254" t="inlineStr">
+        <is>
+          <t>['short people', 'PU fabric', 'breathable', 'comfortable', 'cloth', 'PU', 'Internal padding', '25 % down cotton', '75 % PP cotton', '45cmX40cmX12cm / 17 . 7 " x 16 " x 4 . 7 "', 'Extra Thick', 'Large']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" t="inlineStr">
+        <is>
+          <t>【 Soft and comfortable 】 Pillow with ear hole material made of pure cotton , filled with down , more soft and supportive than ordinary cotton filling . The pillow has an invisible zipper to adjust the comfort of the filling according to your needs .</t>
+        </is>
+      </c>
+      <c r="B3255" t="inlineStr">
+        <is>
+          <t>[('2', '6', 'PROPERTY'), ('11', '22', 'PROPERTY'), ('63', '74', 'MAT'), ('89', '93', 'MAT'), ('101', '105', 'PROPERTY'), ('110', '120', 'PROPERTY'), ('135', '141', 'NMAT'), ('170', '186', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3255" t="inlineStr">
+        <is>
+          <t>['Soft', 'comfortable', 'pure cotton', 'down', 'soft', 'supportive', 'cotton', 'invisible zipper']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" t="inlineStr">
+        <is>
+          <t>3 - Chamber Design : Indulge in a luxurious sleeping experience with our specially designed bed pillow . Silky down - alternative fibers envelop the memory foam cubes for maximum comfort and support . Plus , the separate removable chamber allows for easy machine washing of the outer pillow .</t>
+        </is>
+      </c>
+      <c r="B3256" t="inlineStr">
+        <is>
+          <t>[('0', '18', 'PROPERTY'), ('149', '160', 'MAT'), ('221', '238', 'PROPERTY'), ('105', '115', 'MAT'), ('130', '136', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3256" t="inlineStr">
+        <is>
+          <t>['3 - Chamber Design', 'memory foam', 'removable chamber', 'Silky down', 'fibers']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" t="inlineStr">
+        <is>
+          <t>SOFT AND COMFORTABLE : Our perforated pillows are made of 100 % cotton breathable fabric and down filling , down filling is better than regular cotton , reusable , you can machine wash and dry normally .</t>
+        </is>
+      </c>
+      <c r="B3257" t="inlineStr">
+        <is>
+          <t>[('0', '4', 'PROPERTY'), ('9', '20', 'PROPERTY'), ('27', '37', 'PROPERTY'), ('58', '70', 'MAT'), ('144', '150', 'MAT'), ('153', '161', 'PROPERTY'), ('172', '184', 'PROPERTY'), ('71', '81', 'PROPERTY'), ('82', '88', 'MAT'), ('93', '97', 'MAT'), ('108', '112', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3257" t="inlineStr">
+        <is>
+          <t>['SOFT', 'COMFORTABLE', 'perforated', '100 % cotton', 'cotton', 'reusable', 'machine wash', 'breathable', 'fabric', 'down', 'down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" t="inlineStr">
+        <is>
+          <t>DECORATIVE , FIRM &amp; GENTLE - Unlike ugly , clunky foam back pillows , the plush Qi Orthopedic Pillow offers an attractive , designer look that blends in with your home or office d é cor . It never collapses under body weight , and never loses its level of support no matter how firm or soft you set it , even after prolonged period of sitting .</t>
+        </is>
+      </c>
+      <c r="B3258" t="inlineStr">
+        <is>
+          <t>[('50', '54', 'NMAT'), ('83', '93', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3258" t="inlineStr">
+        <is>
+          <t>['foam', 'Orthopedic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" t="inlineStr">
+        <is>
+          <t>PREMIUM HIGH - DENSITY FOAM COMFORT - Unlike ordinary memory foam seat cushions that may flatten out fast , Kabooti is made of premium , high - density , medical grade cushion foam that retains its shape longer for maximum , lasting comfort you can count on . Its high resiliency foam helps keeps your weight evenly distributed , making it the perfect coccyx relief cushion . It gives you better proper posture and a vision boost , too , especially at your home or office computer desk .</t>
+        </is>
+      </c>
+      <c r="B3259" t="inlineStr">
+        <is>
+          <t>[('23', '27', 'MAT'), ('54', '65', 'NMAT'), ('176', '180', 'MAT'), ('264', '268', 'PROPERTY'), ('269', '279', 'PROPERTY'), ('280', '284', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3259" t="inlineStr">
+        <is>
+          <t>['FOAM', 'memory foam', 'foam', 'high', 'resiliency', 'foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" t="inlineStr">
+        <is>
+          <t>NO MORE SEAT SWEAT : Unlike your memory foam office chair cushion , car seat cushion , or foam wheelchair cushion . Our seat cushion is with honeycomb design , the built - in , free - flowing air channels will prevent seat sweat and stay comfort cooling instead of heating where you ' re sitting .</t>
+        </is>
+      </c>
+      <c r="B3260" t="inlineStr">
+        <is>
+          <t>[('33', '44', 'NMAT'), ('90', '94', 'NMAT'), ('141', '157', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3260" t="inlineStr">
+        <is>
+          <t>['memory foam', 'foam', 'honeycomb design']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" t="inlineStr">
+        <is>
+          <t>* Soft and comfortable : Our perforated pillows are made of 100 % cotton breathable fabric and down filling for reusability ， It doesn ' t irritate your skin and you can sleep with it with confidence .</t>
+        </is>
+      </c>
+      <c r="B3261" t="inlineStr">
+        <is>
+          <t>[('2', '6', 'PROPERTY'), ('11', '22', 'PROPERTY'), ('29', '39', 'PROPERTY'), ('60', '72', 'MAT'), ('73', '83', 'PROPERTY'), ('84', '90', 'MAT'), ('95', '99', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3261" t="inlineStr">
+        <is>
+          <t>['Soft', 'comfortable', 'perforated', '100 % cotton', 'breathable', 'fabric', 'down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" t="inlineStr">
+        <is>
+          <t>FIRM YET GENTLE - unlike ordinary orthopedic back support cushions , back orthopedic pillows and back orthopedic supports , the pain relieving QiPillow orthopedic back comfort &amp; posture support cushion never collapses under body weight , and never loses its level of support no matter how firm or soft you set it , even after prolonged period of sitting .</t>
+        </is>
+      </c>
+      <c r="B3262" t="inlineStr">
+        <is>
+          <t>[('0', '15', 'TARGET_USER'), ('152', '162', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3262" t="inlineStr">
+        <is>
+          <t>['FIRM YET GENTLE', 'orthopedic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" t="inlineStr">
+        <is>
+          <t>SOFT AND COMFORTABLE : Our piercing pillows are made of 100 % cotton breathable fabric cover and down filling , down filling is better than regular cotton , reusable , and you can machine wash and dry normally .</t>
+        </is>
+      </c>
+      <c r="B3263" t="inlineStr">
+        <is>
+          <t>[('0', '4', 'PROPERTY'), ('9', '20', 'PROPERTY'), ('56', '68', 'MAT'), ('148', '154', 'NMAT'), ('157', '165', 'PROPERTY'), ('180', '192', 'PROPERTY'), ('69', '79', 'PROPERTY'), ('80', '86', 'MAT'), ('97', '101', 'MAT'), ('112', '116', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3263" t="inlineStr">
+        <is>
+          <t>['SOFT', 'COMFORTABLE', '100 % cotton', 'cotton', 'reusable', 'machine wash', 'breathable', 'fabric', 'down', 'down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" t="inlineStr">
+        <is>
+          <t>COLDEST LONGEST - Freeze it , we dare you ! Rated for extreme cooling , our doughnut pillows cooling seat pillow technology is unlike any other butt cushion for hemmorrhoids . The coolest post partum donut cushion and donut tailbone cushion ever .</t>
+        </is>
+      </c>
+      <c r="B3264" t="inlineStr">
+        <is>
+          <t>[('76', '84', 'SHAPE'), ('206', '213', 'PROPERTY'), ('218', '223', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C3264" t="inlineStr">
+        <is>
+          <t>['doughnut', 'cushion', 'donut']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" t="inlineStr">
+        <is>
+          <t>CHARCOAL INFUSED - Did you know that white memory foam absorbs unwanted odor ? Yuck ! Unlike other anti hemorrhoids chair doughnut sitting pillows , this butt cushion for hemmoroids uses activated charcoal to remove unwanted smells and stains .</t>
+        </is>
+      </c>
+      <c r="B3265" t="inlineStr">
+        <is>
+          <t>[('0', '8', 'MAT'), ('37', '42', 'COLOR'), ('43', '54', 'MAT'), ('55', '76', 'PROPERTY'), ('187', '205', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3265" t="inlineStr">
+        <is>
+          <t>['CHARCOAL', 'white', 'memory foam', 'absorbs unwanted odor', 'activated charcoal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" t="inlineStr">
+        <is>
+          <t>PREMIUM HIGH - DENSITY FOAM COMFORT - Unlike ordinary memory foam seat cushions that may flatten out fast , Kabooti is made of premium , high - density , medical grade cushion foam that retains its shape longer for maximum , lasting comfort you can count on . Its high resiliency foam helps keeps your weight evenly distributed , making it the perfect coccyx relief cushion . It gives you better proper posture and a vision boost , too , especially at your home or office computer desk .</t>
+        </is>
+      </c>
+      <c r="B3266" t="inlineStr">
+        <is>
+          <t>[('23', '27', 'MAT'), ('54', '65', 'NMAT'), ('176', '180', 'MAT'), ('264', '268', 'PROPERTY'), ('269', '279', 'PROPERTY'), ('280', '284', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3266" t="inlineStr">
+        <is>
+          <t>['FOAM', 'memory foam', 'foam', 'high', 'resiliency', 'foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="inlineStr">
+        <is>
+          <t>【 PERMIUM MEMORY FOAM INNER CORE - NEVER BE FLAT 】 - Memory Foam with Bamboo Charcoal Fiber Back Cushion can keep its shape and be used repeatedly . Comes the best elasticity , which makes our back support your back in a proper posture . Unlike other lumbar support pillow , our product with designed curve and waist embracing design , hold your back all the time . Perfect size for office workers , pregnant , drivers and students to improve their posture and keep healthy</t>
+        </is>
+      </c>
+      <c r="B3267" t="inlineStr">
+        <is>
+          <t>[('10', '21', 'MAT'), ('53', '64', 'MAT'), ('70', '76', 'MAT'), ('77', '91', 'MAT'), ('383', '397', 'TARGET_USER'), ('400', '408', 'TARGET_USER'), ('411', '418', 'TARGET_USER'), ('423', '431', 'TARGET_USER')]</t>
+        </is>
+      </c>
+      <c r="C3267" t="inlineStr">
+        <is>
+          <t>['MEMORY FOAM', 'Memory Foam', 'Bamboo', 'Charcoal Fiber', 'office workers', 'pregnant', 'drivers', 'students']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="inlineStr">
+        <is>
+          <t>NEVER BECOMES HARD - We used UTTU DYNAMIC FOAM , which never gets hard in cold weather . Unlike most memory foam on the market , it remains consistent with firmness and comfort feel all year .</t>
+        </is>
+      </c>
+      <c r="B3268" t="inlineStr">
+        <is>
+          <t>[('34', '46', 'MAT'), ('101', '112', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3268" t="inlineStr">
+        <is>
+          <t>['DYNAMIC FOAM', 'memory foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="inlineStr">
+        <is>
+          <t>DECORATIVE , FIRM &amp; GENTLE - Unlike ugly , clunky foam back pillows , the plush Qi Orthopedic Pillow offers an attractive , designer look that blends in with your home or office d é cor . It never collapses under body weight , and never loses its level of support no matter how firm or soft you set it , even after prolonged period of sitting .</t>
+        </is>
+      </c>
+      <c r="B3269" t="inlineStr">
+        <is>
+          <t>[('50', '54', 'NMAT'), ('83', '93', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3269" t="inlineStr">
+        <is>
+          <t>['foam', 'Orthopedic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="inlineStr">
+        <is>
+          <t>SOFT AND COMFORTABLE : Our piercing pillows are made of 100 % cotton breathable fabric cover and down filling , down filling is better than regular cotton , reusable , and you can machine wash and dry normally .</t>
+        </is>
+      </c>
+      <c r="B3270" t="inlineStr">
+        <is>
+          <t>[('0', '4', 'PROPERTY'), ('9', '20', 'PROPERTY'), ('56', '68', 'MAT'), ('148', '154', 'NMAT'), ('157', '165', 'PROPERTY'), ('180', '192', 'PROPERTY'), ('69', '79', 'PROPERTY'), ('80', '86', 'MAT'), ('97', '101', 'MAT'), ('112', '116', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3270" t="inlineStr">
+        <is>
+          <t>['SOFT', 'COMFORTABLE', '100 % cotton', 'cotton', 'reusable', 'machine wash', 'breathable', 'fabric', 'down', 'down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="inlineStr">
+        <is>
+          <t>Easy to Clean - Unlike most pillows on the market , this side sleeper pillow is easy to clean . It could be washed by machine .</t>
+        </is>
+      </c>
+      <c r="B3271" t="inlineStr">
+        <is>
+          <t>[('108', '125', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3271" t="inlineStr">
+        <is>
+          <t>['washed by machine']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="inlineStr">
+        <is>
+          <t>MAINTAIN SIDE SLEEPING POSITION ALL NIGHT : No more rolling to your back throughout the night . Unlike firm back wedges or using tennis balls to keep you in position , this patented , fluffy J - shape body pillow comfortably keeps you on your right or left side . Body pillow measures 22 ” W x 50 ” L x 6 ” H .</t>
+        </is>
+      </c>
+      <c r="B3272" t="inlineStr">
+        <is>
+          <t>[('184', '190', 'PROPERTY'), ('191', '200', 'SHAPE'), ('285', '308', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3272" t="inlineStr">
+        <is>
+          <t>['fluffy', 'J - shape', '22 ” W x 50 ” L x 6 ” H']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" t="inlineStr">
+        <is>
+          <t>[ Enjoy the Coolness ] Our seat cushion has a therapeutic thick honeycomb gel design to increase air flow for ultimate cooling comfort to prevent seat sweat and a ventilated mesh cover that does not get hot , unlike the memory foam models .</t>
+        </is>
+      </c>
+      <c r="B3273" t="inlineStr">
+        <is>
+          <t>[('64', '77', 'MAT'), ('163', '184', 'PROPERTY'), ('220', '231', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3273" t="inlineStr">
+        <is>
+          <t>['honeycomb gel', 'ventilated mesh cover', 'memory foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" t="inlineStr">
+        <is>
+          <t>Cool Gel Memory Foam Pillow : Our gel pillow uses natural latex instead of synthetic latex and does not contain any chemical ingredients . It is an ideal pillow for relieving neck pain</t>
+        </is>
+      </c>
+      <c r="B3274" t="inlineStr">
+        <is>
+          <t>[('9', '20', 'MAT'), ('50', '63', 'MAT'), ('75', '90', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3274" t="inlineStr">
+        <is>
+          <t>['Memory Foam', 'natural latex', 'synthetic latex']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="inlineStr">
+        <is>
+          <t>Extra Bag of Fill Included : unlike other pillows , ours includes extra 0 . 5 pound bag of fill so that you can increase pillow ' s loft if needed ; premium shredded fill is easy to spread and form to your preferred pillow shape</t>
+        </is>
+      </c>
+      <c r="B3275" t="inlineStr">
+        <is>
+          <t>[('72', '83', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3275" t="inlineStr">
+        <is>
+          <t>['0 . 5 pound']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="inlineStr">
+        <is>
+          <t>【 Comfortable and Durable 】 Made with premium - quality high - density foam . Our wedge foam is free from toxic substances , will not be harsh against your skin and doesn ’ t get heated , unlike other memory foam mattress . Our wedge foam not only has breathable mesh lining protection , but also protected with a highly comfortable , removable jacquard cover that can be washed and is sure to last for many years of use .</t>
+        </is>
+      </c>
+      <c r="B3276" t="inlineStr">
+        <is>
+          <t>[('2', '13', 'PROPERTY'), ('18', '25', 'PROPERTY'), ('71', '75', 'MAT'), ('82', '92', 'MAT'), ('201', '212', 'NMAT'), ('228', '238', 'MAT'), ('252', '274', 'PROPERTY'), ('321', '332', 'PROPERTY'), ('335', '344', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3276" t="inlineStr">
+        <is>
+          <t>['Comfortable', 'Durable', 'foam', 'wedge foam', 'memory foam', 'wedge foam', 'breathable mesh lining', 'comfortable', 'removable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="inlineStr">
+        <is>
+          <t>2 IN 1 DONUT SEAT CUSHION : Unlike other chair cushions , ours includes a removable cushion insert transforming the donut pillow for tailbone pain into a seat cushion for daily use at work or in the car</t>
+        </is>
+      </c>
+      <c r="B3277" t="inlineStr">
+        <is>
+          <t>[('0', '6', 'PROPERTY'), ('74', '91', 'PROPERTY'), ('116', '121', 'SHAPE'), ('7', '12', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C3277" t="inlineStr">
+        <is>
+          <t>['2 IN 1', 'removable cushion', 'donut', 'DONUT']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="inlineStr">
+        <is>
+          <t>[ ADJUSTABLE &amp; MORE DURABLE STRAPS ] - Unlike other low quality car lumbar pillow on the market , our back cushion has two adjustable straps , so they will keep the back support pillow in place no matter how much you move around , and two strong car back pillow straps will make the backrest secured tightly on any office chair , desk chair , gaming chair , computer chair , sofa , couch , car seat , SUV , truck , wheelchair and recliner or other chairs with a back width of less than 38 inches ( 96 cm )</t>
+        </is>
+      </c>
+      <c r="B3278" t="inlineStr">
+        <is>
+          <t>[('2', '12', 'PROPERTY'), ('20', '27', 'PROPERTY'), ('119', '140', 'PROPERTY'), ('486', '505', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3278" t="inlineStr">
+        <is>
+          <t>['ADJUSTABLE', 'DURABLE', 'two adjustable straps', '38 inches ( 96 cm )']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="inlineStr">
+        <is>
+          <t>Largest In The Market - - - Tired of small , thin cushions that don ' t fit your seat and definitely don ' t cushion your bum ? Try our gel seat cushion for long sitting , the largest in the market that fits your car seat , wheelchair and desk chair . This lumbar support pillow for office chair , car , recliner , even trucks and forklifts supports you while letting air pass through its open honeycomb design . Unlike memory foam pillows , our desk chair cushion does not permanently compress over time .</t>
+        </is>
+      </c>
+      <c r="B3279" t="inlineStr">
+        <is>
+          <t>[('420', '431', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3279" t="inlineStr">
+        <is>
+          <t>['memory foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="inlineStr">
+        <is>
+          <t>SOFT AND COMFORTABLE : Our perforated pillows are made of 100 % cotton breathable fabric and down filling , down filling is better than regular cotton , reusable , you can machine wash and dry normally .</t>
+        </is>
+      </c>
+      <c r="B3280" t="inlineStr">
+        <is>
+          <t>[('0', '4', 'PROPERTY'), ('9', '20', 'PROPERTY'), ('27', '37', 'PROPERTY'), ('58', '70', 'MAT'), ('144', '150', 'NMAT'), ('153', '161', 'PROPERTY'), ('172', '184', 'PROPERTY'), ('71', '81', 'PROPERTY'), ('82', '88', 'MAT'), ('93', '97', 'MAT'), ('108', '112', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3280" t="inlineStr">
+        <is>
+          <t>['SOFT', 'COMFORTABLE', 'perforated', '100 % cotton', 'cotton', 'reusable', 'machine wash', 'breathable', 'fabric', 'down', 'down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="inlineStr">
+        <is>
+          <t>NO MORE SEAT SWEAT : Unlike other old - designed cushion , this seat cushion is with honeycomb design and its built - in , free - flowing air channels will prevent seat sweat , staying comfortable and coo instead of heating where you sit .</t>
+        </is>
+      </c>
+      <c r="B3281" t="inlineStr">
+        <is>
+          <t>[('85', '101', 'PROPERTY'), ('110', '120', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3281" t="inlineStr">
+        <is>
+          <t>['honeycomb design', 'built - in']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" t="inlineStr">
+        <is>
+          <t>COLDEST LONGEST - Freeze it , we dare you ! Rated for extreme cooling , our doughnut pillows cooling seat pillow technology is unlike any other butt cushion for hemmorrhoids . The coolest post partum donut cushion and donut tailbone cushion ever .</t>
+        </is>
+      </c>
+      <c r="B3282" t="inlineStr">
+        <is>
+          <t>[('76', '84', 'SHAPE'), ('218', '223', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C3282" t="inlineStr">
+        <is>
+          <t>['doughnut', 'donut']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="inlineStr">
+        <is>
+          <t>CHARCOAL INFUSED - Did you know that white memory foam absorbs unwanted odor ? Yuck ! Unlike other anti hemorrhoids chair doughnut sitting pillows , this butt cushion for hemmoroids uses activated charcoal to remove unwanted smells and stains .</t>
+        </is>
+      </c>
+      <c r="B3283" t="inlineStr">
+        <is>
+          <t>[('0', '8', 'MAT'), ('37', '42', 'COLOR'), ('43', '54', 'MAT'), ('55', '76', 'PROPERTY'), ('187', '205', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3283" t="inlineStr">
+        <is>
+          <t>['CHARCOAL', 'white', 'memory foam', 'absorbs unwanted odor', 'activated charcoal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="inlineStr">
+        <is>
+          <t>PREMIUM HIGH - DENSITY FOAM COMFORT - Unlike ordinary memory foam seat cushions that may flatten out fast , Kabooti is made of premium , high - density , medical grade cushion foam that retains its shape longer for maximum , lasting comfort you can count on . Its high resiliency foam helps keeps your weight evenly distributed , making it the perfect coccyx relief cushion . It gives you better proper posture and a vision boost , too , especially at your home or office computer desk .</t>
+        </is>
+      </c>
+      <c r="B3284" t="inlineStr">
+        <is>
+          <t>[('23', '27', 'MAT'), ('54', '65', 'NMAT'), ('176', '180', 'MAT'), ('280', '284', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3284" t="inlineStr">
+        <is>
+          <t>['FOAM', 'memory foam', 'foam', 'foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="inlineStr">
+        <is>
+          <t>【 Cooling Comfort , Enjoy the Coolness 】 - Our cooling cushion for circulation could naturally adjust your body temperature . This therapeutic thick bird ' s nest cooling structure design actively increases air flow and circulation , prevents seat sweat and does not get hot , unlike the memory foam models</t>
+        </is>
+      </c>
+      <c r="B3285" t="inlineStr">
+        <is>
+          <t>[('163', '180', 'PROPERTY'), ('288', '299', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3285" t="inlineStr">
+        <is>
+          <t>['cooling structure', 'memory foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="inlineStr">
+        <is>
+          <t>💘 High - Density Space Memory Foam - Fully optimize the shape and softness of the support surface . Firm yet comfortable , lumbar pillow supportive memory foam holds your waist in the right posture . Unlike other traditional back support pillow that slip and fall out of place or with insides that move around , the memory foam stays put , cradling both sides of your spine without feeling rock - hard , it is ideal for all - day use , whether driving in the car , traveling on a plane , sitting at your desk , or at home .</t>
+        </is>
+      </c>
+      <c r="B3286" t="inlineStr">
+        <is>
+          <t>[('23', '34', 'MAT'), ('109', '120', 'PROPERTY'), ('148', '159', 'MAT'), ('316', '327', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3286" t="inlineStr">
+        <is>
+          <t>['Memory Foam', 'comfortable', 'memory foam', 'memory foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="inlineStr">
+        <is>
+          <t>✅ Innovative Design : Invite famous home designers to design , no longer simply use the mixture of polyester fiber and memory foam as filler , we perfectly combine the characteristics of down substitute pillow and memory foam pillow to make the pillow soft and firm , Perfect support for the cervical spine . Ideal for back , stomach or side sleepers . Our pillows are the perfect blend of health , comfort and beauty .</t>
+        </is>
+      </c>
+      <c r="B3287" t="inlineStr">
+        <is>
+          <t>[('99', '114', 'NMAT'), ('119', '130', 'NMAT'), ('214', '225', 'MAT'), ('187', '191', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3287" t="inlineStr">
+        <is>
+          <t>['polyester fiber', 'memory foam', 'memory foam', 'down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="inlineStr">
+        <is>
+          <t>SOFT AND COMFORTABLE : Our piercing pillows are made of 100 % cotton breathable fabric cover and down filling , down filling is better than regular cotton , reusable , and you can machine wash and dry normally .</t>
+        </is>
+      </c>
+      <c r="B3288" t="inlineStr">
+        <is>
+          <t>[('0', '4', 'PROPERTY'), ('9', '20', 'PROPERTY'), ('56', '68', 'MAT'), ('148', '154', 'NMAT'), ('157', '165', 'PROPERTY'), ('180', '192', 'PROPERTY'), ('69', '79', 'PROPERTY'), ('80', '86', 'MAT'), ('97', '101', 'MAT'), ('112', '116', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3288" t="inlineStr">
+        <is>
+          <t>['SOFT', 'COMFORTABLE', '100 % cotton', 'cotton', 'reusable', 'machine wash', 'breathable', 'fabric', 'down', 'down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" t="inlineStr">
+        <is>
+          <t>Exclusively for Comfort - U Pillows : Proudly made in the USA , our Comfort - U pillows are filled with a unique synthetic down called Fusion Fiberfill . It is designed to never lose its shape , no matter the amount of use .</t>
+        </is>
+      </c>
+      <c r="B3289" t="inlineStr">
+        <is>
+          <t>[('113', '127', 'MAT'), ('135', '151', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3289" t="inlineStr">
+        <is>
+          <t>['synthetic down', 'Fusion Fiberfill']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" t="inlineStr">
+        <is>
+          <t>Comfortable Bed Pillows - Acanva standard pillows are made of ultra - plush down alternative polyester filling which is extremely fluffy , it can quick rebound and not easy to deform , this fluffy pillow can keep the neck and head between the natural curves without causing pressure on the neck , helping to reduce neck pain and relieve shoulder stiffness .</t>
+        </is>
+      </c>
+      <c r="B3290" t="inlineStr">
+        <is>
+          <t>[('0', '11', 'PROPERTY'), ('62', '80', 'MAT'), ('93', '102', 'MAT'), ('130', '136', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3290" t="inlineStr">
+        <is>
+          <t>['Comfortable', 'ultra - plush down', 'polyester', 'fluffy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" t="inlineStr">
+        <is>
+          <t>★ Provides Custom Support - Unlike most traditional airline travel pillows , our twistable travel pillows contour to almost any shape and position you want to provide you personalized support and pain relief .</t>
+        </is>
+      </c>
+      <c r="B3291" t="inlineStr">
+        <is>
+          <t>[('81', '90', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3291" t="inlineStr">
+        <is>
+          <t>['twistable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" t="inlineStr">
+        <is>
+          <t>PERFECT SIZE TO FIT YOUR EAR - Unlike normal ear piercing pillow , our piercing pillow for side sleepers size is very thick and comfortable , the outer diameter about 9 . 9in , the inner diameter is about 3 . 5in and the thickness is about 3 . 8in . The ear hole pillow can be used on top of other pillows for added elevation and support - allowing you to find your personal comfort zone .</t>
+        </is>
+      </c>
+      <c r="B3292" t="inlineStr">
+        <is>
+          <t>[('118', '123', 'PROPERTY'), ('128', '139', 'PROPERTY'), ('167', '174', 'DIMENSION'), ('205', '212', 'DIMENSION'), ('240', '247', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3292" t="inlineStr">
+        <is>
+          <t>['thick', 'comfortable', '9 . 9in', '3 . 5in', '3 . 8in']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" t="inlineStr">
+        <is>
+          <t>SOFT AND COMFORTABLE : Our piercing pillows are made of 100 % cotton breathable fabric cover and down filling , down filling is better than regular cotton , reusable , and you can machine wash and dry normally .</t>
+        </is>
+      </c>
+      <c r="B3293" t="inlineStr">
+        <is>
+          <t>[('0', '4', 'PROPERTY'), ('9', '20', 'PROPERTY'), ('56', '68', 'MAT'), ('148', '154', 'NMAT'), ('157', '165', 'PROPERTY'), ('180', '192', 'PROPERTY'), ('69', '79', 'PROPERTY'), ('80', '86', 'MAT'), ('97', '101', 'MAT'), ('112', '116', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3293" t="inlineStr">
+        <is>
+          <t>['SOFT', 'COMFORTABLE', '100 % cotton', 'cotton', 'reusable', 'machine wash', 'breathable', 'fabric', 'down', 'down']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" t="inlineStr">
+        <is>
+          <t>FIRM YET GENTLE - unlike ordinary orthopedic back support cushions , back orthopedic pillows and back orthopedic supports , the pain relieving QiPillow orthopedic back comfort &amp; posture support cushion never collapses under body weight , and never loses its level of support no matter how firm or soft you set it , even after prolonged period of sitting .</t>
+        </is>
+      </c>
+      <c r="B3294" t="inlineStr">
+        <is>
+          <t>[('0', '15', 'TARGET_USER'), ('152', '162', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3294" t="inlineStr">
+        <is>
+          <t>['FIRM YET GENTLE', 'orthopedic']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" t="inlineStr">
+        <is>
+          <t>PERFECT SIZE TO FIT YOUR EAR – Unlike normal pillows , our pillow is compact in size , which measures about 10 ” and the hole in the middle is about 3 . 5 ” . The hole is perfect for you to put your ear in while you sleep and the rest of the ear pillow provides good support for your head . It ' s supportive without being too stiff .</t>
+        </is>
+      </c>
+      <c r="B3295" t="inlineStr">
+        <is>
+          <t>[('108', '112', 'DIMENSION'), ('149', '156', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3295" t="inlineStr">
+        <is>
+          <t>['10 ”', '3 . 5 ”']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" t="inlineStr">
+        <is>
+          <t>★ PROVIDES CUSTOM SUPPORT - Unlike most traditional airline travel pillows , our twistable travel pillows contour to almost any shape and position you want to provide you personalized support and pain relief .</t>
+        </is>
+      </c>
+      <c r="B3296" t="inlineStr">
+        <is>
+          <t>[('81', '90', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3296" t="inlineStr">
+        <is>
+          <t>['twistable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" t="inlineStr">
+        <is>
+          <t>ERGONOMIC CONTOUR DESIGN : The special cervical contour memory foam bed pillows are perfect for optimal neck support &amp; better spinal alignment . The contoured shape of these pillows do not sag unlike other cotton filled pillows . These pillows are durable , long lasting and provide excellent support and comfort with their pressure relieving and pain relief qualities .</t>
+        </is>
+      </c>
+      <c r="B3297" t="inlineStr">
+        <is>
+          <t>[('0', '24', 'PROPERTY'), ('48', '55', 'PROPERTY'), ('56', '67', 'MAT'), ('206', '212', 'NMAT'), ('248', '255', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3297" t="inlineStr">
+        <is>
+          <t>['ERGONOMIC CONTOUR DESIGN', 'contour', 'memory foam', 'cotton', 'durable']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" t="inlineStr">
+        <is>
+          <t>Ergonomic Design : The ergonomic seat cushion design of our pressure relief seat cushion provides the perfect balance of softness and support , helping to alleviate pressure points and provide maximum comfort . It also features a non - slip bottom to keep it securely in place on any surface so you won ' t slide around unlike other seat cushions for office chairs !</t>
+        </is>
+      </c>
+      <c r="B3298" t="inlineStr">
+        <is>
+          <t>[('0', '16', 'PROPERTY'), ('23', '37', 'PROPERTY'), ('230', '247', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3298" t="inlineStr">
+        <is>
+          <t>['Ergonomic Design', 'ergonomic seat', 'non - slip bottom']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" t="inlineStr">
+        <is>
+          <t>Wedge shape ( slant from the back 3 " down to 1 / 2 " in the front ) tilts your pelvis forward to restore your spine ' s natural lumbar lordotic curve .</t>
+        </is>
+      </c>
+      <c r="B3299" t="inlineStr">
+        <is>
+          <t>[('0', '11', 'SHAPE'), ('34', '42', 'DIMENSION'), ('46', '53', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3299" t="inlineStr">
+        <is>
+          <t>['Wedge shape', '3 " down', '1 / 2 "']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" t="inlineStr">
+        <is>
+          <t>【 Nice Breath Ability 】 : Best Service , Warranty &amp; 100 % your Money Back . Unlike your memory foam office chair cushion , car seat cushion , or foam wheelchair cushion . This unique gel honeycomb cooling structure greatly reduces heat transfer between the buttocks and the seat , increases air circulation and keep cool at the bottom for sedentary .</t>
+        </is>
+      </c>
+      <c r="B3300" t="inlineStr">
+        <is>
+          <t>[('88', '99', 'NMAT'), ('187', '196', 'PROPERTY'), ('339', '348', 'TARGET_USER')]</t>
+        </is>
+      </c>
+      <c r="C3300" t="inlineStr">
+        <is>
+          <t>['memory foam', 'honeycomb', 'sedentary']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" t="inlineStr">
+        <is>
+          <t>Donut Pillow for Tailbone Pain - The round tailbone pain relief donut cushions made of mesh fiber cotton and memory foam can prevent tailbone pain . This coccyx seat cushion donut is a circular design with a hole in the center , so it is also called a " doughnut cushion " . The pressure is evenly distributed when sitting down , the additional support required will keep your tail vertebra in a hanging , thereby reducing most of the pressure on the tailbone , and sitting for a long time can also relax</t>
+        </is>
+      </c>
+      <c r="B3301" t="inlineStr">
+        <is>
+          <t>[('0', '5', 'SHAPE'), ('37', '42', 'SHAPE'), ('87', '104', 'MAT'), ('109', '120', 'MAT'), ('174', '179', 'SHAPE'), ('254', '262', 'SHAPE'), ('185', '200', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3301" t="inlineStr">
+        <is>
+          <t>['Donut', 'round', 'mesh fiber cotton', 'memory foam', 'donut', 'doughnut', 'circular design']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" t="inlineStr">
+        <is>
+          <t>【 Enjoy the Coolness 】 : Our purple seat cushion has a therapeutic thick honeycomb gel design to increase air flow for ultimate cooling comfort to prevent seat sweat and a ventilated mesh cover that does not get hot , unlike the memory foam models . Everlasting seat cushion .</t>
+        </is>
+      </c>
+      <c r="B3302" t="inlineStr">
+        <is>
+          <t>[('29', '35', 'COLOR'), ('73', '86', 'MAT'), ('172', '193', 'PROPERTY'), ('250', '261', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3302" t="inlineStr">
+        <is>
+          <t>['purple', 'honeycomb gel', 'ventilated mesh cover', 'Everlasting']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" t="inlineStr">
+        <is>
+          <t>【 Breathability and heat dissipation 】 Our Blue seat cushion has a therapeutic thick honeycomb gel design , and the built - in free - flowing air channel for ultimate cooling comfort to prevent seat sweat and a ventilated mesh cover that does not get hot , unlike the memory foam models .</t>
+        </is>
+      </c>
+      <c r="B3303" t="inlineStr">
+        <is>
+          <t>[('2', '15', 'PROPERTY'), ('20', '36', 'PROPERTY'), ('43', '47', 'COLOR'), ('85', '98', 'MAT'), ('127', '153', 'PROPERTY'), ('211', '232', 'PROPERTY'), ('268', '279', 'NMAT')]</t>
+        </is>
+      </c>
+      <c r="C3303" t="inlineStr">
+        <is>
+          <t>['Breathability', 'heat dissipation', 'Blue', 'honeycomb gel', 'free - flowing air channel', 'ventilated mesh cover', 'memory foam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" t="inlineStr">
+        <is>
+          <t>PACKAGE INCLUDES : 1 Gel Seat Cushion for Long Sitting + 1 Nonslip Cover ; Cushion Specification : 17 . 3 " x 18 . 5 " x 1 . 2 " ( 1160 GRAM ) ; Large enough to fit car seats , office chairs or wheel chairs ; Besides , unlike those made of heavy - duty material , this gel seat cushion is large in size , yet lightweight to bring along with you wherever you need it . And when you don ' t need it , it ' s compact enough to store easily ;</t>
+        </is>
+      </c>
+      <c r="B3304" t="inlineStr">
+        <is>
+          <t>[('19', '37', 'PROPERTY'), ('57', '72', 'PROPERTY'), ('240', '252', 'PROPERTY'), ('269', '272', 'MAT'), ('289', '294', 'SIZE'), ('309', '320', 'PROPERTY'), ('99', '128', 'DIMENSION'), ('131', '140', 'WEIGHT')]</t>
+        </is>
+      </c>
+      <c r="C3304" t="inlineStr">
+        <is>
+          <t>['1 Gel Seat Cushion', '1 Nonslip Cover', 'heavy - duty', 'gel', 'large', 'lightweight', '17 . 3 " x 18 . 5 " x 1 . 2 "', '1160 GRAM']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" t="inlineStr">
+        <is>
+          <t>SAY GOODBYE TO SEAT SWEAT : Unlike those memory foam office chair cushions , this cooling seat cushion is with honeycomb design , the built - in , free - flowing air channels provide perfect heat dissipation and will prevent seat sweat and stay comfortably cool instead of heating where you sit . Our seat cushion adopts a honeycomb design , and the built - in free - flowing air channel prevents the seat from sweating , keeping your butt feel cool and comfortable ;</t>
+        </is>
+      </c>
+      <c r="B3305" t="inlineStr">
+        <is>
+          <t>[('41', '52', 'NMAT'), ('111', '127', 'PROPERTY'), ('147', '174', 'PROPERTY'), ('191', '207', 'PROPERTY'), ('361', '387', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3305" t="inlineStr">
+        <is>
+          <t>['memory foam', 'honeycomb design', 'free - flowing air channels', 'heat dissipation', 'free - flowing air channel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" t="inlineStr">
+        <is>
+          <t>L - Shaped Design - Fit the lower back to protect the lumbar spine . Unlike flat seat cushions , our office chair cushion provides Provides excellent support and comfort while reducing pressure on the coccyx / tailbone and promotes healthy posture</t>
+        </is>
+      </c>
+      <c r="B3306" t="inlineStr">
+        <is>
+          <t>[('0', '10', 'SHAPE')]</t>
+        </is>
+      </c>
+      <c r="C3306" t="inlineStr">
+        <is>
+          <t>['L - Shaped']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" t="inlineStr">
+        <is>
+          <t>The Ultimate Pillowcase : The pillow cases you choose matter ! This white satin pillowcase was made to perfectly fit Pillow with an Ear Hole for a more comfortable and pain free sleep . A satin pillowcase has a soft texture that regulates temperature and , unlike cotton , satin is gentler and wicks away moisture instead of absorbing it . Trade in your plain white pillowcases and choose a satin pillowcase for healthier hair and skin !</t>
+        </is>
+      </c>
+      <c r="B3307" t="inlineStr">
+        <is>
+          <t>[('68', '73', 'COLOR'), ('74', '79', 'MAT'), ('188', '193', 'MAT'), ('211', '223', 'PROPERTY'), ('264', '270', 'NMAT'), ('273', '278', 'MAT'), ('360', '365', 'COLOR'), ('391', '396', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3307" t="inlineStr">
+        <is>
+          <t>['white', 'satin', 'satin', 'soft texture', 'cotton', 'satin', 'white', 'satin']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" t="inlineStr">
+        <is>
+          <t>[ Comfortable and Durable ] Made with premium - quality high - density foam . Our wedge foam is free from toxic substances , will not be harsh against your skin and doesn ’ t get heated , unlike other memory foam mattresses . Our wedge foam not only has breathable lining protection , but also protected with a highly comfortable , removable cover that can be washed and is sure to last for many years of use .</t>
+        </is>
+      </c>
+      <c r="B3308" t="inlineStr">
+        <is>
+          <t>[('2', '13', 'PROPERTY'), ('18', '25', 'PROPERTY'), ('71', '75', 'MAT'), ('82', '92', 'MAT'), ('201', '212', 'NMAT'), ('230', '240', 'MAT'), ('254', '282', 'PROPERTY'), ('318', '329', 'PROPERTY'), ('332', '347', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3308" t="inlineStr">
+        <is>
+          <t>['Comfortable', 'Durable', 'foam', 'wedge foam', 'memory foam', 'wedge foam', 'breathable lining protection', 'comfortable', 'removable cover']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" t="inlineStr">
+        <is>
+          <t>Breathable and Washable Cover : Instead of hard fabric that always makes fabrics of your clothes pill up , we select soft eye - bird mesh fabric . It is breathable , light , and elastic . The elastic cover helps the coccyx cushion adapt to your butt curve easily . The cover is removable and washable .</t>
+        </is>
+      </c>
+      <c r="B3309" t="inlineStr">
+        <is>
+          <t>[('0', '10', 'PROPERTY'), ('15', '23', 'PROPERTY'), ('73', '80', 'NMAT'), ('153', '163', 'PROPERTY'), ('166', '171', 'PROPERTY'), ('178', '185', 'PROPERTY'), ('192', '199', 'PROPERTY'), ('278', '287', 'PROPERTY'), ('292', '300', 'PROPERTY'), ('43', '54', 'NMAT'), ('117', '144', 'MAT')]</t>
+        </is>
+      </c>
+      <c r="C3309" t="inlineStr">
+        <is>
+          <t>['Breathable', 'Washable', 'fabrics', 'breathable', 'light', 'elastic', 'elastic', 'removable', 'washable', 'hard fabric', 'soft eye - bird mesh fabric']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" t="inlineStr">
+        <is>
+          <t>PERFECT SIZE TO FIT YOUR EAR – Unlike normal pillows , our pillow is compact in size , which measures about 10 ” and the hole in the middle is about 3 . 5 ” . The hole is perfect for you to put your ear in while you sleep and the rest of the ear pillow provides good support for your head . It ' s supportive without being too stiff .</t>
+        </is>
+      </c>
+      <c r="B3310" t="inlineStr">
+        <is>
+          <t>[('108', '112', 'DIMENSION'), ('149', '156', 'DIMENSION')]</t>
+        </is>
+      </c>
+      <c r="C3310" t="inlineStr">
+        <is>
+          <t>['10 ”', '3 . 5 ”']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" t="inlineStr">
+        <is>
+          <t>Sleep comfortably and cool with our allergy - resistant , natural latex pillow . Unlike dense memory foam , our pillow lets you stay cool without flipping to the other side . Personalize your support with fully adjustable fill for optimal neck , shoulder , and spine alignment .</t>
+        </is>
+      </c>
+      <c r="B3311" t="inlineStr">
+        <is>
+          <t>[('36', '55', 'PROPERTY'), ('58', '71', 'MAT'), ('94', '105', 'NMAT'), ('211', '226', 'PROPERTY')]</t>
+        </is>
+      </c>
+      <c r="C3311" t="inlineStr">
+        <is>
+          <t>['allergy - resistant', 'natural latex', 'memory foam', 'adjustable fill']</t>
         </is>
       </c>
     </row>
